--- a/ig/ch-elm/StructureDefinition-LaboratoryReport.xlsx
+++ b/ig/ch-elm/StructureDefinition-LaboratoryReport.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3400" uniqueCount="367">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3433" uniqueCount="370">
   <si>
     <t>Property</t>
   </si>
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.0.0</t>
+    <t>1.1.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-11-16T14:46:54+01:00</t>
+    <t>2024-01-31T12:59:55+01:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -496,13 +496,22 @@
     <t>LaboratoryReport.Orderer.extension</t>
   </si>
   <si>
-    <t>LaboratoryReport.Orderer.OrganizationGLN</t>
-  </si>
-  <si>
-    <t>Orderer organization Global location number (GLN) of the ordering organization</t>
-  </si>
-  <si>
-    <t>Bundle.entry.resource.as(DiagnosticReport).basedOn.resolve().requester.resolve().organization.resolve().identifier.where(system='urn:oid:2.51.1.3').value</t>
+    <t>LaboratoryReport.Orderer.OrganizationBER</t>
+  </si>
+  <si>
+    <t>Business and Enterprise Register (BER) of the ordering organization</t>
+  </si>
+  <si>
+    <t>Bundle.entry.resource.as(DiagnosticReport).basedOn.resolve().requester.resolve().organization.resolve().identifier.where(system='urn:oid:2.16.756.5.45').value</t>
+  </si>
+  <si>
+    <t>LaboratoryReport.Orderer.OrganizationUIDB</t>
+  </si>
+  <si>
+    <t>Unique Identification Business (UIDB) of the ordering organization</t>
+  </si>
+  <si>
+    <t>Bundle.entry.resource.as(DiagnosticReport).basedOn.resolve().requester.resolve().organization.resolve().identifier.where(system='urn:oid:2.16.756.5.35').value</t>
   </si>
   <si>
     <t>LaboratoryReport.Orderer.OrganizationName</t>
@@ -1441,7 +1450,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AL101"/>
+  <dimension ref="A1:AL102"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -4172,7 +4181,7 @@
       </c>
       <c r="E26" s="2"/>
       <c r="F26" t="s" s="2">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="G26" t="s" s="2">
         <v>88</v>
@@ -4247,7 +4256,7 @@
         <v>155</v>
       </c>
       <c r="AG26" t="s" s="2">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="AH26" t="s" s="2">
         <v>88</v>
@@ -4278,7 +4287,7 @@
       </c>
       <c r="E27" s="2"/>
       <c r="F27" t="s" s="2">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="G27" t="s" s="2">
         <v>88</v>
@@ -4293,7 +4302,7 @@
         <v>76</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>89</v>
+        <v>111</v>
       </c>
       <c r="L27" t="s" s="2">
         <v>159</v>
@@ -4353,7 +4362,7 @@
         <v>158</v>
       </c>
       <c r="AG27" t="s" s="2">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="AH27" t="s" s="2">
         <v>88</v>
@@ -4505,7 +4514,7 @@
         <v>76</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>105</v>
+        <v>89</v>
       </c>
       <c r="L29" t="s" s="2">
         <v>165</v>
@@ -4574,7 +4583,7 @@
         <v>76</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="AK29" t="s" s="2">
         <v>76</v>
@@ -4596,7 +4605,7 @@
       </c>
       <c r="E30" s="2"/>
       <c r="F30" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="G30" t="s" s="2">
         <v>88</v>
@@ -4611,13 +4620,13 @@
         <v>76</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>89</v>
+        <v>105</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>90</v>
+        <v>168</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>91</v>
+        <v>168</v>
       </c>
       <c r="N30" s="2"/>
       <c r="O30" s="2"/>
@@ -4668,10 +4677,10 @@
         <v>76</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>92</v>
+        <v>167</v>
       </c>
       <c r="AG30" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="AH30" t="s" s="2">
         <v>88</v>
@@ -4680,32 +4689,32 @@
         <v>76</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>76</v>
+        <v>169</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
-        <v>94</v>
+        <v>76</v>
       </c>
       <c r="E31" s="2"/>
       <c r="F31" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G31" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="H31" t="s" s="2">
         <v>76</v>
@@ -4717,17 +4726,15 @@
         <v>76</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="N31" t="s" s="2">
-        <v>98</v>
-      </c>
+        <v>91</v>
+      </c>
+      <c r="N31" s="2"/>
       <c r="O31" s="2"/>
       <c r="P31" t="s" s="2">
         <v>76</v>
@@ -4764,31 +4771,31 @@
         <v>76</v>
       </c>
       <c r="AB31" t="s" s="2">
-        <v>99</v>
+        <v>76</v>
       </c>
       <c r="AC31" t="s" s="2">
-        <v>100</v>
+        <v>76</v>
       </c>
       <c r="AD31" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>101</v>
+        <v>76</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH31" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="AI31" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>103</v>
+        <v>76</v>
       </c>
       <c r="AK31" t="s" s="2">
         <v>85</v>
@@ -4799,21 +4806,21 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
-        <v>76</v>
+        <v>94</v>
       </c>
       <c r="E32" s="2"/>
       <c r="F32" t="s" s="2">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="G32" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="H32" t="s" s="2">
         <v>76</v>
@@ -4825,15 +4832,17 @@
         <v>76</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>111</v>
+        <v>95</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>170</v>
+        <v>96</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>170</v>
-      </c>
-      <c r="N32" s="2"/>
+        <v>97</v>
+      </c>
+      <c r="N32" t="s" s="2">
+        <v>98</v>
+      </c>
       <c r="O32" s="2"/>
       <c r="P32" t="s" s="2">
         <v>76</v>
@@ -4870,37 +4879,37 @@
         <v>76</v>
       </c>
       <c r="AB32" t="s" s="2">
-        <v>76</v>
+        <v>99</v>
       </c>
       <c r="AC32" t="s" s="2">
-        <v>76</v>
+        <v>100</v>
       </c>
       <c r="AD32" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>76</v>
+        <v>101</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>169</v>
+        <v>102</v>
       </c>
       <c r="AG32" t="s" s="2">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="AH32" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="AI32" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>76</v>
+        <v>103</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>171</v>
+        <v>76</v>
       </c>
     </row>
     <row r="33">
@@ -4931,7 +4940,7 @@
         <v>76</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>89</v>
+        <v>111</v>
       </c>
       <c r="L33" t="s" s="2">
         <v>173</v>
@@ -5355,7 +5364,7 @@
         <v>76</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>105</v>
+        <v>89</v>
       </c>
       <c r="L37" t="s" s="2">
         <v>185</v>
@@ -5424,7 +5433,7 @@
         <v>76</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="AK37" t="s" s="2">
         <v>76</v>
@@ -5446,7 +5455,7 @@
       </c>
       <c r="E38" s="2"/>
       <c r="F38" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="G38" t="s" s="2">
         <v>88</v>
@@ -5461,13 +5470,13 @@
         <v>76</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>89</v>
+        <v>105</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>90</v>
+        <v>188</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>91</v>
+        <v>188</v>
       </c>
       <c r="N38" s="2"/>
       <c r="O38" s="2"/>
@@ -5518,10 +5527,10 @@
         <v>76</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>92</v>
+        <v>187</v>
       </c>
       <c r="AG38" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="AH38" t="s" s="2">
         <v>88</v>
@@ -5530,32 +5539,32 @@
         <v>76</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>76</v>
+        <v>189</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
-        <v>94</v>
+        <v>76</v>
       </c>
       <c r="E39" s="2"/>
       <c r="F39" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G39" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="H39" t="s" s="2">
         <v>76</v>
@@ -5567,17 +5576,15 @@
         <v>76</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="N39" t="s" s="2">
-        <v>98</v>
-      </c>
+        <v>91</v>
+      </c>
+      <c r="N39" s="2"/>
       <c r="O39" s="2"/>
       <c r="P39" t="s" s="2">
         <v>76</v>
@@ -5614,31 +5621,31 @@
         <v>76</v>
       </c>
       <c r="AB39" t="s" s="2">
-        <v>99</v>
+        <v>76</v>
       </c>
       <c r="AC39" t="s" s="2">
-        <v>100</v>
+        <v>76</v>
       </c>
       <c r="AD39" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>101</v>
+        <v>76</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH39" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="AI39" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>103</v>
+        <v>76</v>
       </c>
       <c r="AK39" t="s" s="2">
         <v>85</v>
@@ -5649,21 +5656,21 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
-        <v>76</v>
+        <v>94</v>
       </c>
       <c r="E40" s="2"/>
       <c r="F40" t="s" s="2">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="G40" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="H40" t="s" s="2">
         <v>76</v>
@@ -5675,15 +5682,17 @@
         <v>76</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>190</v>
+        <v>96</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>190</v>
-      </c>
-      <c r="N40" s="2"/>
+        <v>97</v>
+      </c>
+      <c r="N40" t="s" s="2">
+        <v>98</v>
+      </c>
       <c r="O40" s="2"/>
       <c r="P40" t="s" s="2">
         <v>76</v>
@@ -5720,37 +5729,37 @@
         <v>76</v>
       </c>
       <c r="AB40" t="s" s="2">
-        <v>76</v>
+        <v>99</v>
       </c>
       <c r="AC40" t="s" s="2">
-        <v>76</v>
+        <v>100</v>
       </c>
       <c r="AD40" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>76</v>
+        <v>101</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>189</v>
+        <v>102</v>
       </c>
       <c r="AG40" t="s" s="2">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="AH40" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="AI40" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>76</v>
+        <v>103</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>191</v>
+        <v>76</v>
       </c>
     </row>
     <row r="41">
@@ -6099,7 +6108,7 @@
         <v>76</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>105</v>
+        <v>89</v>
       </c>
       <c r="L44" t="s" s="2">
         <v>202</v>
@@ -6168,7 +6177,7 @@
         <v>76</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="AK44" t="s" s="2">
         <v>76</v>
@@ -6190,7 +6199,7 @@
       </c>
       <c r="E45" s="2"/>
       <c r="F45" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="G45" t="s" s="2">
         <v>88</v>
@@ -6205,13 +6214,13 @@
         <v>76</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>89</v>
+        <v>105</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>90</v>
+        <v>205</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>91</v>
+        <v>205</v>
       </c>
       <c r="N45" s="2"/>
       <c r="O45" s="2"/>
@@ -6262,10 +6271,10 @@
         <v>76</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>92</v>
+        <v>204</v>
       </c>
       <c r="AG45" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="AH45" t="s" s="2">
         <v>88</v>
@@ -6274,32 +6283,32 @@
         <v>76</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>76</v>
+        <v>206</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
-        <v>94</v>
+        <v>76</v>
       </c>
       <c r="E46" s="2"/>
       <c r="F46" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G46" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="H46" t="s" s="2">
         <v>76</v>
@@ -6311,17 +6320,15 @@
         <v>76</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="N46" t="s" s="2">
-        <v>98</v>
-      </c>
+        <v>91</v>
+      </c>
+      <c r="N46" s="2"/>
       <c r="O46" s="2"/>
       <c r="P46" t="s" s="2">
         <v>76</v>
@@ -6358,31 +6365,31 @@
         <v>76</v>
       </c>
       <c r="AB46" t="s" s="2">
-        <v>99</v>
+        <v>76</v>
       </c>
       <c r="AC46" t="s" s="2">
-        <v>100</v>
+        <v>76</v>
       </c>
       <c r="AD46" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>101</v>
+        <v>76</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH46" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="AI46" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>103</v>
+        <v>76</v>
       </c>
       <c r="AK46" t="s" s="2">
         <v>85</v>
@@ -6393,21 +6400,21 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
-        <v>76</v>
+        <v>94</v>
       </c>
       <c r="E47" s="2"/>
       <c r="F47" t="s" s="2">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="G47" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="H47" t="s" s="2">
         <v>76</v>
@@ -6419,15 +6426,17 @@
         <v>76</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>111</v>
+        <v>95</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>207</v>
+        <v>96</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>207</v>
-      </c>
-      <c r="N47" s="2"/>
+        <v>97</v>
+      </c>
+      <c r="N47" t="s" s="2">
+        <v>98</v>
+      </c>
       <c r="O47" s="2"/>
       <c r="P47" t="s" s="2">
         <v>76</v>
@@ -6464,37 +6473,37 @@
         <v>76</v>
       </c>
       <c r="AB47" t="s" s="2">
-        <v>76</v>
+        <v>99</v>
       </c>
       <c r="AC47" t="s" s="2">
-        <v>76</v>
+        <v>100</v>
       </c>
       <c r="AD47" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>76</v>
+        <v>101</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>206</v>
+        <v>102</v>
       </c>
       <c r="AG47" t="s" s="2">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="AH47" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="AI47" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>84</v>
+        <v>103</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>208</v>
+        <v>76</v>
       </c>
     </row>
     <row r="48">
@@ -6510,7 +6519,7 @@
       </c>
       <c r="E48" s="2"/>
       <c r="F48" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="G48" t="s" s="2">
         <v>88</v>
@@ -6525,13 +6534,13 @@
         <v>76</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>89</v>
+        <v>111</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>90</v>
+        <v>210</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>91</v>
+        <v>210</v>
       </c>
       <c r="N48" s="2"/>
       <c r="O48" s="2"/>
@@ -6582,10 +6591,10 @@
         <v>76</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>92</v>
+        <v>209</v>
       </c>
       <c r="AG48" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="AH48" t="s" s="2">
         <v>88</v>
@@ -6594,32 +6603,32 @@
         <v>76</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>76</v>
+        <v>211</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
-        <v>94</v>
+        <v>76</v>
       </c>
       <c r="E49" s="2"/>
       <c r="F49" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G49" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="H49" t="s" s="2">
         <v>76</v>
@@ -6631,17 +6640,15 @@
         <v>76</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="N49" t="s" s="2">
-        <v>98</v>
-      </c>
+        <v>91</v>
+      </c>
+      <c r="N49" s="2"/>
       <c r="O49" s="2"/>
       <c r="P49" t="s" s="2">
         <v>76</v>
@@ -6678,31 +6685,31 @@
         <v>76</v>
       </c>
       <c r="AB49" t="s" s="2">
-        <v>99</v>
+        <v>76</v>
       </c>
       <c r="AC49" t="s" s="2">
-        <v>100</v>
+        <v>76</v>
       </c>
       <c r="AD49" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>101</v>
+        <v>76</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH49" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="AI49" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>103</v>
+        <v>76</v>
       </c>
       <c r="AK49" t="s" s="2">
         <v>85</v>
@@ -6713,46 +6720,44 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
-        <v>76</v>
+        <v>94</v>
       </c>
       <c r="E50" s="2"/>
       <c r="F50" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G50" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="H50" t="s" s="2">
         <v>76</v>
       </c>
       <c r="I50" t="s" s="2">
-        <v>212</v>
+        <v>76</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>212</v>
+        <v>76</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>119</v>
+        <v>95</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>213</v>
+        <v>96</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>214</v>
+        <v>97</v>
       </c>
       <c r="N50" t="s" s="2">
-        <v>215</v>
-      </c>
-      <c r="O50" t="s" s="2">
-        <v>216</v>
-      </c>
+        <v>98</v>
+      </c>
+      <c r="O50" s="2"/>
       <c r="P50" t="s" s="2">
         <v>76</v>
       </c>
@@ -6776,46 +6781,46 @@
         <v>76</v>
       </c>
       <c r="X50" t="s" s="2">
-        <v>217</v>
+        <v>76</v>
       </c>
       <c r="Y50" t="s" s="2">
-        <v>218</v>
+        <v>76</v>
       </c>
       <c r="Z50" t="s" s="2">
-        <v>219</v>
+        <v>76</v>
       </c>
       <c r="AA50" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AB50" t="s" s="2">
-        <v>76</v>
+        <v>99</v>
       </c>
       <c r="AC50" t="s" s="2">
-        <v>76</v>
+        <v>100</v>
       </c>
       <c r="AD50" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>76</v>
+        <v>101</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>220</v>
+        <v>102</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH50" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="AI50" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>84</v>
+        <v>103</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>221</v>
+        <v>85</v>
       </c>
       <c r="AL50" t="s" s="2">
         <v>76</v>
@@ -6823,10 +6828,10 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>222</v>
+        <v>214</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>222</v>
+        <v>214</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -6843,25 +6848,25 @@
         <v>76</v>
       </c>
       <c r="I51" t="s" s="2">
-        <v>76</v>
+        <v>215</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>223</v>
+        <v>119</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>224</v>
+        <v>216</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>225</v>
+        <v>217</v>
       </c>
       <c r="N51" t="s" s="2">
-        <v>226</v>
+        <v>218</v>
       </c>
       <c r="O51" t="s" s="2">
-        <v>227</v>
+        <v>219</v>
       </c>
       <c r="P51" t="s" s="2">
         <v>76</v>
@@ -6886,13 +6891,13 @@
         <v>76</v>
       </c>
       <c r="X51" t="s" s="2">
-        <v>228</v>
+        <v>220</v>
       </c>
       <c r="Y51" t="s" s="2">
-        <v>229</v>
+        <v>221</v>
       </c>
       <c r="Z51" t="s" s="2">
-        <v>230</v>
+        <v>222</v>
       </c>
       <c r="AA51" t="s" s="2">
         <v>76</v>
@@ -6910,7 +6915,7 @@
         <v>76</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>231</v>
+        <v>223</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>77</v>
@@ -6925,7 +6930,7 @@
         <v>84</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="AL51" t="s" s="2">
         <v>76</v>
@@ -6933,10 +6938,10 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>232</v>
+        <v>225</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>232</v>
+        <v>225</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -6956,22 +6961,22 @@
         <v>76</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>233</v>
+        <v>226</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>234</v>
+        <v>227</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>235</v>
+        <v>228</v>
       </c>
       <c r="N52" t="s" s="2">
-        <v>236</v>
+        <v>229</v>
       </c>
       <c r="O52" t="s" s="2">
-        <v>237</v>
+        <v>230</v>
       </c>
       <c r="P52" t="s" s="2">
         <v>76</v>
@@ -6984,7 +6989,7 @@
         <v>76</v>
       </c>
       <c r="T52" t="s" s="2">
-        <v>238</v>
+        <v>76</v>
       </c>
       <c r="U52" t="s" s="2">
         <v>76</v>
@@ -6996,13 +7001,13 @@
         <v>76</v>
       </c>
       <c r="X52" t="s" s="2">
-        <v>76</v>
+        <v>231</v>
       </c>
       <c r="Y52" t="s" s="2">
-        <v>76</v>
+        <v>232</v>
       </c>
       <c r="Z52" t="s" s="2">
-        <v>76</v>
+        <v>233</v>
       </c>
       <c r="AA52" t="s" s="2">
         <v>76</v>
@@ -7020,7 +7025,7 @@
         <v>76</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>77</v>
@@ -7035,7 +7040,7 @@
         <v>84</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>240</v>
+        <v>224</v>
       </c>
       <c r="AL52" t="s" s="2">
         <v>76</v>
@@ -7043,10 +7048,10 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -7066,21 +7071,23 @@
         <v>76</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>89</v>
+        <v>236</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="N53" t="s" s="2">
-        <v>244</v>
-      </c>
-      <c r="O53" s="2"/>
+        <v>239</v>
+      </c>
+      <c r="O53" t="s" s="2">
+        <v>240</v>
+      </c>
       <c r="P53" t="s" s="2">
         <v>76</v>
       </c>
@@ -7092,7 +7099,7 @@
         <v>76</v>
       </c>
       <c r="T53" t="s" s="2">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="U53" t="s" s="2">
         <v>76</v>
@@ -7128,7 +7135,7 @@
         <v>76</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>77</v>
@@ -7143,7 +7150,7 @@
         <v>84</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="AL53" t="s" s="2">
         <v>76</v>
@@ -7151,10 +7158,10 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -7174,18 +7181,20 @@
         <v>76</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>249</v>
+        <v>89</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>251</v>
-      </c>
-      <c r="N54" s="2"/>
+        <v>246</v>
+      </c>
+      <c r="N54" t="s" s="2">
+        <v>247</v>
+      </c>
       <c r="O54" s="2"/>
       <c r="P54" t="s" s="2">
         <v>76</v>
@@ -7198,7 +7207,7 @@
         <v>76</v>
       </c>
       <c r="T54" t="s" s="2">
-        <v>76</v>
+        <v>248</v>
       </c>
       <c r="U54" t="s" s="2">
         <v>76</v>
@@ -7234,7 +7243,7 @@
         <v>76</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>77</v>
@@ -7249,7 +7258,7 @@
         <v>84</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="AL54" t="s" s="2">
         <v>76</v>
@@ -7257,10 +7266,10 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -7280,20 +7289,18 @@
         <v>76</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>257</v>
-      </c>
-      <c r="N55" t="s" s="2">
-        <v>258</v>
-      </c>
+        <v>254</v>
+      </c>
+      <c r="N55" s="2"/>
       <c r="O55" s="2"/>
       <c r="P55" t="s" s="2">
         <v>76</v>
@@ -7342,7 +7349,7 @@
         <v>76</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>77</v>
@@ -7357,7 +7364,7 @@
         <v>84</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="AL55" t="s" s="2">
         <v>76</v>
@@ -7365,10 +7372,10 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -7388,18 +7395,20 @@
         <v>76</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>76</v>
+        <v>215</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>111</v>
+        <v>258</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>262</v>
-      </c>
-      <c r="N56" s="2"/>
+        <v>260</v>
+      </c>
+      <c r="N56" t="s" s="2">
+        <v>261</v>
+      </c>
       <c r="O56" s="2"/>
       <c r="P56" t="s" s="2">
         <v>76</v>
@@ -7448,7 +7457,7 @@
         <v>76</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>77</v>
@@ -7460,13 +7469,13 @@
         <v>76</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>76</v>
+        <v>263</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>263</v>
+        <v>76</v>
       </c>
     </row>
     <row r="57">
@@ -7588,7 +7597,7 @@
       </c>
       <c r="E58" s="2"/>
       <c r="F58" t="s" s="2">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="G58" t="s" s="2">
         <v>88</v>
@@ -7603,7 +7612,7 @@
         <v>76</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>89</v>
+        <v>111</v>
       </c>
       <c r="L58" t="s" s="2">
         <v>268</v>
@@ -7663,7 +7672,7 @@
         <v>267</v>
       </c>
       <c r="AG58" t="s" s="2">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="AH58" t="s" s="2">
         <v>88</v>
@@ -7815,7 +7824,7 @@
         <v>76</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>119</v>
+        <v>89</v>
       </c>
       <c r="L60" t="s" s="2">
         <v>274</v>
@@ -7921,13 +7930,13 @@
         <v>76</v>
       </c>
       <c r="K61" t="s" s="2">
+        <v>119</v>
+      </c>
+      <c r="L61" t="s" s="2">
         <v>277</v>
       </c>
-      <c r="L61" t="s" s="2">
-        <v>278</v>
-      </c>
       <c r="M61" t="s" s="2">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="N61" s="2"/>
       <c r="O61" s="2"/>
@@ -7996,15 +8005,15 @@
         <v>76</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -8027,7 +8036,7 @@
         <v>76</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>89</v>
+        <v>280</v>
       </c>
       <c r="L62" t="s" s="2">
         <v>281</v>
@@ -8084,7 +8093,7 @@
         <v>76</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>88</v>
@@ -8133,7 +8142,7 @@
         <v>76</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>105</v>
+        <v>89</v>
       </c>
       <c r="L63" t="s" s="2">
         <v>284</v>
@@ -8202,7 +8211,7 @@
         <v>76</v>
       </c>
       <c r="AJ63" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="AK63" t="s" s="2">
         <v>76</v>
@@ -8224,7 +8233,7 @@
       </c>
       <c r="E64" s="2"/>
       <c r="F64" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="G64" t="s" s="2">
         <v>88</v>
@@ -8239,13 +8248,13 @@
         <v>76</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>89</v>
+        <v>105</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>90</v>
+        <v>287</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>91</v>
+        <v>287</v>
       </c>
       <c r="N64" s="2"/>
       <c r="O64" s="2"/>
@@ -8296,10 +8305,10 @@
         <v>76</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>92</v>
+        <v>286</v>
       </c>
       <c r="AG64" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="AH64" t="s" s="2">
         <v>88</v>
@@ -8308,32 +8317,32 @@
         <v>76</v>
       </c>
       <c r="AJ64" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="AK64" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="AL64" t="s" s="2">
-        <v>76</v>
+        <v>288</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
-        <v>94</v>
+        <v>76</v>
       </c>
       <c r="E65" s="2"/>
       <c r="F65" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G65" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="H65" t="s" s="2">
         <v>76</v>
@@ -8345,17 +8354,15 @@
         <v>76</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="N65" t="s" s="2">
-        <v>98</v>
-      </c>
+        <v>91</v>
+      </c>
+      <c r="N65" s="2"/>
       <c r="O65" s="2"/>
       <c r="P65" t="s" s="2">
         <v>76</v>
@@ -8392,31 +8399,31 @@
         <v>76</v>
       </c>
       <c r="AB65" t="s" s="2">
-        <v>99</v>
+        <v>76</v>
       </c>
       <c r="AC65" t="s" s="2">
-        <v>100</v>
+        <v>76</v>
       </c>
       <c r="AD65" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AE65" t="s" s="2">
-        <v>101</v>
+        <v>76</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH65" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="AI65" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ65" t="s" s="2">
-        <v>103</v>
+        <v>76</v>
       </c>
       <c r="AK65" t="s" s="2">
         <v>85</v>
@@ -8427,21 +8434,21 @@
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
-        <v>76</v>
+        <v>94</v>
       </c>
       <c r="E66" s="2"/>
       <c r="F66" t="s" s="2">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="G66" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="H66" t="s" s="2">
         <v>76</v>
@@ -8453,15 +8460,17 @@
         <v>76</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>190</v>
+        <v>96</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>190</v>
-      </c>
-      <c r="N66" s="2"/>
+        <v>97</v>
+      </c>
+      <c r="N66" t="s" s="2">
+        <v>98</v>
+      </c>
       <c r="O66" s="2"/>
       <c r="P66" t="s" s="2">
         <v>76</v>
@@ -8498,45 +8507,45 @@
         <v>76</v>
       </c>
       <c r="AB66" t="s" s="2">
-        <v>76</v>
+        <v>99</v>
       </c>
       <c r="AC66" t="s" s="2">
-        <v>76</v>
+        <v>100</v>
       </c>
       <c r="AD66" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>76</v>
+        <v>101</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>288</v>
+        <v>102</v>
       </c>
       <c r="AG66" t="s" s="2">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="AH66" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="AI66" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ66" t="s" s="2">
-        <v>76</v>
+        <v>103</v>
       </c>
       <c r="AK66" t="s" s="2">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="AL66" t="s" s="2">
-        <v>289</v>
+        <v>76</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
@@ -8562,10 +8571,10 @@
         <v>89</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="N67" s="2"/>
       <c r="O67" s="2"/>
@@ -8616,7 +8625,7 @@
         <v>76</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>88</v>
@@ -8634,15 +8643,15 @@
         <v>76</v>
       </c>
       <c r="AL67" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
@@ -8722,7 +8731,7 @@
         <v>76</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="AG68" t="s" s="2">
         <v>88</v>
@@ -8740,15 +8749,15 @@
         <v>76</v>
       </c>
       <c r="AL68" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
@@ -8771,13 +8780,13 @@
         <v>76</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>119</v>
+        <v>89</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>295</v>
+        <v>202</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>295</v>
+        <v>202</v>
       </c>
       <c r="N69" s="2"/>
       <c r="O69" s="2"/>
@@ -8828,7 +8837,7 @@
         <v>76</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="AG69" t="s" s="2">
         <v>88</v>
@@ -8983,7 +8992,7 @@
         <v>76</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>105</v>
+        <v>119</v>
       </c>
       <c r="L71" t="s" s="2">
         <v>301</v>
@@ -9052,7 +9061,7 @@
         <v>76</v>
       </c>
       <c r="AJ71" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="AK71" t="s" s="2">
         <v>76</v>
@@ -9074,7 +9083,7 @@
       </c>
       <c r="E72" s="2"/>
       <c r="F72" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="G72" t="s" s="2">
         <v>88</v>
@@ -9089,13 +9098,13 @@
         <v>76</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>89</v>
+        <v>105</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>90</v>
+        <v>304</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>91</v>
+        <v>304</v>
       </c>
       <c r="N72" s="2"/>
       <c r="O72" s="2"/>
@@ -9146,10 +9155,10 @@
         <v>76</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>92</v>
+        <v>303</v>
       </c>
       <c r="AG72" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="AH72" t="s" s="2">
         <v>88</v>
@@ -9158,32 +9167,32 @@
         <v>76</v>
       </c>
       <c r="AJ72" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="AK72" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="AL72" t="s" s="2">
-        <v>76</v>
+        <v>305</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
-        <v>94</v>
+        <v>76</v>
       </c>
       <c r="E73" s="2"/>
       <c r="F73" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G73" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="H73" t="s" s="2">
         <v>76</v>
@@ -9195,17 +9204,15 @@
         <v>76</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="N73" t="s" s="2">
-        <v>98</v>
-      </c>
+        <v>91</v>
+      </c>
+      <c r="N73" s="2"/>
       <c r="O73" s="2"/>
       <c r="P73" t="s" s="2">
         <v>76</v>
@@ -9242,31 +9249,31 @@
         <v>76</v>
       </c>
       <c r="AB73" t="s" s="2">
-        <v>99</v>
+        <v>76</v>
       </c>
       <c r="AC73" t="s" s="2">
-        <v>100</v>
+        <v>76</v>
       </c>
       <c r="AD73" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AE73" t="s" s="2">
-        <v>101</v>
+        <v>76</v>
       </c>
       <c r="AF73" t="s" s="2">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="AG73" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH73" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="AI73" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ73" t="s" s="2">
-        <v>103</v>
+        <v>76</v>
       </c>
       <c r="AK73" t="s" s="2">
         <v>85</v>
@@ -9277,21 +9284,21 @@
     </row>
     <row r="74">
       <c r="A74" t="s" s="2">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
-        <v>76</v>
+        <v>94</v>
       </c>
       <c r="E74" s="2"/>
       <c r="F74" t="s" s="2">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="G74" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="H74" t="s" s="2">
         <v>76</v>
@@ -9303,15 +9310,17 @@
         <v>76</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>119</v>
+        <v>95</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>306</v>
+        <v>96</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>306</v>
-      </c>
-      <c r="N74" s="2"/>
+        <v>97</v>
+      </c>
+      <c r="N74" t="s" s="2">
+        <v>98</v>
+      </c>
       <c r="O74" s="2"/>
       <c r="P74" t="s" s="2">
         <v>76</v>
@@ -9348,37 +9357,37 @@
         <v>76</v>
       </c>
       <c r="AB74" t="s" s="2">
-        <v>76</v>
+        <v>99</v>
       </c>
       <c r="AC74" t="s" s="2">
-        <v>76</v>
+        <v>100</v>
       </c>
       <c r="AD74" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AE74" t="s" s="2">
-        <v>76</v>
+        <v>101</v>
       </c>
       <c r="AF74" t="s" s="2">
-        <v>305</v>
+        <v>102</v>
       </c>
       <c r="AG74" t="s" s="2">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="AH74" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="AI74" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ74" t="s" s="2">
-        <v>76</v>
+        <v>103</v>
       </c>
       <c r="AK74" t="s" s="2">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="AL74" t="s" s="2">
-        <v>307</v>
+        <v>76</v>
       </c>
     </row>
     <row r="75">
@@ -9409,7 +9418,7 @@
         <v>76</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="L75" t="s" s="2">
         <v>309</v>
@@ -9515,7 +9524,7 @@
         <v>76</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>105</v>
+        <v>115</v>
       </c>
       <c r="L76" t="s" s="2">
         <v>312</v>
@@ -9584,7 +9593,7 @@
         <v>76</v>
       </c>
       <c r="AJ76" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="AK76" t="s" s="2">
         <v>76</v>
@@ -9606,7 +9615,7 @@
       </c>
       <c r="E77" s="2"/>
       <c r="F77" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="G77" t="s" s="2">
         <v>88</v>
@@ -9621,13 +9630,13 @@
         <v>76</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>89</v>
+        <v>105</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>90</v>
+        <v>315</v>
       </c>
       <c r="M77" t="s" s="2">
-        <v>91</v>
+        <v>315</v>
       </c>
       <c r="N77" s="2"/>
       <c r="O77" s="2"/>
@@ -9678,10 +9687,10 @@
         <v>76</v>
       </c>
       <c r="AF77" t="s" s="2">
-        <v>92</v>
+        <v>314</v>
       </c>
       <c r="AG77" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="AH77" t="s" s="2">
         <v>88</v>
@@ -9690,32 +9699,32 @@
         <v>76</v>
       </c>
       <c r="AJ77" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="AK77" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="AL77" t="s" s="2">
-        <v>76</v>
+        <v>316</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="s" s="2">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="C78" s="2"/>
       <c r="D78" t="s" s="2">
-        <v>94</v>
+        <v>76</v>
       </c>
       <c r="E78" s="2"/>
       <c r="F78" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G78" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="H78" t="s" s="2">
         <v>76</v>
@@ -9727,17 +9736,15 @@
         <v>76</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="M78" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="N78" t="s" s="2">
-        <v>98</v>
-      </c>
+        <v>91</v>
+      </c>
+      <c r="N78" s="2"/>
       <c r="O78" s="2"/>
       <c r="P78" t="s" s="2">
         <v>76</v>
@@ -9774,31 +9781,31 @@
         <v>76</v>
       </c>
       <c r="AB78" t="s" s="2">
-        <v>99</v>
+        <v>76</v>
       </c>
       <c r="AC78" t="s" s="2">
-        <v>100</v>
+        <v>76</v>
       </c>
       <c r="AD78" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AE78" t="s" s="2">
-        <v>101</v>
+        <v>76</v>
       </c>
       <c r="AF78" t="s" s="2">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="AG78" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH78" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="AI78" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ78" t="s" s="2">
-        <v>103</v>
+        <v>76</v>
       </c>
       <c r="AK78" t="s" s="2">
         <v>85</v>
@@ -9809,21 +9816,21 @@
     </row>
     <row r="79">
       <c r="A79" t="s" s="2">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="C79" s="2"/>
       <c r="D79" t="s" s="2">
-        <v>76</v>
+        <v>94</v>
       </c>
       <c r="E79" s="2"/>
       <c r="F79" t="s" s="2">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="G79" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="H79" t="s" s="2">
         <v>76</v>
@@ -9835,15 +9842,17 @@
         <v>76</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>119</v>
+        <v>95</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>317</v>
+        <v>96</v>
       </c>
       <c r="M79" t="s" s="2">
-        <v>317</v>
-      </c>
-      <c r="N79" s="2"/>
+        <v>97</v>
+      </c>
+      <c r="N79" t="s" s="2">
+        <v>98</v>
+      </c>
       <c r="O79" s="2"/>
       <c r="P79" t="s" s="2">
         <v>76</v>
@@ -9880,37 +9889,37 @@
         <v>76</v>
       </c>
       <c r="AB79" t="s" s="2">
-        <v>76</v>
+        <v>99</v>
       </c>
       <c r="AC79" t="s" s="2">
-        <v>76</v>
+        <v>100</v>
       </c>
       <c r="AD79" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AE79" t="s" s="2">
-        <v>76</v>
+        <v>101</v>
       </c>
       <c r="AF79" t="s" s="2">
-        <v>316</v>
+        <v>102</v>
       </c>
       <c r="AG79" t="s" s="2">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="AH79" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="AI79" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ79" t="s" s="2">
-        <v>76</v>
+        <v>103</v>
       </c>
       <c r="AK79" t="s" s="2">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="AL79" t="s" s="2">
-        <v>318</v>
+        <v>76</v>
       </c>
     </row>
     <row r="80">
@@ -9941,7 +9950,7 @@
         <v>76</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>233</v>
+        <v>119</v>
       </c>
       <c r="L80" t="s" s="2">
         <v>320</v>
@@ -10047,7 +10056,7 @@
         <v>76</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>105</v>
+        <v>236</v>
       </c>
       <c r="L81" t="s" s="2">
         <v>323</v>
@@ -10116,7 +10125,7 @@
         <v>76</v>
       </c>
       <c r="AJ81" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="AK81" t="s" s="2">
         <v>76</v>
@@ -10138,7 +10147,7 @@
       </c>
       <c r="E82" s="2"/>
       <c r="F82" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="G82" t="s" s="2">
         <v>88</v>
@@ -10153,13 +10162,13 @@
         <v>76</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>89</v>
+        <v>105</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>90</v>
+        <v>326</v>
       </c>
       <c r="M82" t="s" s="2">
-        <v>91</v>
+        <v>326</v>
       </c>
       <c r="N82" s="2"/>
       <c r="O82" s="2"/>
@@ -10210,10 +10219,10 @@
         <v>76</v>
       </c>
       <c r="AF82" t="s" s="2">
-        <v>92</v>
+        <v>325</v>
       </c>
       <c r="AG82" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="AH82" t="s" s="2">
         <v>88</v>
@@ -10222,32 +10231,32 @@
         <v>76</v>
       </c>
       <c r="AJ82" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="AK82" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="AL82" t="s" s="2">
-        <v>76</v>
+        <v>327</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="s" s="2">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="B83" t="s" s="2">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="C83" s="2"/>
       <c r="D83" t="s" s="2">
-        <v>94</v>
+        <v>76</v>
       </c>
       <c r="E83" s="2"/>
       <c r="F83" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G83" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="H83" t="s" s="2">
         <v>76</v>
@@ -10259,17 +10268,15 @@
         <v>76</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="M83" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="N83" t="s" s="2">
-        <v>98</v>
-      </c>
+        <v>91</v>
+      </c>
+      <c r="N83" s="2"/>
       <c r="O83" s="2"/>
       <c r="P83" t="s" s="2">
         <v>76</v>
@@ -10306,31 +10313,31 @@
         <v>76</v>
       </c>
       <c r="AB83" t="s" s="2">
-        <v>99</v>
+        <v>76</v>
       </c>
       <c r="AC83" t="s" s="2">
-        <v>100</v>
+        <v>76</v>
       </c>
       <c r="AD83" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AE83" t="s" s="2">
-        <v>101</v>
+        <v>76</v>
       </c>
       <c r="AF83" t="s" s="2">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="AG83" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH83" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="AI83" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ83" t="s" s="2">
-        <v>103</v>
+        <v>76</v>
       </c>
       <c r="AK83" t="s" s="2">
         <v>85</v>
@@ -10341,21 +10348,21 @@
     </row>
     <row r="84">
       <c r="A84" t="s" s="2">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="B84" t="s" s="2">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="C84" s="2"/>
       <c r="D84" t="s" s="2">
-        <v>76</v>
+        <v>94</v>
       </c>
       <c r="E84" s="2"/>
       <c r="F84" t="s" s="2">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="G84" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="H84" t="s" s="2">
         <v>76</v>
@@ -10367,15 +10374,17 @@
         <v>76</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>115</v>
+        <v>95</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>328</v>
+        <v>96</v>
       </c>
       <c r="M84" t="s" s="2">
-        <v>328</v>
-      </c>
-      <c r="N84" s="2"/>
+        <v>97</v>
+      </c>
+      <c r="N84" t="s" s="2">
+        <v>98</v>
+      </c>
       <c r="O84" s="2"/>
       <c r="P84" t="s" s="2">
         <v>76</v>
@@ -10412,37 +10421,37 @@
         <v>76</v>
       </c>
       <c r="AB84" t="s" s="2">
-        <v>76</v>
+        <v>99</v>
       </c>
       <c r="AC84" t="s" s="2">
-        <v>76</v>
+        <v>100</v>
       </c>
       <c r="AD84" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AE84" t="s" s="2">
-        <v>76</v>
+        <v>101</v>
       </c>
       <c r="AF84" t="s" s="2">
-        <v>327</v>
+        <v>102</v>
       </c>
       <c r="AG84" t="s" s="2">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="AH84" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="AI84" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ84" t="s" s="2">
-        <v>76</v>
+        <v>103</v>
       </c>
       <c r="AK84" t="s" s="2">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="AL84" t="s" s="2">
-        <v>329</v>
+        <v>76</v>
       </c>
     </row>
     <row r="85">
@@ -10473,7 +10482,7 @@
         <v>76</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="L85" t="s" s="2">
         <v>331</v>
@@ -10542,7 +10551,7 @@
         <v>76</v>
       </c>
       <c r="AJ85" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="AK85" t="s" s="2">
         <v>76</v>
@@ -10564,7 +10573,7 @@
       </c>
       <c r="E86" s="2"/>
       <c r="F86" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="G86" t="s" s="2">
         <v>88</v>
@@ -10579,13 +10588,13 @@
         <v>76</v>
       </c>
       <c r="K86" t="s" s="2">
-        <v>89</v>
+        <v>119</v>
       </c>
       <c r="L86" t="s" s="2">
         <v>334</v>
       </c>
       <c r="M86" t="s" s="2">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="N86" s="2"/>
       <c r="O86" s="2"/>
@@ -10636,10 +10645,10 @@
         <v>76</v>
       </c>
       <c r="AF86" t="s" s="2">
-        <v>92</v>
+        <v>333</v>
       </c>
       <c r="AG86" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="AH86" t="s" s="2">
         <v>88</v>
@@ -10648,13 +10657,13 @@
         <v>76</v>
       </c>
       <c r="AJ86" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="AK86" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL86" t="s" s="2">
-        <v>76</v>
+        <v>335</v>
       </c>
     </row>
     <row r="87">
@@ -10666,14 +10675,14 @@
       </c>
       <c r="C87" s="2"/>
       <c r="D87" t="s" s="2">
-        <v>94</v>
+        <v>76</v>
       </c>
       <c r="E87" s="2"/>
       <c r="F87" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G87" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="H87" t="s" s="2">
         <v>76</v>
@@ -10685,17 +10694,15 @@
         <v>76</v>
       </c>
       <c r="K87" t="s" s="2">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>96</v>
+        <v>337</v>
       </c>
       <c r="M87" t="s" s="2">
-        <v>337</v>
-      </c>
-      <c r="N87" t="s" s="2">
-        <v>98</v>
-      </c>
+        <v>338</v>
+      </c>
+      <c r="N87" s="2"/>
       <c r="O87" s="2"/>
       <c r="P87" t="s" s="2">
         <v>76</v>
@@ -10744,19 +10751,19 @@
         <v>76</v>
       </c>
       <c r="AF87" t="s" s="2">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="AG87" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH87" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="AI87" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ87" t="s" s="2">
-        <v>103</v>
+        <v>76</v>
       </c>
       <c r="AK87" t="s" s="2">
         <v>76</v>
@@ -10767,21 +10774,21 @@
     </row>
     <row r="88">
       <c r="A88" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="B88" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="C88" s="2"/>
       <c r="D88" t="s" s="2">
-        <v>76</v>
+        <v>94</v>
       </c>
       <c r="E88" s="2"/>
       <c r="F88" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G88" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="H88" t="s" s="2">
         <v>76</v>
@@ -10793,15 +10800,17 @@
         <v>76</v>
       </c>
       <c r="K88" t="s" s="2">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>339</v>
+        <v>96</v>
       </c>
       <c r="M88" t="s" s="2">
-        <v>339</v>
-      </c>
-      <c r="N88" s="2"/>
+        <v>340</v>
+      </c>
+      <c r="N88" t="s" s="2">
+        <v>98</v>
+      </c>
       <c r="O88" s="2"/>
       <c r="P88" t="s" s="2">
         <v>76</v>
@@ -10850,19 +10859,19 @@
         <v>76</v>
       </c>
       <c r="AF88" t="s" s="2">
-        <v>340</v>
+        <v>102</v>
       </c>
       <c r="AG88" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH88" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="AI88" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ88" t="s" s="2">
-        <v>76</v>
+        <v>103</v>
       </c>
       <c r="AK88" t="s" s="2">
         <v>76</v>
@@ -10899,13 +10908,13 @@
         <v>76</v>
       </c>
       <c r="K89" t="s" s="2">
-        <v>119</v>
+        <v>89</v>
       </c>
       <c r="L89" t="s" s="2">
-        <v>317</v>
+        <v>342</v>
       </c>
       <c r="M89" t="s" s="2">
-        <v>317</v>
+        <v>342</v>
       </c>
       <c r="N89" s="2"/>
       <c r="O89" s="2"/>
@@ -10956,7 +10965,7 @@
         <v>76</v>
       </c>
       <c r="AF89" t="s" s="2">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="AG89" t="s" s="2">
         <v>77</v>
@@ -10974,15 +10983,15 @@
         <v>76</v>
       </c>
       <c r="AL89" t="s" s="2">
-        <v>342</v>
+        <v>76</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="B90" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="C90" s="2"/>
       <c r="D90" t="s" s="2">
@@ -11005,7 +11014,7 @@
         <v>76</v>
       </c>
       <c r="K90" t="s" s="2">
-        <v>233</v>
+        <v>119</v>
       </c>
       <c r="L90" t="s" s="2">
         <v>320</v>
@@ -11062,7 +11071,7 @@
         <v>76</v>
       </c>
       <c r="AF90" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="AG90" t="s" s="2">
         <v>77</v>
@@ -11080,15 +11089,15 @@
         <v>76</v>
       </c>
       <c r="AL90" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="B91" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="C91" s="2"/>
       <c r="D91" t="s" s="2">
@@ -11111,13 +11120,13 @@
         <v>76</v>
       </c>
       <c r="K91" t="s" s="2">
-        <v>89</v>
+        <v>236</v>
       </c>
       <c r="L91" t="s" s="2">
-        <v>346</v>
+        <v>323</v>
       </c>
       <c r="M91" t="s" s="2">
-        <v>346</v>
+        <v>323</v>
       </c>
       <c r="N91" s="2"/>
       <c r="O91" s="2"/>
@@ -11168,7 +11177,7 @@
         <v>76</v>
       </c>
       <c r="AF91" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="AG91" t="s" s="2">
         <v>77</v>
@@ -11202,7 +11211,7 @@
       </c>
       <c r="E92" s="2"/>
       <c r="F92" t="s" s="2">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="G92" t="s" s="2">
         <v>88</v>
@@ -11217,7 +11226,7 @@
         <v>76</v>
       </c>
       <c r="K92" t="s" s="2">
-        <v>105</v>
+        <v>89</v>
       </c>
       <c r="L92" t="s" s="2">
         <v>349</v>
@@ -11277,7 +11286,7 @@
         <v>348</v>
       </c>
       <c r="AG92" t="s" s="2">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="AH92" t="s" s="2">
         <v>88</v>
@@ -11286,7 +11295,7 @@
         <v>76</v>
       </c>
       <c r="AJ92" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="AK92" t="s" s="2">
         <v>76</v>
@@ -11308,7 +11317,7 @@
       </c>
       <c r="E93" s="2"/>
       <c r="F93" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="G93" t="s" s="2">
         <v>88</v>
@@ -11323,13 +11332,13 @@
         <v>76</v>
       </c>
       <c r="K93" t="s" s="2">
-        <v>89</v>
+        <v>105</v>
       </c>
       <c r="L93" t="s" s="2">
-        <v>90</v>
+        <v>352</v>
       </c>
       <c r="M93" t="s" s="2">
-        <v>91</v>
+        <v>352</v>
       </c>
       <c r="N93" s="2"/>
       <c r="O93" s="2"/>
@@ -11380,10 +11389,10 @@
         <v>76</v>
       </c>
       <c r="AF93" t="s" s="2">
-        <v>92</v>
+        <v>351</v>
       </c>
       <c r="AG93" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="AH93" t="s" s="2">
         <v>88</v>
@@ -11392,32 +11401,32 @@
         <v>76</v>
       </c>
       <c r="AJ93" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="AK93" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="AL93" t="s" s="2">
-        <v>76</v>
+        <v>353</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="s" s="2">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="B94" t="s" s="2">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="C94" s="2"/>
       <c r="D94" t="s" s="2">
-        <v>94</v>
+        <v>76</v>
       </c>
       <c r="E94" s="2"/>
       <c r="F94" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G94" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="H94" t="s" s="2">
         <v>76</v>
@@ -11429,17 +11438,15 @@
         <v>76</v>
       </c>
       <c r="K94" t="s" s="2">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="L94" t="s" s="2">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="M94" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="N94" t="s" s="2">
-        <v>98</v>
-      </c>
+        <v>91</v>
+      </c>
+      <c r="N94" s="2"/>
       <c r="O94" s="2"/>
       <c r="P94" t="s" s="2">
         <v>76</v>
@@ -11476,31 +11483,31 @@
         <v>76</v>
       </c>
       <c r="AB94" t="s" s="2">
-        <v>99</v>
+        <v>76</v>
       </c>
       <c r="AC94" t="s" s="2">
-        <v>100</v>
+        <v>76</v>
       </c>
       <c r="AD94" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AE94" t="s" s="2">
-        <v>101</v>
+        <v>76</v>
       </c>
       <c r="AF94" t="s" s="2">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="AG94" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH94" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="AI94" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ94" t="s" s="2">
-        <v>103</v>
+        <v>76</v>
       </c>
       <c r="AK94" t="s" s="2">
         <v>85</v>
@@ -11511,21 +11518,21 @@
     </row>
     <row r="95">
       <c r="A95" t="s" s="2">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="B95" t="s" s="2">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="C95" s="2"/>
       <c r="D95" t="s" s="2">
-        <v>76</v>
+        <v>94</v>
       </c>
       <c r="E95" s="2"/>
       <c r="F95" t="s" s="2">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="G95" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="H95" t="s" s="2">
         <v>76</v>
@@ -11537,15 +11544,17 @@
         <v>76</v>
       </c>
       <c r="K95" t="s" s="2">
-        <v>119</v>
+        <v>95</v>
       </c>
       <c r="L95" t="s" s="2">
-        <v>317</v>
+        <v>96</v>
       </c>
       <c r="M95" t="s" s="2">
-        <v>317</v>
-      </c>
-      <c r="N95" s="2"/>
+        <v>97</v>
+      </c>
+      <c r="N95" t="s" s="2">
+        <v>98</v>
+      </c>
       <c r="O95" s="2"/>
       <c r="P95" t="s" s="2">
         <v>76</v>
@@ -11582,45 +11591,45 @@
         <v>76</v>
       </c>
       <c r="AB95" t="s" s="2">
-        <v>76</v>
+        <v>99</v>
       </c>
       <c r="AC95" t="s" s="2">
-        <v>76</v>
+        <v>100</v>
       </c>
       <c r="AD95" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AE95" t="s" s="2">
-        <v>76</v>
+        <v>101</v>
       </c>
       <c r="AF95" t="s" s="2">
-        <v>353</v>
+        <v>102</v>
       </c>
       <c r="AG95" t="s" s="2">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="AH95" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="AI95" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ95" t="s" s="2">
-        <v>76</v>
+        <v>103</v>
       </c>
       <c r="AK95" t="s" s="2">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="AL95" t="s" s="2">
-        <v>354</v>
+        <v>76</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="B96" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="C96" s="2"/>
       <c r="D96" t="s" s="2">
@@ -11643,7 +11652,7 @@
         <v>76</v>
       </c>
       <c r="K96" t="s" s="2">
-        <v>233</v>
+        <v>119</v>
       </c>
       <c r="L96" t="s" s="2">
         <v>320</v>
@@ -11700,7 +11709,7 @@
         <v>76</v>
       </c>
       <c r="AF96" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="AG96" t="s" s="2">
         <v>88</v>
@@ -11718,15 +11727,15 @@
         <v>76</v>
       </c>
       <c r="AL96" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="B97" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="C97" s="2"/>
       <c r="D97" t="s" s="2">
@@ -11749,13 +11758,13 @@
         <v>76</v>
       </c>
       <c r="K97" t="s" s="2">
-        <v>105</v>
+        <v>236</v>
       </c>
       <c r="L97" t="s" s="2">
-        <v>358</v>
+        <v>323</v>
       </c>
       <c r="M97" t="s" s="2">
-        <v>358</v>
+        <v>323</v>
       </c>
       <c r="N97" s="2"/>
       <c r="O97" s="2"/>
@@ -11806,7 +11815,7 @@
         <v>76</v>
       </c>
       <c r="AF97" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="AG97" t="s" s="2">
         <v>88</v>
@@ -11818,7 +11827,7 @@
         <v>76</v>
       </c>
       <c r="AJ97" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="AK97" t="s" s="2">
         <v>76</v>
@@ -11840,7 +11849,7 @@
       </c>
       <c r="E98" s="2"/>
       <c r="F98" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="G98" t="s" s="2">
         <v>88</v>
@@ -11855,13 +11864,13 @@
         <v>76</v>
       </c>
       <c r="K98" t="s" s="2">
-        <v>89</v>
+        <v>105</v>
       </c>
       <c r="L98" t="s" s="2">
-        <v>90</v>
+        <v>361</v>
       </c>
       <c r="M98" t="s" s="2">
-        <v>91</v>
+        <v>361</v>
       </c>
       <c r="N98" s="2"/>
       <c r="O98" s="2"/>
@@ -11912,10 +11921,10 @@
         <v>76</v>
       </c>
       <c r="AF98" t="s" s="2">
-        <v>92</v>
+        <v>360</v>
       </c>
       <c r="AG98" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="AH98" t="s" s="2">
         <v>88</v>
@@ -11924,32 +11933,32 @@
         <v>76</v>
       </c>
       <c r="AJ98" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="AK98" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="AL98" t="s" s="2">
-        <v>76</v>
+        <v>362</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="s" s="2">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="B99" t="s" s="2">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="C99" s="2"/>
       <c r="D99" t="s" s="2">
-        <v>94</v>
+        <v>76</v>
       </c>
       <c r="E99" s="2"/>
       <c r="F99" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G99" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="H99" t="s" s="2">
         <v>76</v>
@@ -11961,17 +11970,15 @@
         <v>76</v>
       </c>
       <c r="K99" t="s" s="2">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="L99" t="s" s="2">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="M99" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="N99" t="s" s="2">
-        <v>98</v>
-      </c>
+        <v>91</v>
+      </c>
+      <c r="N99" s="2"/>
       <c r="O99" s="2"/>
       <c r="P99" t="s" s="2">
         <v>76</v>
@@ -12008,31 +12015,31 @@
         <v>76</v>
       </c>
       <c r="AB99" t="s" s="2">
-        <v>99</v>
+        <v>76</v>
       </c>
       <c r="AC99" t="s" s="2">
-        <v>100</v>
+        <v>76</v>
       </c>
       <c r="AD99" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AE99" t="s" s="2">
-        <v>101</v>
+        <v>76</v>
       </c>
       <c r="AF99" t="s" s="2">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="AG99" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH99" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="AI99" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ99" t="s" s="2">
-        <v>103</v>
+        <v>76</v>
       </c>
       <c r="AK99" t="s" s="2">
         <v>85</v>
@@ -12043,21 +12050,21 @@
     </row>
     <row r="100">
       <c r="A100" t="s" s="2">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="B100" t="s" s="2">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="C100" s="2"/>
       <c r="D100" t="s" s="2">
-        <v>76</v>
+        <v>94</v>
       </c>
       <c r="E100" s="2"/>
       <c r="F100" t="s" s="2">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="G100" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="H100" t="s" s="2">
         <v>76</v>
@@ -12069,15 +12076,17 @@
         <v>76</v>
       </c>
       <c r="K100" t="s" s="2">
-        <v>119</v>
+        <v>95</v>
       </c>
       <c r="L100" t="s" s="2">
-        <v>317</v>
+        <v>96</v>
       </c>
       <c r="M100" t="s" s="2">
-        <v>317</v>
-      </c>
-      <c r="N100" s="2"/>
+        <v>97</v>
+      </c>
+      <c r="N100" t="s" s="2">
+        <v>98</v>
+      </c>
       <c r="O100" s="2"/>
       <c r="P100" t="s" s="2">
         <v>76</v>
@@ -12114,45 +12123,45 @@
         <v>76</v>
       </c>
       <c r="AB100" t="s" s="2">
-        <v>76</v>
+        <v>99</v>
       </c>
       <c r="AC100" t="s" s="2">
-        <v>76</v>
+        <v>100</v>
       </c>
       <c r="AD100" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AE100" t="s" s="2">
-        <v>76</v>
+        <v>101</v>
       </c>
       <c r="AF100" t="s" s="2">
-        <v>362</v>
+        <v>102</v>
       </c>
       <c r="AG100" t="s" s="2">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="AH100" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="AI100" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ100" t="s" s="2">
-        <v>76</v>
+        <v>103</v>
       </c>
       <c r="AK100" t="s" s="2">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="AL100" t="s" s="2">
-        <v>363</v>
+        <v>76</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="B101" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="C101" s="2"/>
       <c r="D101" t="s" s="2">
@@ -12175,13 +12184,13 @@
         <v>76</v>
       </c>
       <c r="K101" t="s" s="2">
-        <v>233</v>
+        <v>119</v>
       </c>
       <c r="L101" t="s" s="2">
-        <v>365</v>
+        <v>320</v>
       </c>
       <c r="M101" t="s" s="2">
-        <v>365</v>
+        <v>320</v>
       </c>
       <c r="N101" s="2"/>
       <c r="O101" s="2"/>
@@ -12232,7 +12241,7 @@
         <v>76</v>
       </c>
       <c r="AF101" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="AG101" t="s" s="2">
         <v>88</v>
@@ -12251,6 +12260,112 @@
       </c>
       <c r="AL101" t="s" s="2">
         <v>366</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="s" s="2">
+        <v>367</v>
+      </c>
+      <c r="B102" t="s" s="2">
+        <v>367</v>
+      </c>
+      <c r="C102" s="2"/>
+      <c r="D102" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="E102" s="2"/>
+      <c r="F102" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G102" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="H102" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I102" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J102" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="K102" t="s" s="2">
+        <v>236</v>
+      </c>
+      <c r="L102" t="s" s="2">
+        <v>368</v>
+      </c>
+      <c r="M102" t="s" s="2">
+        <v>368</v>
+      </c>
+      <c r="N102" s="2"/>
+      <c r="O102" s="2"/>
+      <c r="P102" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Q102" s="2"/>
+      <c r="R102" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="S102" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T102" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U102" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V102" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W102" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X102" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y102" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z102" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA102" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB102" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC102" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD102" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE102" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF102" t="s" s="2">
+        <v>367</v>
+      </c>
+      <c r="AG102" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AH102" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AI102" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ102" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AK102" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AL102" t="s" s="2">
+        <v>369</v>
       </c>
     </row>
   </sheetData>

--- a/ig/ch-elm/StructureDefinition-LaboratoryReport.xlsx
+++ b/ig/ch-elm/StructureDefinition-LaboratoryReport.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.1.0</t>
+    <t>1.1.1</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-01-31T12:59:55+01:00</t>
+    <t>2024-02-27T13:26:20+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/ch-elm/StructureDefinition-LaboratoryReport.xlsx
+++ b/ig/ch-elm/StructureDefinition-LaboratoryReport.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.1.1</t>
+    <t>1.2.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-02-27T13:26:20+01:00</t>
+    <t>2024-03-28T10:46:20+01:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -238,10 +238,10 @@
     <t>Constraint(s)</t>
   </si>
   <si>
+    <t>Mapping: CH ELM Laboratory Report to FHIR</t>
+  </si>
+  <si>
     <t>Mapping: RIM Mapping</t>
-  </si>
-  <si>
-    <t>Mapping: CH ELM Laboratory Report to FHIR</t>
   </si>
   <si>
     <t>LaboratoryReport</t>
@@ -277,10 +277,10 @@
 </t>
   </si>
   <si>
+    <t>Bundle</t>
+  </si>
+  <si>
     <t>n/a</t>
-  </si>
-  <si>
-    <t>Bundle</t>
   </si>
   <si>
     <t>LaboratoryReport.id</t>
@@ -1494,8 +1494,8 @@
     <col min="33" max="33" width="9.53125" customWidth="true" bestFit="true" hidden="true"/>
     <col min="34" max="34" width="9.890625" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="99.8984375" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="194.01953125" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="194.01953125" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="99.8984375" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1820,10 +1820,10 @@
         <v>76</v>
       </c>
       <c r="AK3" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="AL3" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
     </row>
     <row r="4">
@@ -1928,10 +1928,10 @@
         <v>103</v>
       </c>
       <c r="AK4" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="AL4" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
     </row>
     <row r="5">
@@ -2034,10 +2034,10 @@
         <v>84</v>
       </c>
       <c r="AK5" t="s" s="2">
-        <v>76</v>
+        <v>107</v>
       </c>
       <c r="AL5" t="s" s="2">
-        <v>107</v>
+        <v>76</v>
       </c>
     </row>
     <row r="6">
@@ -2140,10 +2140,10 @@
         <v>76</v>
       </c>
       <c r="AK6" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="AL6" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
     </row>
     <row r="7">
@@ -2248,10 +2248,10 @@
         <v>103</v>
       </c>
       <c r="AK7" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="AL7" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
     </row>
     <row r="8">
@@ -2354,10 +2354,10 @@
         <v>76</v>
       </c>
       <c r="AK8" t="s" s="2">
-        <v>76</v>
+        <v>113</v>
       </c>
       <c r="AL8" t="s" s="2">
-        <v>113</v>
+        <v>76</v>
       </c>
     </row>
     <row r="9">
@@ -2460,10 +2460,10 @@
         <v>76</v>
       </c>
       <c r="AK9" t="s" s="2">
-        <v>76</v>
+        <v>117</v>
       </c>
       <c r="AL9" t="s" s="2">
-        <v>117</v>
+        <v>76</v>
       </c>
     </row>
     <row r="10">
@@ -2566,10 +2566,10 @@
         <v>76</v>
       </c>
       <c r="AK10" t="s" s="2">
-        <v>76</v>
+        <v>121</v>
       </c>
       <c r="AL10" t="s" s="2">
-        <v>121</v>
+        <v>76</v>
       </c>
     </row>
     <row r="11">
@@ -2672,10 +2672,10 @@
         <v>76</v>
       </c>
       <c r="AK11" t="s" s="2">
-        <v>76</v>
+        <v>124</v>
       </c>
       <c r="AL11" t="s" s="2">
-        <v>124</v>
+        <v>76</v>
       </c>
     </row>
     <row r="12">
@@ -2778,10 +2778,10 @@
         <v>76</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>76</v>
+        <v>127</v>
       </c>
       <c r="AL12" t="s" s="2">
-        <v>127</v>
+        <v>76</v>
       </c>
     </row>
     <row r="13">
@@ -2884,10 +2884,10 @@
         <v>84</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>76</v>
+        <v>130</v>
       </c>
       <c r="AL13" t="s" s="2">
-        <v>130</v>
+        <v>76</v>
       </c>
     </row>
     <row r="14">
@@ -2990,10 +2990,10 @@
         <v>76</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="AL14" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
     </row>
     <row r="15">
@@ -3098,10 +3098,10 @@
         <v>103</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="AL15" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
     </row>
     <row r="16">
@@ -3204,10 +3204,10 @@
         <v>76</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>76</v>
+        <v>135</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>135</v>
+        <v>76</v>
       </c>
     </row>
     <row r="17">
@@ -3310,10 +3310,10 @@
         <v>84</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>76</v>
+        <v>138</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>138</v>
+        <v>76</v>
       </c>
     </row>
     <row r="18">
@@ -3416,10 +3416,10 @@
         <v>76</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
     </row>
     <row r="19">
@@ -3524,10 +3524,10 @@
         <v>103</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
     </row>
     <row r="20">
@@ -3630,10 +3630,10 @@
         <v>76</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>76</v>
+        <v>143</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>143</v>
+        <v>76</v>
       </c>
     </row>
     <row r="21">
@@ -3736,10 +3736,10 @@
         <v>76</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>76</v>
+        <v>146</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>146</v>
+        <v>76</v>
       </c>
     </row>
     <row r="22">
@@ -3842,10 +3842,10 @@
         <v>76</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>76</v>
+        <v>149</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>149</v>
+        <v>76</v>
       </c>
     </row>
     <row r="23">
@@ -3948,10 +3948,10 @@
         <v>84</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>76</v>
+        <v>152</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>152</v>
+        <v>76</v>
       </c>
     </row>
     <row r="24">
@@ -4054,10 +4054,10 @@
         <v>76</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
     </row>
     <row r="25">
@@ -4162,10 +4162,10 @@
         <v>103</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
     </row>
     <row r="26">
@@ -4268,10 +4268,10 @@
         <v>76</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>76</v>
+        <v>157</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>157</v>
+        <v>76</v>
       </c>
     </row>
     <row r="27">
@@ -4374,10 +4374,10 @@
         <v>76</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>76</v>
+        <v>160</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>160</v>
+        <v>76</v>
       </c>
     </row>
     <row r="28">
@@ -4480,10 +4480,10 @@
         <v>76</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>76</v>
+        <v>163</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>163</v>
+        <v>76</v>
       </c>
     </row>
     <row r="29">
@@ -4586,10 +4586,10 @@
         <v>76</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>76</v>
+        <v>166</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>166</v>
+        <v>76</v>
       </c>
     </row>
     <row r="30">
@@ -4692,10 +4692,10 @@
         <v>84</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>76</v>
+        <v>169</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>169</v>
+        <v>76</v>
       </c>
     </row>
     <row r="31">
@@ -4798,10 +4798,10 @@
         <v>76</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
     </row>
     <row r="32">
@@ -4906,10 +4906,10 @@
         <v>103</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
     </row>
     <row r="33">
@@ -5012,10 +5012,10 @@
         <v>76</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>76</v>
+        <v>174</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>174</v>
+        <v>76</v>
       </c>
     </row>
     <row r="34">
@@ -5118,10 +5118,10 @@
         <v>76</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>76</v>
+        <v>177</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>177</v>
+        <v>76</v>
       </c>
     </row>
     <row r="35">
@@ -5224,10 +5224,10 @@
         <v>76</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>76</v>
+        <v>180</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>180</v>
+        <v>76</v>
       </c>
     </row>
     <row r="36">
@@ -5330,10 +5330,10 @@
         <v>76</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>76</v>
+        <v>183</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>183</v>
+        <v>76</v>
       </c>
     </row>
     <row r="37">
@@ -5436,10 +5436,10 @@
         <v>76</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>76</v>
+        <v>186</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>186</v>
+        <v>76</v>
       </c>
     </row>
     <row r="38">
@@ -5542,10 +5542,10 @@
         <v>84</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>76</v>
+        <v>189</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>189</v>
+        <v>76</v>
       </c>
     </row>
     <row r="39">
@@ -5648,10 +5648,10 @@
         <v>76</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
     </row>
     <row r="40">
@@ -5756,10 +5756,10 @@
         <v>103</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
     </row>
     <row r="41">
@@ -5862,10 +5862,10 @@
         <v>76</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>76</v>
+        <v>194</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>194</v>
+        <v>76</v>
       </c>
     </row>
     <row r="42">
@@ -5968,10 +5968,10 @@
         <v>76</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>76</v>
+        <v>197</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>197</v>
+        <v>76</v>
       </c>
     </row>
     <row r="43">
@@ -6074,10 +6074,10 @@
         <v>76</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>76</v>
+        <v>200</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>200</v>
+        <v>76</v>
       </c>
     </row>
     <row r="44">
@@ -6180,10 +6180,10 @@
         <v>76</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>76</v>
+        <v>203</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>203</v>
+        <v>76</v>
       </c>
     </row>
     <row r="45">
@@ -6286,10 +6286,10 @@
         <v>84</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>76</v>
+        <v>206</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>206</v>
+        <v>76</v>
       </c>
     </row>
     <row r="46">
@@ -6392,10 +6392,10 @@
         <v>76</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
     </row>
     <row r="47">
@@ -6500,10 +6500,10 @@
         <v>103</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
     </row>
     <row r="48">
@@ -6606,10 +6606,10 @@
         <v>84</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>76</v>
+        <v>211</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>211</v>
+        <v>76</v>
       </c>
     </row>
     <row r="49">
@@ -6712,10 +6712,10 @@
         <v>76</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
     </row>
     <row r="50">
@@ -6820,10 +6820,10 @@
         <v>103</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
     </row>
     <row r="51">
@@ -6930,10 +6930,10 @@
         <v>84</v>
       </c>
       <c r="AK51" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AL51" t="s" s="2">
         <v>224</v>
-      </c>
-      <c r="AL51" t="s" s="2">
-        <v>76</v>
       </c>
     </row>
     <row r="52">
@@ -7040,10 +7040,10 @@
         <v>84</v>
       </c>
       <c r="AK52" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AL52" t="s" s="2">
         <v>224</v>
-      </c>
-      <c r="AL52" t="s" s="2">
-        <v>76</v>
       </c>
     </row>
     <row r="53">
@@ -7150,10 +7150,10 @@
         <v>84</v>
       </c>
       <c r="AK53" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AL53" t="s" s="2">
         <v>243</v>
-      </c>
-      <c r="AL53" t="s" s="2">
-        <v>76</v>
       </c>
     </row>
     <row r="54">
@@ -7258,10 +7258,10 @@
         <v>84</v>
       </c>
       <c r="AK54" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AL54" t="s" s="2">
         <v>250</v>
-      </c>
-      <c r="AL54" t="s" s="2">
-        <v>76</v>
       </c>
     </row>
     <row r="55">
@@ -7364,10 +7364,10 @@
         <v>84</v>
       </c>
       <c r="AK55" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AL55" t="s" s="2">
         <v>256</v>
-      </c>
-      <c r="AL55" t="s" s="2">
-        <v>76</v>
       </c>
     </row>
     <row r="56">
@@ -7472,10 +7472,10 @@
         <v>84</v>
       </c>
       <c r="AK56" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AL56" t="s" s="2">
         <v>263</v>
-      </c>
-      <c r="AL56" t="s" s="2">
-        <v>76</v>
       </c>
     </row>
     <row r="57">
@@ -7578,10 +7578,10 @@
         <v>76</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>76</v>
+        <v>266</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>266</v>
+        <v>76</v>
       </c>
     </row>
     <row r="58">
@@ -7684,10 +7684,10 @@
         <v>76</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>76</v>
+        <v>269</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>269</v>
+        <v>76</v>
       </c>
     </row>
     <row r="59">
@@ -7790,10 +7790,10 @@
         <v>76</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>76</v>
+        <v>272</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>272</v>
+        <v>76</v>
       </c>
     </row>
     <row r="60">
@@ -7896,10 +7896,10 @@
         <v>76</v>
       </c>
       <c r="AK60" t="s" s="2">
-        <v>76</v>
+        <v>275</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>275</v>
+        <v>76</v>
       </c>
     </row>
     <row r="61">
@@ -8002,10 +8002,10 @@
         <v>76</v>
       </c>
       <c r="AK61" t="s" s="2">
-        <v>76</v>
+        <v>278</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>278</v>
+        <v>76</v>
       </c>
     </row>
     <row r="62">
@@ -8108,10 +8108,10 @@
         <v>76</v>
       </c>
       <c r="AK62" t="s" s="2">
-        <v>76</v>
+        <v>282</v>
       </c>
       <c r="AL62" t="s" s="2">
-        <v>282</v>
+        <v>76</v>
       </c>
     </row>
     <row r="63">
@@ -8214,10 +8214,10 @@
         <v>76</v>
       </c>
       <c r="AK63" t="s" s="2">
-        <v>76</v>
+        <v>285</v>
       </c>
       <c r="AL63" t="s" s="2">
-        <v>285</v>
+        <v>76</v>
       </c>
     </row>
     <row r="64">
@@ -8320,10 +8320,10 @@
         <v>84</v>
       </c>
       <c r="AK64" t="s" s="2">
-        <v>76</v>
+        <v>288</v>
       </c>
       <c r="AL64" t="s" s="2">
-        <v>288</v>
+        <v>76</v>
       </c>
     </row>
     <row r="65">
@@ -8426,10 +8426,10 @@
         <v>76</v>
       </c>
       <c r="AK65" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="AL65" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
     </row>
     <row r="66">
@@ -8534,10 +8534,10 @@
         <v>103</v>
       </c>
       <c r="AK66" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="AL66" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
     </row>
     <row r="67">
@@ -8640,10 +8640,10 @@
         <v>76</v>
       </c>
       <c r="AK67" t="s" s="2">
-        <v>76</v>
+        <v>292</v>
       </c>
       <c r="AL67" t="s" s="2">
-        <v>292</v>
+        <v>76</v>
       </c>
     </row>
     <row r="68">
@@ -8746,10 +8746,10 @@
         <v>76</v>
       </c>
       <c r="AK68" t="s" s="2">
-        <v>76</v>
+        <v>294</v>
       </c>
       <c r="AL68" t="s" s="2">
-        <v>294</v>
+        <v>76</v>
       </c>
     </row>
     <row r="69">
@@ -8852,10 +8852,10 @@
         <v>76</v>
       </c>
       <c r="AK69" t="s" s="2">
-        <v>76</v>
+        <v>296</v>
       </c>
       <c r="AL69" t="s" s="2">
-        <v>296</v>
+        <v>76</v>
       </c>
     </row>
     <row r="70">
@@ -8958,10 +8958,10 @@
         <v>76</v>
       </c>
       <c r="AK70" t="s" s="2">
-        <v>76</v>
+        <v>299</v>
       </c>
       <c r="AL70" t="s" s="2">
-        <v>299</v>
+        <v>76</v>
       </c>
     </row>
     <row r="71">
@@ -9064,10 +9064,10 @@
         <v>76</v>
       </c>
       <c r="AK71" t="s" s="2">
-        <v>76</v>
+        <v>302</v>
       </c>
       <c r="AL71" t="s" s="2">
-        <v>302</v>
+        <v>76</v>
       </c>
     </row>
     <row r="72">
@@ -9170,10 +9170,10 @@
         <v>84</v>
       </c>
       <c r="AK72" t="s" s="2">
-        <v>76</v>
+        <v>305</v>
       </c>
       <c r="AL72" t="s" s="2">
-        <v>305</v>
+        <v>76</v>
       </c>
     </row>
     <row r="73">
@@ -9276,10 +9276,10 @@
         <v>76</v>
       </c>
       <c r="AK73" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="AL73" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
     </row>
     <row r="74">
@@ -9384,10 +9384,10 @@
         <v>103</v>
       </c>
       <c r="AK74" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="AL74" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
     </row>
     <row r="75">
@@ -9490,10 +9490,10 @@
         <v>76</v>
       </c>
       <c r="AK75" t="s" s="2">
-        <v>76</v>
+        <v>310</v>
       </c>
       <c r="AL75" t="s" s="2">
-        <v>310</v>
+        <v>76</v>
       </c>
     </row>
     <row r="76">
@@ -9596,10 +9596,10 @@
         <v>76</v>
       </c>
       <c r="AK76" t="s" s="2">
-        <v>76</v>
+        <v>313</v>
       </c>
       <c r="AL76" t="s" s="2">
-        <v>313</v>
+        <v>76</v>
       </c>
     </row>
     <row r="77">
@@ -9702,10 +9702,10 @@
         <v>84</v>
       </c>
       <c r="AK77" t="s" s="2">
-        <v>76</v>
+        <v>316</v>
       </c>
       <c r="AL77" t="s" s="2">
-        <v>316</v>
+        <v>76</v>
       </c>
     </row>
     <row r="78">
@@ -9808,10 +9808,10 @@
         <v>76</v>
       </c>
       <c r="AK78" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="AL78" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
     </row>
     <row r="79">
@@ -9916,10 +9916,10 @@
         <v>103</v>
       </c>
       <c r="AK79" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="AL79" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
     </row>
     <row r="80">
@@ -10022,10 +10022,10 @@
         <v>76</v>
       </c>
       <c r="AK80" t="s" s="2">
-        <v>76</v>
+        <v>321</v>
       </c>
       <c r="AL80" t="s" s="2">
-        <v>321</v>
+        <v>76</v>
       </c>
     </row>
     <row r="81">
@@ -10128,10 +10128,10 @@
         <v>76</v>
       </c>
       <c r="AK81" t="s" s="2">
-        <v>76</v>
+        <v>324</v>
       </c>
       <c r="AL81" t="s" s="2">
-        <v>324</v>
+        <v>76</v>
       </c>
     </row>
     <row r="82">
@@ -10234,10 +10234,10 @@
         <v>84</v>
       </c>
       <c r="AK82" t="s" s="2">
-        <v>76</v>
+        <v>327</v>
       </c>
       <c r="AL82" t="s" s="2">
-        <v>327</v>
+        <v>76</v>
       </c>
     </row>
     <row r="83">
@@ -10340,10 +10340,10 @@
         <v>76</v>
       </c>
       <c r="AK83" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="AL83" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
     </row>
     <row r="84">
@@ -10448,10 +10448,10 @@
         <v>103</v>
       </c>
       <c r="AK84" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="AL84" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
     </row>
     <row r="85">
@@ -10554,10 +10554,10 @@
         <v>76</v>
       </c>
       <c r="AK85" t="s" s="2">
-        <v>76</v>
+        <v>332</v>
       </c>
       <c r="AL85" t="s" s="2">
-        <v>332</v>
+        <v>76</v>
       </c>
     </row>
     <row r="86">
@@ -10660,10 +10660,10 @@
         <v>84</v>
       </c>
       <c r="AK86" t="s" s="2">
-        <v>76</v>
+        <v>335</v>
       </c>
       <c r="AL86" t="s" s="2">
-        <v>335</v>
+        <v>76</v>
       </c>
     </row>
     <row r="87">
@@ -11086,10 +11086,10 @@
         <v>76</v>
       </c>
       <c r="AK90" t="s" s="2">
-        <v>76</v>
+        <v>345</v>
       </c>
       <c r="AL90" t="s" s="2">
-        <v>345</v>
+        <v>76</v>
       </c>
     </row>
     <row r="91">
@@ -11192,10 +11192,10 @@
         <v>76</v>
       </c>
       <c r="AK91" t="s" s="2">
-        <v>76</v>
+        <v>347</v>
       </c>
       <c r="AL91" t="s" s="2">
-        <v>347</v>
+        <v>76</v>
       </c>
     </row>
     <row r="92">
@@ -11298,10 +11298,10 @@
         <v>76</v>
       </c>
       <c r="AK92" t="s" s="2">
-        <v>76</v>
+        <v>350</v>
       </c>
       <c r="AL92" t="s" s="2">
-        <v>350</v>
+        <v>76</v>
       </c>
     </row>
     <row r="93">
@@ -11404,10 +11404,10 @@
         <v>84</v>
       </c>
       <c r="AK93" t="s" s="2">
-        <v>76</v>
+        <v>353</v>
       </c>
       <c r="AL93" t="s" s="2">
-        <v>353</v>
+        <v>76</v>
       </c>
     </row>
     <row r="94">
@@ -11510,10 +11510,10 @@
         <v>76</v>
       </c>
       <c r="AK94" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="AL94" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
     </row>
     <row r="95">
@@ -11618,10 +11618,10 @@
         <v>103</v>
       </c>
       <c r="AK95" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="AL95" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
     </row>
     <row r="96">
@@ -11724,10 +11724,10 @@
         <v>76</v>
       </c>
       <c r="AK96" t="s" s="2">
-        <v>76</v>
+        <v>357</v>
       </c>
       <c r="AL96" t="s" s="2">
-        <v>357</v>
+        <v>76</v>
       </c>
     </row>
     <row r="97">
@@ -11830,10 +11830,10 @@
         <v>76</v>
       </c>
       <c r="AK97" t="s" s="2">
-        <v>76</v>
+        <v>359</v>
       </c>
       <c r="AL97" t="s" s="2">
-        <v>359</v>
+        <v>76</v>
       </c>
     </row>
     <row r="98">
@@ -11936,10 +11936,10 @@
         <v>84</v>
       </c>
       <c r="AK98" t="s" s="2">
-        <v>76</v>
+        <v>362</v>
       </c>
       <c r="AL98" t="s" s="2">
-        <v>362</v>
+        <v>76</v>
       </c>
     </row>
     <row r="99">
@@ -12042,10 +12042,10 @@
         <v>76</v>
       </c>
       <c r="AK99" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="AL99" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
     </row>
     <row r="100">
@@ -12150,10 +12150,10 @@
         <v>103</v>
       </c>
       <c r="AK100" t="s" s="2">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="AL100" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
     </row>
     <row r="101">
@@ -12256,10 +12256,10 @@
         <v>76</v>
       </c>
       <c r="AK101" t="s" s="2">
-        <v>76</v>
+        <v>366</v>
       </c>
       <c r="AL101" t="s" s="2">
-        <v>366</v>
+        <v>76</v>
       </c>
     </row>
     <row r="102">
@@ -12362,10 +12362,10 @@
         <v>76</v>
       </c>
       <c r="AK102" t="s" s="2">
-        <v>76</v>
+        <v>369</v>
       </c>
       <c r="AL102" t="s" s="2">
-        <v>369</v>
+        <v>76</v>
       </c>
     </row>
   </sheetData>

--- a/ig/ch-elm/StructureDefinition-LaboratoryReport.xlsx
+++ b/ig/ch-elm/StructureDefinition-LaboratoryReport.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.2.0</t>
+    <t>1.3.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-28T10:46:20+01:00</t>
+    <t>2024-05-17T13:32:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -69,7 +69,7 @@
     <t>Contact</t>
   </si>
   <si>
-    <t>No display for ContactDetail</t>
+    <t>Federal Office of Public Health FOPH (https://www.bag.admin.ch/bag/en/home/das-bag/kontakt-standort.html)</t>
   </si>
   <si>
     <t>Jurisdiction</t>
@@ -1459,43 +1459,43 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="53.4140625" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="53.4140625" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="11.3515625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="12.203125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="6.1484375" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.58203125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="4.94140625" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="14.7109375" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="12.1875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="55.6484375" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="55.6484375" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="12.66015625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="12.64453125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="6.77734375" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.9453125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="5.4296875" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="16.27734375" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="13.26171875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="22.5234375" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="23.58203125" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="162.11328125" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="167.43359375" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="38.1875" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="15.77734375" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="16.13671875" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="17.40234375" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="16.9609375" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="95.3984375" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="44.71875" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="5.8828125" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="20.84375" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="40.0859375" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="15.703125" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="13.125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="53.4140625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="9.53125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="9.890625" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="38.2265625" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="17.171875" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="17.65625" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="19.03515625" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="18.859375" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="98.375" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="43.6484375" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="6.34765625" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="22.71875" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="42.03515625" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="17.21484375" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="14.4140625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="55.6484375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="11.0390625" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="194.01953125" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="99.8984375" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="199.296875" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="102.6171875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">

--- a/ig/ch-elm/StructureDefinition-LaboratoryReport.xlsx
+++ b/ig/ch-elm/StructureDefinition-LaboratoryReport.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.3.0</t>
+    <t>1.3.1</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-17T13:32:20+00:00</t>
+    <t>2024-06-17T08:59:23+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/ch-elm/StructureDefinition-LaboratoryReport.xlsx
+++ b/ig/ch-elm/StructureDefinition-LaboratoryReport.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.3.1</t>
+    <t>1.4.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-17T08:59:23+00:00</t>
+    <t>2024-08-20T16:32:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/ch-elm/StructureDefinition-LaboratoryReport.xlsx
+++ b/ig/ch-elm/StructureDefinition-LaboratoryReport.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.4.0</t>
+    <t>1.5.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-08-20T16:32:03+00:00</t>
+    <t>2024-09-24T11:18:39+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/ch-elm/StructureDefinition-LaboratoryReport.xlsx
+++ b/ig/ch-elm/StructureDefinition-LaboratoryReport.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.5.0</t>
+    <t>1.6.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-24T11:18:39+00:00</t>
+    <t>2024-10-31T11:15:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/ch-elm/StructureDefinition-LaboratoryReport.xlsx
+++ b/ig/ch-elm/StructureDefinition-LaboratoryReport.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3433" uniqueCount="370">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3466" uniqueCount="373">
   <si>
     <t>Property</t>
   </si>
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.6.0</t>
+    <t>1.7.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-31T11:15:20+00:00</t>
+    <t>2024-11-28T14:18:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -554,6 +554,15 @@
   </si>
   <si>
     <t>Bundle.entry.resource.as(DiagnosticReport).basedOn.resolve().requester.resolve().practitioner.resolve().identifier.where(system='urn:oid:2.51.1.3').value</t>
+  </si>
+  <si>
+    <t>LaboratoryReport.Orderer.Physician.ZSR</t>
+  </si>
+  <si>
+    <t>Unique Identification (ZSR/RCC) of the ordering physician</t>
+  </si>
+  <si>
+    <t>Bundle.entry.resource.as(DiagnosticReport).basedOn.resolve().requester.resolve().practitioner.resolve().identifier.where(system='urn:oid:2.16.756.5.30.1.123.100.2.1.1').value</t>
   </si>
   <si>
     <t>LaboratoryReport.Orderer.Physician.Surname</t>
@@ -1450,7 +1459,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AL102"/>
+  <dimension ref="A1:AL103"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -5031,7 +5040,7 @@
       </c>
       <c r="E34" s="2"/>
       <c r="F34" t="s" s="2">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="G34" t="s" s="2">
         <v>88</v>
@@ -5046,7 +5055,7 @@
         <v>76</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>89</v>
+        <v>111</v>
       </c>
       <c r="L34" t="s" s="2">
         <v>176</v>
@@ -5106,7 +5115,7 @@
         <v>175</v>
       </c>
       <c r="AG34" t="s" s="2">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="AH34" t="s" s="2">
         <v>88</v>
@@ -5470,7 +5479,7 @@
         <v>76</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>105</v>
+        <v>89</v>
       </c>
       <c r="L38" t="s" s="2">
         <v>188</v>
@@ -5539,7 +5548,7 @@
         <v>76</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="AK38" t="s" s="2">
         <v>189</v>
@@ -5561,7 +5570,7 @@
       </c>
       <c r="E39" s="2"/>
       <c r="F39" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="G39" t="s" s="2">
         <v>88</v>
@@ -5576,13 +5585,13 @@
         <v>76</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>89</v>
+        <v>105</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>90</v>
+        <v>191</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>91</v>
+        <v>191</v>
       </c>
       <c r="N39" s="2"/>
       <c r="O39" s="2"/>
@@ -5633,10 +5642,10 @@
         <v>76</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>92</v>
+        <v>190</v>
       </c>
       <c r="AG39" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="AH39" t="s" s="2">
         <v>88</v>
@@ -5645,32 +5654,32 @@
         <v>76</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>76</v>
+        <v>192</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
-        <v>94</v>
+        <v>76</v>
       </c>
       <c r="E40" s="2"/>
       <c r="F40" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G40" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="H40" t="s" s="2">
         <v>76</v>
@@ -5682,17 +5691,15 @@
         <v>76</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="N40" t="s" s="2">
-        <v>98</v>
-      </c>
+        <v>91</v>
+      </c>
+      <c r="N40" s="2"/>
       <c r="O40" s="2"/>
       <c r="P40" t="s" s="2">
         <v>76</v>
@@ -5729,31 +5736,31 @@
         <v>76</v>
       </c>
       <c r="AB40" t="s" s="2">
-        <v>99</v>
+        <v>76</v>
       </c>
       <c r="AC40" t="s" s="2">
-        <v>100</v>
+        <v>76</v>
       </c>
       <c r="AD40" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>101</v>
+        <v>76</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH40" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="AI40" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>103</v>
+        <v>76</v>
       </c>
       <c r="AK40" t="s" s="2">
         <v>76</v>
@@ -5764,21 +5771,21 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
-        <v>76</v>
+        <v>94</v>
       </c>
       <c r="E41" s="2"/>
       <c r="F41" t="s" s="2">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="G41" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="H41" t="s" s="2">
         <v>76</v>
@@ -5790,15 +5797,17 @@
         <v>76</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>193</v>
+        <v>96</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>193</v>
-      </c>
-      <c r="N41" s="2"/>
+        <v>97</v>
+      </c>
+      <c r="N41" t="s" s="2">
+        <v>98</v>
+      </c>
       <c r="O41" s="2"/>
       <c r="P41" t="s" s="2">
         <v>76</v>
@@ -5835,37 +5844,37 @@
         <v>76</v>
       </c>
       <c r="AB41" t="s" s="2">
-        <v>76</v>
+        <v>99</v>
       </c>
       <c r="AC41" t="s" s="2">
-        <v>76</v>
+        <v>100</v>
       </c>
       <c r="AD41" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>76</v>
+        <v>101</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>192</v>
+        <v>102</v>
       </c>
       <c r="AG41" t="s" s="2">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="AH41" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="AI41" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>76</v>
+        <v>103</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>194</v>
+        <v>76</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
     </row>
     <row r="42">
@@ -6214,7 +6223,7 @@
         <v>76</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>105</v>
+        <v>89</v>
       </c>
       <c r="L45" t="s" s="2">
         <v>205</v>
@@ -6283,7 +6292,7 @@
         <v>76</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="AK45" t="s" s="2">
         <v>206</v>
@@ -6305,7 +6314,7 @@
       </c>
       <c r="E46" s="2"/>
       <c r="F46" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="G46" t="s" s="2">
         <v>88</v>
@@ -6320,13 +6329,13 @@
         <v>76</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>89</v>
+        <v>105</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>90</v>
+        <v>208</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>91</v>
+        <v>208</v>
       </c>
       <c r="N46" s="2"/>
       <c r="O46" s="2"/>
@@ -6377,10 +6386,10 @@
         <v>76</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>92</v>
+        <v>207</v>
       </c>
       <c r="AG46" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="AH46" t="s" s="2">
         <v>88</v>
@@ -6389,32 +6398,32 @@
         <v>76</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>76</v>
+        <v>209</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
-        <v>94</v>
+        <v>76</v>
       </c>
       <c r="E47" s="2"/>
       <c r="F47" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G47" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="H47" t="s" s="2">
         <v>76</v>
@@ -6426,17 +6435,15 @@
         <v>76</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="N47" t="s" s="2">
-        <v>98</v>
-      </c>
+        <v>91</v>
+      </c>
+      <c r="N47" s="2"/>
       <c r="O47" s="2"/>
       <c r="P47" t="s" s="2">
         <v>76</v>
@@ -6473,31 +6480,31 @@
         <v>76</v>
       </c>
       <c r="AB47" t="s" s="2">
-        <v>99</v>
+        <v>76</v>
       </c>
       <c r="AC47" t="s" s="2">
-        <v>100</v>
+        <v>76</v>
       </c>
       <c r="AD47" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>101</v>
+        <v>76</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH47" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="AI47" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>103</v>
+        <v>76</v>
       </c>
       <c r="AK47" t="s" s="2">
         <v>76</v>
@@ -6508,21 +6515,21 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
-        <v>76</v>
+        <v>94</v>
       </c>
       <c r="E48" s="2"/>
       <c r="F48" t="s" s="2">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="G48" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="H48" t="s" s="2">
         <v>76</v>
@@ -6534,15 +6541,17 @@
         <v>76</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>111</v>
+        <v>95</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>210</v>
+        <v>96</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>210</v>
-      </c>
-      <c r="N48" s="2"/>
+        <v>97</v>
+      </c>
+      <c r="N48" t="s" s="2">
+        <v>98</v>
+      </c>
       <c r="O48" s="2"/>
       <c r="P48" t="s" s="2">
         <v>76</v>
@@ -6579,37 +6588,37 @@
         <v>76</v>
       </c>
       <c r="AB48" t="s" s="2">
-        <v>76</v>
+        <v>99</v>
       </c>
       <c r="AC48" t="s" s="2">
-        <v>76</v>
+        <v>100</v>
       </c>
       <c r="AD48" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>76</v>
+        <v>101</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>209</v>
+        <v>102</v>
       </c>
       <c r="AG48" t="s" s="2">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="AH48" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="AI48" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>84</v>
+        <v>103</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>211</v>
+        <v>76</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
     </row>
     <row r="49">
@@ -6625,7 +6634,7 @@
       </c>
       <c r="E49" s="2"/>
       <c r="F49" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="G49" t="s" s="2">
         <v>88</v>
@@ -6640,13 +6649,13 @@
         <v>76</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>89</v>
+        <v>111</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>90</v>
+        <v>213</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>91</v>
+        <v>213</v>
       </c>
       <c r="N49" s="2"/>
       <c r="O49" s="2"/>
@@ -6697,10 +6706,10 @@
         <v>76</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>92</v>
+        <v>212</v>
       </c>
       <c r="AG49" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="AH49" t="s" s="2">
         <v>88</v>
@@ -6709,32 +6718,32 @@
         <v>76</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>76</v>
+        <v>214</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
-        <v>94</v>
+        <v>76</v>
       </c>
       <c r="E50" s="2"/>
       <c r="F50" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G50" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="H50" t="s" s="2">
         <v>76</v>
@@ -6746,17 +6755,15 @@
         <v>76</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="N50" t="s" s="2">
-        <v>98</v>
-      </c>
+        <v>91</v>
+      </c>
+      <c r="N50" s="2"/>
       <c r="O50" s="2"/>
       <c r="P50" t="s" s="2">
         <v>76</v>
@@ -6793,31 +6800,31 @@
         <v>76</v>
       </c>
       <c r="AB50" t="s" s="2">
-        <v>99</v>
+        <v>76</v>
       </c>
       <c r="AC50" t="s" s="2">
-        <v>100</v>
+        <v>76</v>
       </c>
       <c r="AD50" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>101</v>
+        <v>76</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH50" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="AI50" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>103</v>
+        <v>76</v>
       </c>
       <c r="AK50" t="s" s="2">
         <v>76</v>
@@ -6828,46 +6835,44 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
-        <v>76</v>
+        <v>94</v>
       </c>
       <c r="E51" s="2"/>
       <c r="F51" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G51" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="H51" t="s" s="2">
         <v>76</v>
       </c>
       <c r="I51" t="s" s="2">
-        <v>215</v>
+        <v>76</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>215</v>
+        <v>76</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>119</v>
+        <v>95</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>216</v>
+        <v>96</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>217</v>
+        <v>97</v>
       </c>
       <c r="N51" t="s" s="2">
-        <v>218</v>
-      </c>
-      <c r="O51" t="s" s="2">
-        <v>219</v>
-      </c>
+        <v>98</v>
+      </c>
+      <c r="O51" s="2"/>
       <c r="P51" t="s" s="2">
         <v>76</v>
       </c>
@@ -6891,57 +6896,57 @@
         <v>76</v>
       </c>
       <c r="X51" t="s" s="2">
-        <v>220</v>
+        <v>76</v>
       </c>
       <c r="Y51" t="s" s="2">
-        <v>221</v>
+        <v>76</v>
       </c>
       <c r="Z51" t="s" s="2">
-        <v>222</v>
+        <v>76</v>
       </c>
       <c r="AA51" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AB51" t="s" s="2">
-        <v>76</v>
+        <v>99</v>
       </c>
       <c r="AC51" t="s" s="2">
-        <v>76</v>
+        <v>100</v>
       </c>
       <c r="AD51" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>76</v>
+        <v>101</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>223</v>
+        <v>102</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH51" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="AI51" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>84</v>
+        <v>103</v>
       </c>
       <c r="AK51" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>224</v>
+        <v>86</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>225</v>
+        <v>217</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>225</v>
+        <v>217</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -6958,25 +6963,25 @@
         <v>76</v>
       </c>
       <c r="I52" t="s" s="2">
-        <v>76</v>
+        <v>218</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>226</v>
+        <v>119</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>227</v>
+        <v>219</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>228</v>
+        <v>220</v>
       </c>
       <c r="N52" t="s" s="2">
-        <v>229</v>
+        <v>221</v>
       </c>
       <c r="O52" t="s" s="2">
-        <v>230</v>
+        <v>222</v>
       </c>
       <c r="P52" t="s" s="2">
         <v>76</v>
@@ -7001,13 +7006,13 @@
         <v>76</v>
       </c>
       <c r="X52" t="s" s="2">
-        <v>231</v>
+        <v>223</v>
       </c>
       <c r="Y52" t="s" s="2">
-        <v>232</v>
+        <v>224</v>
       </c>
       <c r="Z52" t="s" s="2">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="AA52" t="s" s="2">
         <v>76</v>
@@ -7025,7 +7030,7 @@
         <v>76</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>234</v>
+        <v>226</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>77</v>
@@ -7043,15 +7048,15 @@
         <v>76</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>224</v>
+        <v>227</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>235</v>
+        <v>228</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>235</v>
+        <v>228</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -7071,22 +7076,22 @@
         <v>76</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>236</v>
+        <v>229</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>237</v>
+        <v>230</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>238</v>
+        <v>231</v>
       </c>
       <c r="N53" t="s" s="2">
-        <v>239</v>
+        <v>232</v>
       </c>
       <c r="O53" t="s" s="2">
-        <v>240</v>
+        <v>233</v>
       </c>
       <c r="P53" t="s" s="2">
         <v>76</v>
@@ -7099,7 +7104,7 @@
         <v>76</v>
       </c>
       <c r="T53" t="s" s="2">
-        <v>241</v>
+        <v>76</v>
       </c>
       <c r="U53" t="s" s="2">
         <v>76</v>
@@ -7111,13 +7116,13 @@
         <v>76</v>
       </c>
       <c r="X53" t="s" s="2">
-        <v>76</v>
+        <v>234</v>
       </c>
       <c r="Y53" t="s" s="2">
-        <v>76</v>
+        <v>235</v>
       </c>
       <c r="Z53" t="s" s="2">
-        <v>76</v>
+        <v>236</v>
       </c>
       <c r="AA53" t="s" s="2">
         <v>76</v>
@@ -7135,7 +7140,7 @@
         <v>76</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>77</v>
@@ -7153,15 +7158,15 @@
         <v>76</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>243</v>
+        <v>227</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -7181,21 +7186,23 @@
         <v>76</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>89</v>
+        <v>239</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="N54" t="s" s="2">
-        <v>247</v>
-      </c>
-      <c r="O54" s="2"/>
+        <v>242</v>
+      </c>
+      <c r="O54" t="s" s="2">
+        <v>243</v>
+      </c>
       <c r="P54" t="s" s="2">
         <v>76</v>
       </c>
@@ -7207,7 +7214,7 @@
         <v>76</v>
       </c>
       <c r="T54" t="s" s="2">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="U54" t="s" s="2">
         <v>76</v>
@@ -7243,7 +7250,7 @@
         <v>76</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>77</v>
@@ -7261,15 +7268,15 @@
         <v>76</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>250</v>
+        <v>246</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -7289,18 +7296,20 @@
         <v>76</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>252</v>
+        <v>89</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>254</v>
-      </c>
-      <c r="N55" s="2"/>
+        <v>249</v>
+      </c>
+      <c r="N55" t="s" s="2">
+        <v>250</v>
+      </c>
       <c r="O55" s="2"/>
       <c r="P55" t="s" s="2">
         <v>76</v>
@@ -7313,7 +7322,7 @@
         <v>76</v>
       </c>
       <c r="T55" t="s" s="2">
-        <v>76</v>
+        <v>251</v>
       </c>
       <c r="U55" t="s" s="2">
         <v>76</v>
@@ -7349,7 +7358,7 @@
         <v>76</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>77</v>
@@ -7367,15 +7376,15 @@
         <v>76</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>256</v>
+        <v>253</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -7395,20 +7404,18 @@
         <v>76</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>260</v>
-      </c>
-      <c r="N56" t="s" s="2">
-        <v>261</v>
-      </c>
+        <v>257</v>
+      </c>
+      <c r="N56" s="2"/>
       <c r="O56" s="2"/>
       <c r="P56" t="s" s="2">
         <v>76</v>
@@ -7457,7 +7464,7 @@
         <v>76</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>77</v>
@@ -7475,15 +7482,15 @@
         <v>76</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>263</v>
+        <v>259</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -7503,18 +7510,20 @@
         <v>76</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>76</v>
+        <v>218</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>111</v>
+        <v>261</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>265</v>
-      </c>
-      <c r="N57" s="2"/>
+        <v>263</v>
+      </c>
+      <c r="N57" t="s" s="2">
+        <v>264</v>
+      </c>
       <c r="O57" s="2"/>
       <c r="P57" t="s" s="2">
         <v>76</v>
@@ -7563,7 +7572,7 @@
         <v>76</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>77</v>
@@ -7575,13 +7584,13 @@
         <v>76</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="AK57" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AL57" t="s" s="2">
         <v>266</v>
-      </c>
-      <c r="AL57" t="s" s="2">
-        <v>76</v>
       </c>
     </row>
     <row r="58">
@@ -7703,7 +7712,7 @@
       </c>
       <c r="E59" s="2"/>
       <c r="F59" t="s" s="2">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="G59" t="s" s="2">
         <v>88</v>
@@ -7718,7 +7727,7 @@
         <v>76</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>89</v>
+        <v>111</v>
       </c>
       <c r="L59" t="s" s="2">
         <v>271</v>
@@ -7778,7 +7787,7 @@
         <v>270</v>
       </c>
       <c r="AG59" t="s" s="2">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="AH59" t="s" s="2">
         <v>88</v>
@@ -7930,7 +7939,7 @@
         <v>76</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>119</v>
+        <v>89</v>
       </c>
       <c r="L61" t="s" s="2">
         <v>277</v>
@@ -8036,13 +8045,13 @@
         <v>76</v>
       </c>
       <c r="K62" t="s" s="2">
+        <v>119</v>
+      </c>
+      <c r="L62" t="s" s="2">
         <v>280</v>
       </c>
-      <c r="L62" t="s" s="2">
-        <v>281</v>
-      </c>
       <c r="M62" t="s" s="2">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="N62" s="2"/>
       <c r="O62" s="2"/>
@@ -8108,7 +8117,7 @@
         <v>76</v>
       </c>
       <c r="AK62" t="s" s="2">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="AL62" t="s" s="2">
         <v>76</v>
@@ -8116,10 +8125,10 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
@@ -8142,7 +8151,7 @@
         <v>76</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>89</v>
+        <v>283</v>
       </c>
       <c r="L63" t="s" s="2">
         <v>284</v>
@@ -8199,7 +8208,7 @@
         <v>76</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>88</v>
@@ -8248,7 +8257,7 @@
         <v>76</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>105</v>
+        <v>89</v>
       </c>
       <c r="L64" t="s" s="2">
         <v>287</v>
@@ -8317,7 +8326,7 @@
         <v>76</v>
       </c>
       <c r="AJ64" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="AK64" t="s" s="2">
         <v>288</v>
@@ -8339,7 +8348,7 @@
       </c>
       <c r="E65" s="2"/>
       <c r="F65" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="G65" t="s" s="2">
         <v>88</v>
@@ -8354,13 +8363,13 @@
         <v>76</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>89</v>
+        <v>105</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>90</v>
+        <v>290</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>91</v>
+        <v>290</v>
       </c>
       <c r="N65" s="2"/>
       <c r="O65" s="2"/>
@@ -8411,10 +8420,10 @@
         <v>76</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>92</v>
+        <v>289</v>
       </c>
       <c r="AG65" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="AH65" t="s" s="2">
         <v>88</v>
@@ -8423,32 +8432,32 @@
         <v>76</v>
       </c>
       <c r="AJ65" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="AK65" t="s" s="2">
-        <v>76</v>
+        <v>291</v>
       </c>
       <c r="AL65" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
-        <v>94</v>
+        <v>76</v>
       </c>
       <c r="E66" s="2"/>
       <c r="F66" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G66" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="H66" t="s" s="2">
         <v>76</v>
@@ -8460,17 +8469,15 @@
         <v>76</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="N66" t="s" s="2">
-        <v>98</v>
-      </c>
+        <v>91</v>
+      </c>
+      <c r="N66" s="2"/>
       <c r="O66" s="2"/>
       <c r="P66" t="s" s="2">
         <v>76</v>
@@ -8507,31 +8514,31 @@
         <v>76</v>
       </c>
       <c r="AB66" t="s" s="2">
-        <v>99</v>
+        <v>76</v>
       </c>
       <c r="AC66" t="s" s="2">
-        <v>100</v>
+        <v>76</v>
       </c>
       <c r="AD66" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>101</v>
+        <v>76</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH66" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="AI66" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ66" t="s" s="2">
-        <v>103</v>
+        <v>76</v>
       </c>
       <c r="AK66" t="s" s="2">
         <v>76</v>
@@ -8542,21 +8549,21 @@
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
-        <v>76</v>
+        <v>94</v>
       </c>
       <c r="E67" s="2"/>
       <c r="F67" t="s" s="2">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="G67" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="H67" t="s" s="2">
         <v>76</v>
@@ -8568,15 +8575,17 @@
         <v>76</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>193</v>
+        <v>96</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>193</v>
-      </c>
-      <c r="N67" s="2"/>
+        <v>97</v>
+      </c>
+      <c r="N67" t="s" s="2">
+        <v>98</v>
+      </c>
       <c r="O67" s="2"/>
       <c r="P67" t="s" s="2">
         <v>76</v>
@@ -8613,45 +8622,45 @@
         <v>76</v>
       </c>
       <c r="AB67" t="s" s="2">
-        <v>76</v>
+        <v>99</v>
       </c>
       <c r="AC67" t="s" s="2">
-        <v>76</v>
+        <v>100</v>
       </c>
       <c r="AD67" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AE67" t="s" s="2">
-        <v>76</v>
+        <v>101</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>291</v>
+        <v>102</v>
       </c>
       <c r="AG67" t="s" s="2">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="AH67" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="AI67" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ67" t="s" s="2">
-        <v>76</v>
+        <v>103</v>
       </c>
       <c r="AK67" t="s" s="2">
-        <v>292</v>
+        <v>76</v>
       </c>
       <c r="AL67" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
@@ -8677,10 +8686,10 @@
         <v>89</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="N68" s="2"/>
       <c r="O68" s="2"/>
@@ -8731,7 +8740,7 @@
         <v>76</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="AG68" t="s" s="2">
         <v>88</v>
@@ -8746,7 +8755,7 @@
         <v>76</v>
       </c>
       <c r="AK68" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="AL68" t="s" s="2">
         <v>76</v>
@@ -8754,10 +8763,10 @@
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
@@ -8837,7 +8846,7 @@
         <v>76</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="AG69" t="s" s="2">
         <v>88</v>
@@ -8852,7 +8861,7 @@
         <v>76</v>
       </c>
       <c r="AK69" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="AL69" t="s" s="2">
         <v>76</v>
@@ -8860,10 +8869,10 @@
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
@@ -8886,13 +8895,13 @@
         <v>76</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>119</v>
+        <v>89</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>298</v>
+        <v>205</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>298</v>
+        <v>205</v>
       </c>
       <c r="N70" s="2"/>
       <c r="O70" s="2"/>
@@ -8943,7 +8952,7 @@
         <v>76</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="AG70" t="s" s="2">
         <v>88</v>
@@ -9098,7 +9107,7 @@
         <v>76</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>105</v>
+        <v>119</v>
       </c>
       <c r="L72" t="s" s="2">
         <v>304</v>
@@ -9167,7 +9176,7 @@
         <v>76</v>
       </c>
       <c r="AJ72" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="AK72" t="s" s="2">
         <v>305</v>
@@ -9189,7 +9198,7 @@
       </c>
       <c r="E73" s="2"/>
       <c r="F73" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="G73" t="s" s="2">
         <v>88</v>
@@ -9204,13 +9213,13 @@
         <v>76</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>89</v>
+        <v>105</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>90</v>
+        <v>307</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>91</v>
+        <v>307</v>
       </c>
       <c r="N73" s="2"/>
       <c r="O73" s="2"/>
@@ -9261,10 +9270,10 @@
         <v>76</v>
       </c>
       <c r="AF73" t="s" s="2">
-        <v>92</v>
+        <v>306</v>
       </c>
       <c r="AG73" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="AH73" t="s" s="2">
         <v>88</v>
@@ -9273,32 +9282,32 @@
         <v>76</v>
       </c>
       <c r="AJ73" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="AK73" t="s" s="2">
-        <v>76</v>
+        <v>308</v>
       </c>
       <c r="AL73" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s" s="2">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
-        <v>94</v>
+        <v>76</v>
       </c>
       <c r="E74" s="2"/>
       <c r="F74" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G74" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="H74" t="s" s="2">
         <v>76</v>
@@ -9310,17 +9319,15 @@
         <v>76</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="N74" t="s" s="2">
-        <v>98</v>
-      </c>
+        <v>91</v>
+      </c>
+      <c r="N74" s="2"/>
       <c r="O74" s="2"/>
       <c r="P74" t="s" s="2">
         <v>76</v>
@@ -9357,31 +9364,31 @@
         <v>76</v>
       </c>
       <c r="AB74" t="s" s="2">
-        <v>99</v>
+        <v>76</v>
       </c>
       <c r="AC74" t="s" s="2">
-        <v>100</v>
+        <v>76</v>
       </c>
       <c r="AD74" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AE74" t="s" s="2">
-        <v>101</v>
+        <v>76</v>
       </c>
       <c r="AF74" t="s" s="2">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="AG74" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH74" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="AI74" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ74" t="s" s="2">
-        <v>103</v>
+        <v>76</v>
       </c>
       <c r="AK74" t="s" s="2">
         <v>76</v>
@@ -9392,21 +9399,21 @@
     </row>
     <row r="75">
       <c r="A75" t="s" s="2">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" t="s" s="2">
-        <v>76</v>
+        <v>94</v>
       </c>
       <c r="E75" s="2"/>
       <c r="F75" t="s" s="2">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="G75" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="H75" t="s" s="2">
         <v>76</v>
@@ -9418,15 +9425,17 @@
         <v>76</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>119</v>
+        <v>95</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>309</v>
+        <v>96</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>309</v>
-      </c>
-      <c r="N75" s="2"/>
+        <v>97</v>
+      </c>
+      <c r="N75" t="s" s="2">
+        <v>98</v>
+      </c>
       <c r="O75" s="2"/>
       <c r="P75" t="s" s="2">
         <v>76</v>
@@ -9463,37 +9472,37 @@
         <v>76</v>
       </c>
       <c r="AB75" t="s" s="2">
-        <v>76</v>
+        <v>99</v>
       </c>
       <c r="AC75" t="s" s="2">
-        <v>76</v>
+        <v>100</v>
       </c>
       <c r="AD75" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AE75" t="s" s="2">
-        <v>76</v>
+        <v>101</v>
       </c>
       <c r="AF75" t="s" s="2">
-        <v>308</v>
+        <v>102</v>
       </c>
       <c r="AG75" t="s" s="2">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="AH75" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="AI75" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ75" t="s" s="2">
-        <v>76</v>
+        <v>103</v>
       </c>
       <c r="AK75" t="s" s="2">
-        <v>310</v>
+        <v>76</v>
       </c>
       <c r="AL75" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
     </row>
     <row r="76">
@@ -9524,7 +9533,7 @@
         <v>76</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="L76" t="s" s="2">
         <v>312</v>
@@ -9630,7 +9639,7 @@
         <v>76</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>105</v>
+        <v>115</v>
       </c>
       <c r="L77" t="s" s="2">
         <v>315</v>
@@ -9699,7 +9708,7 @@
         <v>76</v>
       </c>
       <c r="AJ77" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="AK77" t="s" s="2">
         <v>316</v>
@@ -9721,7 +9730,7 @@
       </c>
       <c r="E78" s="2"/>
       <c r="F78" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="G78" t="s" s="2">
         <v>88</v>
@@ -9736,13 +9745,13 @@
         <v>76</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>89</v>
+        <v>105</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>90</v>
+        <v>318</v>
       </c>
       <c r="M78" t="s" s="2">
-        <v>91</v>
+        <v>318</v>
       </c>
       <c r="N78" s="2"/>
       <c r="O78" s="2"/>
@@ -9793,10 +9802,10 @@
         <v>76</v>
       </c>
       <c r="AF78" t="s" s="2">
-        <v>92</v>
+        <v>317</v>
       </c>
       <c r="AG78" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="AH78" t="s" s="2">
         <v>88</v>
@@ -9805,32 +9814,32 @@
         <v>76</v>
       </c>
       <c r="AJ78" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="AK78" t="s" s="2">
-        <v>76</v>
+        <v>319</v>
       </c>
       <c r="AL78" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="s" s="2">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="C79" s="2"/>
       <c r="D79" t="s" s="2">
-        <v>94</v>
+        <v>76</v>
       </c>
       <c r="E79" s="2"/>
       <c r="F79" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G79" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="H79" t="s" s="2">
         <v>76</v>
@@ -9842,17 +9851,15 @@
         <v>76</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="M79" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="N79" t="s" s="2">
-        <v>98</v>
-      </c>
+        <v>91</v>
+      </c>
+      <c r="N79" s="2"/>
       <c r="O79" s="2"/>
       <c r="P79" t="s" s="2">
         <v>76</v>
@@ -9889,31 +9896,31 @@
         <v>76</v>
       </c>
       <c r="AB79" t="s" s="2">
-        <v>99</v>
+        <v>76</v>
       </c>
       <c r="AC79" t="s" s="2">
-        <v>100</v>
+        <v>76</v>
       </c>
       <c r="AD79" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AE79" t="s" s="2">
-        <v>101</v>
+        <v>76</v>
       </c>
       <c r="AF79" t="s" s="2">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="AG79" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH79" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="AI79" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ79" t="s" s="2">
-        <v>103</v>
+        <v>76</v>
       </c>
       <c r="AK79" t="s" s="2">
         <v>76</v>
@@ -9924,21 +9931,21 @@
     </row>
     <row r="80">
       <c r="A80" t="s" s="2">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="C80" s="2"/>
       <c r="D80" t="s" s="2">
-        <v>76</v>
+        <v>94</v>
       </c>
       <c r="E80" s="2"/>
       <c r="F80" t="s" s="2">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="G80" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="H80" t="s" s="2">
         <v>76</v>
@@ -9950,15 +9957,17 @@
         <v>76</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>119</v>
+        <v>95</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>320</v>
+        <v>96</v>
       </c>
       <c r="M80" t="s" s="2">
-        <v>320</v>
-      </c>
-      <c r="N80" s="2"/>
+        <v>97</v>
+      </c>
+      <c r="N80" t="s" s="2">
+        <v>98</v>
+      </c>
       <c r="O80" s="2"/>
       <c r="P80" t="s" s="2">
         <v>76</v>
@@ -9995,37 +10004,37 @@
         <v>76</v>
       </c>
       <c r="AB80" t="s" s="2">
-        <v>76</v>
+        <v>99</v>
       </c>
       <c r="AC80" t="s" s="2">
-        <v>76</v>
+        <v>100</v>
       </c>
       <c r="AD80" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AE80" t="s" s="2">
-        <v>76</v>
+        <v>101</v>
       </c>
       <c r="AF80" t="s" s="2">
-        <v>319</v>
+        <v>102</v>
       </c>
       <c r="AG80" t="s" s="2">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="AH80" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="AI80" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ80" t="s" s="2">
-        <v>76</v>
+        <v>103</v>
       </c>
       <c r="AK80" t="s" s="2">
-        <v>321</v>
+        <v>76</v>
       </c>
       <c r="AL80" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
     </row>
     <row r="81">
@@ -10056,7 +10065,7 @@
         <v>76</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>236</v>
+        <v>119</v>
       </c>
       <c r="L81" t="s" s="2">
         <v>323</v>
@@ -10162,7 +10171,7 @@
         <v>76</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>105</v>
+        <v>239</v>
       </c>
       <c r="L82" t="s" s="2">
         <v>326</v>
@@ -10231,7 +10240,7 @@
         <v>76</v>
       </c>
       <c r="AJ82" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="AK82" t="s" s="2">
         <v>327</v>
@@ -10253,7 +10262,7 @@
       </c>
       <c r="E83" s="2"/>
       <c r="F83" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="G83" t="s" s="2">
         <v>88</v>
@@ -10268,13 +10277,13 @@
         <v>76</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>89</v>
+        <v>105</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>90</v>
+        <v>329</v>
       </c>
       <c r="M83" t="s" s="2">
-        <v>91</v>
+        <v>329</v>
       </c>
       <c r="N83" s="2"/>
       <c r="O83" s="2"/>
@@ -10325,10 +10334,10 @@
         <v>76</v>
       </c>
       <c r="AF83" t="s" s="2">
-        <v>92</v>
+        <v>328</v>
       </c>
       <c r="AG83" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="AH83" t="s" s="2">
         <v>88</v>
@@ -10337,32 +10346,32 @@
         <v>76</v>
       </c>
       <c r="AJ83" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="AK83" t="s" s="2">
-        <v>76</v>
+        <v>330</v>
       </c>
       <c r="AL83" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="s" s="2">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="B84" t="s" s="2">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="C84" s="2"/>
       <c r="D84" t="s" s="2">
-        <v>94</v>
+        <v>76</v>
       </c>
       <c r="E84" s="2"/>
       <c r="F84" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G84" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="H84" t="s" s="2">
         <v>76</v>
@@ -10374,17 +10383,15 @@
         <v>76</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="M84" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="N84" t="s" s="2">
-        <v>98</v>
-      </c>
+        <v>91</v>
+      </c>
+      <c r="N84" s="2"/>
       <c r="O84" s="2"/>
       <c r="P84" t="s" s="2">
         <v>76</v>
@@ -10421,31 +10428,31 @@
         <v>76</v>
       </c>
       <c r="AB84" t="s" s="2">
-        <v>99</v>
+        <v>76</v>
       </c>
       <c r="AC84" t="s" s="2">
-        <v>100</v>
+        <v>76</v>
       </c>
       <c r="AD84" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AE84" t="s" s="2">
-        <v>101</v>
+        <v>76</v>
       </c>
       <c r="AF84" t="s" s="2">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="AG84" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH84" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="AI84" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ84" t="s" s="2">
-        <v>103</v>
+        <v>76</v>
       </c>
       <c r="AK84" t="s" s="2">
         <v>76</v>
@@ -10456,21 +10463,21 @@
     </row>
     <row r="85">
       <c r="A85" t="s" s="2">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="B85" t="s" s="2">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="C85" s="2"/>
       <c r="D85" t="s" s="2">
-        <v>76</v>
+        <v>94</v>
       </c>
       <c r="E85" s="2"/>
       <c r="F85" t="s" s="2">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="G85" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="H85" t="s" s="2">
         <v>76</v>
@@ -10482,15 +10489,17 @@
         <v>76</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>115</v>
+        <v>95</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>331</v>
+        <v>96</v>
       </c>
       <c r="M85" t="s" s="2">
-        <v>331</v>
-      </c>
-      <c r="N85" s="2"/>
+        <v>97</v>
+      </c>
+      <c r="N85" t="s" s="2">
+        <v>98</v>
+      </c>
       <c r="O85" s="2"/>
       <c r="P85" t="s" s="2">
         <v>76</v>
@@ -10527,37 +10536,37 @@
         <v>76</v>
       </c>
       <c r="AB85" t="s" s="2">
-        <v>76</v>
+        <v>99</v>
       </c>
       <c r="AC85" t="s" s="2">
-        <v>76</v>
+        <v>100</v>
       </c>
       <c r="AD85" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AE85" t="s" s="2">
-        <v>76</v>
+        <v>101</v>
       </c>
       <c r="AF85" t="s" s="2">
-        <v>330</v>
+        <v>102</v>
       </c>
       <c r="AG85" t="s" s="2">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="AH85" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="AI85" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ85" t="s" s="2">
-        <v>76</v>
+        <v>103</v>
       </c>
       <c r="AK85" t="s" s="2">
-        <v>332</v>
+        <v>76</v>
       </c>
       <c r="AL85" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
     </row>
     <row r="86">
@@ -10588,7 +10597,7 @@
         <v>76</v>
       </c>
       <c r="K86" t="s" s="2">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="L86" t="s" s="2">
         <v>334</v>
@@ -10657,7 +10666,7 @@
         <v>76</v>
       </c>
       <c r="AJ86" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="AK86" t="s" s="2">
         <v>335</v>
@@ -10679,7 +10688,7 @@
       </c>
       <c r="E87" s="2"/>
       <c r="F87" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="G87" t="s" s="2">
         <v>88</v>
@@ -10694,13 +10703,13 @@
         <v>76</v>
       </c>
       <c r="K87" t="s" s="2">
-        <v>89</v>
+        <v>119</v>
       </c>
       <c r="L87" t="s" s="2">
         <v>337</v>
       </c>
       <c r="M87" t="s" s="2">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="N87" s="2"/>
       <c r="O87" s="2"/>
@@ -10751,10 +10760,10 @@
         <v>76</v>
       </c>
       <c r="AF87" t="s" s="2">
-        <v>92</v>
+        <v>336</v>
       </c>
       <c r="AG87" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="AH87" t="s" s="2">
         <v>88</v>
@@ -10763,10 +10772,10 @@
         <v>76</v>
       </c>
       <c r="AJ87" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="AK87" t="s" s="2">
-        <v>76</v>
+        <v>338</v>
       </c>
       <c r="AL87" t="s" s="2">
         <v>76</v>
@@ -10781,14 +10790,14 @@
       </c>
       <c r="C88" s="2"/>
       <c r="D88" t="s" s="2">
-        <v>94</v>
+        <v>76</v>
       </c>
       <c r="E88" s="2"/>
       <c r="F88" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G88" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="H88" t="s" s="2">
         <v>76</v>
@@ -10800,17 +10809,15 @@
         <v>76</v>
       </c>
       <c r="K88" t="s" s="2">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>96</v>
+        <v>340</v>
       </c>
       <c r="M88" t="s" s="2">
-        <v>340</v>
-      </c>
-      <c r="N88" t="s" s="2">
-        <v>98</v>
-      </c>
+        <v>341</v>
+      </c>
+      <c r="N88" s="2"/>
       <c r="O88" s="2"/>
       <c r="P88" t="s" s="2">
         <v>76</v>
@@ -10859,19 +10866,19 @@
         <v>76</v>
       </c>
       <c r="AF88" t="s" s="2">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="AG88" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH88" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="AI88" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ88" t="s" s="2">
-        <v>103</v>
+        <v>76</v>
       </c>
       <c r="AK88" t="s" s="2">
         <v>76</v>
@@ -10882,21 +10889,21 @@
     </row>
     <row r="89">
       <c r="A89" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="B89" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="C89" s="2"/>
       <c r="D89" t="s" s="2">
-        <v>76</v>
+        <v>94</v>
       </c>
       <c r="E89" s="2"/>
       <c r="F89" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G89" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="H89" t="s" s="2">
         <v>76</v>
@@ -10908,15 +10915,17 @@
         <v>76</v>
       </c>
       <c r="K89" t="s" s="2">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="L89" t="s" s="2">
-        <v>342</v>
+        <v>96</v>
       </c>
       <c r="M89" t="s" s="2">
-        <v>342</v>
-      </c>
-      <c r="N89" s="2"/>
+        <v>343</v>
+      </c>
+      <c r="N89" t="s" s="2">
+        <v>98</v>
+      </c>
       <c r="O89" s="2"/>
       <c r="P89" t="s" s="2">
         <v>76</v>
@@ -10965,19 +10974,19 @@
         <v>76</v>
       </c>
       <c r="AF89" t="s" s="2">
-        <v>343</v>
+        <v>102</v>
       </c>
       <c r="AG89" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH89" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="AI89" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ89" t="s" s="2">
-        <v>76</v>
+        <v>103</v>
       </c>
       <c r="AK89" t="s" s="2">
         <v>76</v>
@@ -11014,13 +11023,13 @@
         <v>76</v>
       </c>
       <c r="K90" t="s" s="2">
-        <v>119</v>
+        <v>89</v>
       </c>
       <c r="L90" t="s" s="2">
-        <v>320</v>
+        <v>345</v>
       </c>
       <c r="M90" t="s" s="2">
-        <v>320</v>
+        <v>345</v>
       </c>
       <c r="N90" s="2"/>
       <c r="O90" s="2"/>
@@ -11071,7 +11080,7 @@
         <v>76</v>
       </c>
       <c r="AF90" t="s" s="2">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="AG90" t="s" s="2">
         <v>77</v>
@@ -11086,7 +11095,7 @@
         <v>76</v>
       </c>
       <c r="AK90" t="s" s="2">
-        <v>345</v>
+        <v>76</v>
       </c>
       <c r="AL90" t="s" s="2">
         <v>76</v>
@@ -11094,10 +11103,10 @@
     </row>
     <row r="91">
       <c r="A91" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="B91" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="C91" s="2"/>
       <c r="D91" t="s" s="2">
@@ -11120,7 +11129,7 @@
         <v>76</v>
       </c>
       <c r="K91" t="s" s="2">
-        <v>236</v>
+        <v>119</v>
       </c>
       <c r="L91" t="s" s="2">
         <v>323</v>
@@ -11177,7 +11186,7 @@
         <v>76</v>
       </c>
       <c r="AF91" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="AG91" t="s" s="2">
         <v>77</v>
@@ -11192,7 +11201,7 @@
         <v>76</v>
       </c>
       <c r="AK91" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="AL91" t="s" s="2">
         <v>76</v>
@@ -11200,10 +11209,10 @@
     </row>
     <row r="92">
       <c r="A92" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="B92" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="C92" s="2"/>
       <c r="D92" t="s" s="2">
@@ -11226,13 +11235,13 @@
         <v>76</v>
       </c>
       <c r="K92" t="s" s="2">
-        <v>89</v>
+        <v>239</v>
       </c>
       <c r="L92" t="s" s="2">
-        <v>349</v>
+        <v>326</v>
       </c>
       <c r="M92" t="s" s="2">
-        <v>349</v>
+        <v>326</v>
       </c>
       <c r="N92" s="2"/>
       <c r="O92" s="2"/>
@@ -11283,7 +11292,7 @@
         <v>76</v>
       </c>
       <c r="AF92" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="AG92" t="s" s="2">
         <v>77</v>
@@ -11317,7 +11326,7 @@
       </c>
       <c r="E93" s="2"/>
       <c r="F93" t="s" s="2">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="G93" t="s" s="2">
         <v>88</v>
@@ -11332,7 +11341,7 @@
         <v>76</v>
       </c>
       <c r="K93" t="s" s="2">
-        <v>105</v>
+        <v>89</v>
       </c>
       <c r="L93" t="s" s="2">
         <v>352</v>
@@ -11392,7 +11401,7 @@
         <v>351</v>
       </c>
       <c r="AG93" t="s" s="2">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="AH93" t="s" s="2">
         <v>88</v>
@@ -11401,7 +11410,7 @@
         <v>76</v>
       </c>
       <c r="AJ93" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="AK93" t="s" s="2">
         <v>353</v>
@@ -11423,7 +11432,7 @@
       </c>
       <c r="E94" s="2"/>
       <c r="F94" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="G94" t="s" s="2">
         <v>88</v>
@@ -11438,13 +11447,13 @@
         <v>76</v>
       </c>
       <c r="K94" t="s" s="2">
-        <v>89</v>
+        <v>105</v>
       </c>
       <c r="L94" t="s" s="2">
-        <v>90</v>
+        <v>355</v>
       </c>
       <c r="M94" t="s" s="2">
-        <v>91</v>
+        <v>355</v>
       </c>
       <c r="N94" s="2"/>
       <c r="O94" s="2"/>
@@ -11495,10 +11504,10 @@
         <v>76</v>
       </c>
       <c r="AF94" t="s" s="2">
-        <v>92</v>
+        <v>354</v>
       </c>
       <c r="AG94" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="AH94" t="s" s="2">
         <v>88</v>
@@ -11507,32 +11516,32 @@
         <v>76</v>
       </c>
       <c r="AJ94" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="AK94" t="s" s="2">
-        <v>76</v>
+        <v>356</v>
       </c>
       <c r="AL94" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="s" s="2">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="B95" t="s" s="2">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="C95" s="2"/>
       <c r="D95" t="s" s="2">
-        <v>94</v>
+        <v>76</v>
       </c>
       <c r="E95" s="2"/>
       <c r="F95" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G95" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="H95" t="s" s="2">
         <v>76</v>
@@ -11544,17 +11553,15 @@
         <v>76</v>
       </c>
       <c r="K95" t="s" s="2">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="L95" t="s" s="2">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="M95" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="N95" t="s" s="2">
-        <v>98</v>
-      </c>
+        <v>91</v>
+      </c>
+      <c r="N95" s="2"/>
       <c r="O95" s="2"/>
       <c r="P95" t="s" s="2">
         <v>76</v>
@@ -11591,31 +11598,31 @@
         <v>76</v>
       </c>
       <c r="AB95" t="s" s="2">
-        <v>99</v>
+        <v>76</v>
       </c>
       <c r="AC95" t="s" s="2">
-        <v>100</v>
+        <v>76</v>
       </c>
       <c r="AD95" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AE95" t="s" s="2">
-        <v>101</v>
+        <v>76</v>
       </c>
       <c r="AF95" t="s" s="2">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="AG95" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH95" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="AI95" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ95" t="s" s="2">
-        <v>103</v>
+        <v>76</v>
       </c>
       <c r="AK95" t="s" s="2">
         <v>76</v>
@@ -11626,21 +11633,21 @@
     </row>
     <row r="96">
       <c r="A96" t="s" s="2">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="B96" t="s" s="2">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="C96" s="2"/>
       <c r="D96" t="s" s="2">
-        <v>76</v>
+        <v>94</v>
       </c>
       <c r="E96" s="2"/>
       <c r="F96" t="s" s="2">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="G96" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="H96" t="s" s="2">
         <v>76</v>
@@ -11652,15 +11659,17 @@
         <v>76</v>
       </c>
       <c r="K96" t="s" s="2">
-        <v>119</v>
+        <v>95</v>
       </c>
       <c r="L96" t="s" s="2">
-        <v>320</v>
+        <v>96</v>
       </c>
       <c r="M96" t="s" s="2">
-        <v>320</v>
-      </c>
-      <c r="N96" s="2"/>
+        <v>97</v>
+      </c>
+      <c r="N96" t="s" s="2">
+        <v>98</v>
+      </c>
       <c r="O96" s="2"/>
       <c r="P96" t="s" s="2">
         <v>76</v>
@@ -11697,45 +11706,45 @@
         <v>76</v>
       </c>
       <c r="AB96" t="s" s="2">
-        <v>76</v>
+        <v>99</v>
       </c>
       <c r="AC96" t="s" s="2">
-        <v>76</v>
+        <v>100</v>
       </c>
       <c r="AD96" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AE96" t="s" s="2">
-        <v>76</v>
+        <v>101</v>
       </c>
       <c r="AF96" t="s" s="2">
-        <v>356</v>
+        <v>102</v>
       </c>
       <c r="AG96" t="s" s="2">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="AH96" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="AI96" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ96" t="s" s="2">
-        <v>76</v>
+        <v>103</v>
       </c>
       <c r="AK96" t="s" s="2">
-        <v>357</v>
+        <v>76</v>
       </c>
       <c r="AL96" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="B97" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="C97" s="2"/>
       <c r="D97" t="s" s="2">
@@ -11758,7 +11767,7 @@
         <v>76</v>
       </c>
       <c r="K97" t="s" s="2">
-        <v>236</v>
+        <v>119</v>
       </c>
       <c r="L97" t="s" s="2">
         <v>323</v>
@@ -11815,7 +11824,7 @@
         <v>76</v>
       </c>
       <c r="AF97" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="AG97" t="s" s="2">
         <v>88</v>
@@ -11830,7 +11839,7 @@
         <v>76</v>
       </c>
       <c r="AK97" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="AL97" t="s" s="2">
         <v>76</v>
@@ -11838,10 +11847,10 @@
     </row>
     <row r="98">
       <c r="A98" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="B98" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="C98" s="2"/>
       <c r="D98" t="s" s="2">
@@ -11864,13 +11873,13 @@
         <v>76</v>
       </c>
       <c r="K98" t="s" s="2">
-        <v>105</v>
+        <v>239</v>
       </c>
       <c r="L98" t="s" s="2">
-        <v>361</v>
+        <v>326</v>
       </c>
       <c r="M98" t="s" s="2">
-        <v>361</v>
+        <v>326</v>
       </c>
       <c r="N98" s="2"/>
       <c r="O98" s="2"/>
@@ -11921,7 +11930,7 @@
         <v>76</v>
       </c>
       <c r="AF98" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="AG98" t="s" s="2">
         <v>88</v>
@@ -11933,7 +11942,7 @@
         <v>76</v>
       </c>
       <c r="AJ98" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="AK98" t="s" s="2">
         <v>362</v>
@@ -11955,7 +11964,7 @@
       </c>
       <c r="E99" s="2"/>
       <c r="F99" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="G99" t="s" s="2">
         <v>88</v>
@@ -11970,13 +11979,13 @@
         <v>76</v>
       </c>
       <c r="K99" t="s" s="2">
-        <v>89</v>
+        <v>105</v>
       </c>
       <c r="L99" t="s" s="2">
-        <v>90</v>
+        <v>364</v>
       </c>
       <c r="M99" t="s" s="2">
-        <v>91</v>
+        <v>364</v>
       </c>
       <c r="N99" s="2"/>
       <c r="O99" s="2"/>
@@ -12027,10 +12036,10 @@
         <v>76</v>
       </c>
       <c r="AF99" t="s" s="2">
-        <v>92</v>
+        <v>363</v>
       </c>
       <c r="AG99" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="AH99" t="s" s="2">
         <v>88</v>
@@ -12039,32 +12048,32 @@
         <v>76</v>
       </c>
       <c r="AJ99" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="AK99" t="s" s="2">
-        <v>76</v>
+        <v>365</v>
       </c>
       <c r="AL99" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="s" s="2">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="B100" t="s" s="2">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="C100" s="2"/>
       <c r="D100" t="s" s="2">
-        <v>94</v>
+        <v>76</v>
       </c>
       <c r="E100" s="2"/>
       <c r="F100" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G100" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="H100" t="s" s="2">
         <v>76</v>
@@ -12076,17 +12085,15 @@
         <v>76</v>
       </c>
       <c r="K100" t="s" s="2">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="L100" t="s" s="2">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="M100" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="N100" t="s" s="2">
-        <v>98</v>
-      </c>
+        <v>91</v>
+      </c>
+      <c r="N100" s="2"/>
       <c r="O100" s="2"/>
       <c r="P100" t="s" s="2">
         <v>76</v>
@@ -12123,31 +12130,31 @@
         <v>76</v>
       </c>
       <c r="AB100" t="s" s="2">
-        <v>99</v>
+        <v>76</v>
       </c>
       <c r="AC100" t="s" s="2">
-        <v>100</v>
+        <v>76</v>
       </c>
       <c r="AD100" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AE100" t="s" s="2">
-        <v>101</v>
+        <v>76</v>
       </c>
       <c r="AF100" t="s" s="2">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="AG100" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH100" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="AI100" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ100" t="s" s="2">
-        <v>103</v>
+        <v>76</v>
       </c>
       <c r="AK100" t="s" s="2">
         <v>76</v>
@@ -12158,21 +12165,21 @@
     </row>
     <row r="101">
       <c r="A101" t="s" s="2">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="B101" t="s" s="2">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="C101" s="2"/>
       <c r="D101" t="s" s="2">
-        <v>76</v>
+        <v>94</v>
       </c>
       <c r="E101" s="2"/>
       <c r="F101" t="s" s="2">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="G101" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="H101" t="s" s="2">
         <v>76</v>
@@ -12184,15 +12191,17 @@
         <v>76</v>
       </c>
       <c r="K101" t="s" s="2">
-        <v>119</v>
+        <v>95</v>
       </c>
       <c r="L101" t="s" s="2">
-        <v>320</v>
+        <v>96</v>
       </c>
       <c r="M101" t="s" s="2">
-        <v>320</v>
-      </c>
-      <c r="N101" s="2"/>
+        <v>97</v>
+      </c>
+      <c r="N101" t="s" s="2">
+        <v>98</v>
+      </c>
       <c r="O101" s="2"/>
       <c r="P101" t="s" s="2">
         <v>76</v>
@@ -12229,45 +12238,45 @@
         <v>76</v>
       </c>
       <c r="AB101" t="s" s="2">
-        <v>76</v>
+        <v>99</v>
       </c>
       <c r="AC101" t="s" s="2">
-        <v>76</v>
+        <v>100</v>
       </c>
       <c r="AD101" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AE101" t="s" s="2">
-        <v>76</v>
+        <v>101</v>
       </c>
       <c r="AF101" t="s" s="2">
-        <v>365</v>
+        <v>102</v>
       </c>
       <c r="AG101" t="s" s="2">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="AH101" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="AI101" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ101" t="s" s="2">
-        <v>76</v>
+        <v>103</v>
       </c>
       <c r="AK101" t="s" s="2">
-        <v>366</v>
+        <v>76</v>
       </c>
       <c r="AL101" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="B102" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="C102" s="2"/>
       <c r="D102" t="s" s="2">
@@ -12290,13 +12299,13 @@
         <v>76</v>
       </c>
       <c r="K102" t="s" s="2">
-        <v>236</v>
+        <v>119</v>
       </c>
       <c r="L102" t="s" s="2">
-        <v>368</v>
+        <v>323</v>
       </c>
       <c r="M102" t="s" s="2">
-        <v>368</v>
+        <v>323</v>
       </c>
       <c r="N102" s="2"/>
       <c r="O102" s="2"/>
@@ -12347,7 +12356,7 @@
         <v>76</v>
       </c>
       <c r="AF102" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="AG102" t="s" s="2">
         <v>88</v>
@@ -12365,6 +12374,112 @@
         <v>369</v>
       </c>
       <c r="AL102" t="s" s="2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="s" s="2">
+        <v>370</v>
+      </c>
+      <c r="B103" t="s" s="2">
+        <v>370</v>
+      </c>
+      <c r="C103" s="2"/>
+      <c r="D103" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="E103" s="2"/>
+      <c r="F103" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G103" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="H103" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I103" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J103" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="K103" t="s" s="2">
+        <v>239</v>
+      </c>
+      <c r="L103" t="s" s="2">
+        <v>371</v>
+      </c>
+      <c r="M103" t="s" s="2">
+        <v>371</v>
+      </c>
+      <c r="N103" s="2"/>
+      <c r="O103" s="2"/>
+      <c r="P103" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Q103" s="2"/>
+      <c r="R103" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="S103" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T103" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U103" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V103" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W103" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X103" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y103" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z103" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA103" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB103" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC103" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD103" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE103" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF103" t="s" s="2">
+        <v>370</v>
+      </c>
+      <c r="AG103" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AH103" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AI103" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ103" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AK103" t="s" s="2">
+        <v>372</v>
+      </c>
+      <c r="AL103" t="s" s="2">
         <v>76</v>
       </c>
     </row>

--- a/ig/ch-elm/StructureDefinition-LaboratoryReport.xlsx
+++ b/ig/ch-elm/StructureDefinition-LaboratoryReport.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3466" uniqueCount="373">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3433" uniqueCount="370">
   <si>
     <t>Property</t>
   </si>
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.7.0</t>
+    <t>1.8.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-11-28T14:18:34+00:00</t>
+    <t>2025-02-04T09:19:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1014,7 +1014,7 @@
     <t>LaboratoryReport.TestResult.Type.CodeSystem</t>
   </si>
   <si>
-    <t>Identity fo the terminolgy system</t>
+    <t>Identity fo the terminology system</t>
   </si>
   <si>
     <t>Bundle.entry[0].resource.section.entry.resolve().code.coding.where(system='http://loinc.org').system</t>
@@ -1089,15 +1089,6 @@
     <t>Bundle.entry[0].resource.section.entry.resolve().specimen.resolve().type.coding.where(system='http://snomed.info/sct').system</t>
   </si>
   <si>
-    <t>LaboratoryReport.TestResult.Specimen.Type.Text</t>
-  </si>
-  <si>
-    <t>Remark that material is declared by Observation.code or non-mandatory</t>
-  </si>
-  <si>
-    <t>Bundle.entry[0].resource.section.entry.resolve().specimen.resolve().type.text</t>
-  </si>
-  <si>
     <t>LaboratoryReport.TestResult.Value</t>
   </si>
   <si>
@@ -1149,7 +1140,7 @@
     <t>LaboratoryReport.TestResult.Interpretation.CodeSystem</t>
   </si>
   <si>
-    <t>Identity fo the terminolgy system (HL7 ObservationInterpretation)</t>
+    <t>Identity fo the terminology system (HL7 ObservationInterpretation)</t>
   </si>
   <si>
     <t>Bundle.entry[0].resource.section.entry.resolve().interpretation.coding.where(system='http://terminology.hl7.org/CodeSystem/v3-ObservationInterpretation').system</t>
@@ -1459,7 +1450,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AL103"/>
+  <dimension ref="A1:AL102"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -11326,7 +11317,7 @@
       </c>
       <c r="E93" s="2"/>
       <c r="F93" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="G93" t="s" s="2">
         <v>88</v>
@@ -11341,7 +11332,7 @@
         <v>76</v>
       </c>
       <c r="K93" t="s" s="2">
-        <v>89</v>
+        <v>105</v>
       </c>
       <c r="L93" t="s" s="2">
         <v>352</v>
@@ -11401,7 +11392,7 @@
         <v>351</v>
       </c>
       <c r="AG93" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="AH93" t="s" s="2">
         <v>88</v>
@@ -11410,7 +11401,7 @@
         <v>76</v>
       </c>
       <c r="AJ93" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="AK93" t="s" s="2">
         <v>353</v>
@@ -11432,7 +11423,7 @@
       </c>
       <c r="E94" s="2"/>
       <c r="F94" t="s" s="2">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="G94" t="s" s="2">
         <v>88</v>
@@ -11447,13 +11438,13 @@
         <v>76</v>
       </c>
       <c r="K94" t="s" s="2">
-        <v>105</v>
+        <v>89</v>
       </c>
       <c r="L94" t="s" s="2">
-        <v>355</v>
+        <v>90</v>
       </c>
       <c r="M94" t="s" s="2">
-        <v>355</v>
+        <v>91</v>
       </c>
       <c r="N94" s="2"/>
       <c r="O94" s="2"/>
@@ -11504,10 +11495,10 @@
         <v>76</v>
       </c>
       <c r="AF94" t="s" s="2">
-        <v>354</v>
+        <v>92</v>
       </c>
       <c r="AG94" t="s" s="2">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="AH94" t="s" s="2">
         <v>88</v>
@@ -11516,32 +11507,32 @@
         <v>76</v>
       </c>
       <c r="AJ94" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="AK94" t="s" s="2">
-        <v>356</v>
+        <v>76</v>
       </c>
       <c r="AL94" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="s" s="2">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="B95" t="s" s="2">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="C95" s="2"/>
       <c r="D95" t="s" s="2">
-        <v>76</v>
+        <v>94</v>
       </c>
       <c r="E95" s="2"/>
       <c r="F95" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G95" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="H95" t="s" s="2">
         <v>76</v>
@@ -11553,15 +11544,17 @@
         <v>76</v>
       </c>
       <c r="K95" t="s" s="2">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="L95" t="s" s="2">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="M95" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="N95" s="2"/>
+        <v>97</v>
+      </c>
+      <c r="N95" t="s" s="2">
+        <v>98</v>
+      </c>
       <c r="O95" s="2"/>
       <c r="P95" t="s" s="2">
         <v>76</v>
@@ -11598,31 +11591,31 @@
         <v>76</v>
       </c>
       <c r="AB95" t="s" s="2">
-        <v>76</v>
+        <v>99</v>
       </c>
       <c r="AC95" t="s" s="2">
-        <v>76</v>
+        <v>100</v>
       </c>
       <c r="AD95" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AE95" t="s" s="2">
-        <v>76</v>
+        <v>101</v>
       </c>
       <c r="AF95" t="s" s="2">
-        <v>92</v>
+        <v>102</v>
       </c>
       <c r="AG95" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH95" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="AI95" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ95" t="s" s="2">
-        <v>76</v>
+        <v>103</v>
       </c>
       <c r="AK95" t="s" s="2">
         <v>76</v>
@@ -11633,21 +11626,21 @@
     </row>
     <row r="96">
       <c r="A96" t="s" s="2">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="B96" t="s" s="2">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="C96" s="2"/>
       <c r="D96" t="s" s="2">
-        <v>94</v>
+        <v>76</v>
       </c>
       <c r="E96" s="2"/>
       <c r="F96" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="G96" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="H96" t="s" s="2">
         <v>76</v>
@@ -11659,17 +11652,15 @@
         <v>76</v>
       </c>
       <c r="K96" t="s" s="2">
-        <v>95</v>
+        <v>119</v>
       </c>
       <c r="L96" t="s" s="2">
-        <v>96</v>
+        <v>323</v>
       </c>
       <c r="M96" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="N96" t="s" s="2">
-        <v>98</v>
-      </c>
+        <v>323</v>
+      </c>
+      <c r="N96" s="2"/>
       <c r="O96" s="2"/>
       <c r="P96" t="s" s="2">
         <v>76</v>
@@ -11706,45 +11697,45 @@
         <v>76</v>
       </c>
       <c r="AB96" t="s" s="2">
-        <v>99</v>
+        <v>76</v>
       </c>
       <c r="AC96" t="s" s="2">
-        <v>100</v>
+        <v>76</v>
       </c>
       <c r="AD96" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AE96" t="s" s="2">
-        <v>101</v>
+        <v>76</v>
       </c>
       <c r="AF96" t="s" s="2">
-        <v>102</v>
+        <v>356</v>
       </c>
       <c r="AG96" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="AH96" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="AI96" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ96" t="s" s="2">
-        <v>103</v>
+        <v>76</v>
       </c>
       <c r="AK96" t="s" s="2">
-        <v>76</v>
+        <v>357</v>
       </c>
       <c r="AL96" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="s" s="2">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B97" t="s" s="2">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="C97" s="2"/>
       <c r="D97" t="s" s="2">
@@ -11767,13 +11758,13 @@
         <v>76</v>
       </c>
       <c r="K97" t="s" s="2">
-        <v>119</v>
+        <v>239</v>
       </c>
       <c r="L97" t="s" s="2">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="M97" t="s" s="2">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="N97" s="2"/>
       <c r="O97" s="2"/>
@@ -11824,22 +11815,22 @@
         <v>76</v>
       </c>
       <c r="AF97" t="s" s="2">
+        <v>358</v>
+      </c>
+      <c r="AG97" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AH97" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AI97" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ97" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AK97" t="s" s="2">
         <v>359</v>
-      </c>
-      <c r="AG97" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AH97" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AI97" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AJ97" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AK97" t="s" s="2">
-        <v>360</v>
       </c>
       <c r="AL97" t="s" s="2">
         <v>76</v>
@@ -11847,10 +11838,10 @@
     </row>
     <row r="98">
       <c r="A98" t="s" s="2">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B98" t="s" s="2">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="C98" s="2"/>
       <c r="D98" t="s" s="2">
@@ -11873,13 +11864,13 @@
         <v>76</v>
       </c>
       <c r="K98" t="s" s="2">
-        <v>239</v>
+        <v>105</v>
       </c>
       <c r="L98" t="s" s="2">
-        <v>326</v>
+        <v>361</v>
       </c>
       <c r="M98" t="s" s="2">
-        <v>326</v>
+        <v>361</v>
       </c>
       <c r="N98" s="2"/>
       <c r="O98" s="2"/>
@@ -11930,7 +11921,7 @@
         <v>76</v>
       </c>
       <c r="AF98" t="s" s="2">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="AG98" t="s" s="2">
         <v>88</v>
@@ -11942,7 +11933,7 @@
         <v>76</v>
       </c>
       <c r="AJ98" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="AK98" t="s" s="2">
         <v>362</v>
@@ -11964,7 +11955,7 @@
       </c>
       <c r="E99" s="2"/>
       <c r="F99" t="s" s="2">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="G99" t="s" s="2">
         <v>88</v>
@@ -11979,13 +11970,13 @@
         <v>76</v>
       </c>
       <c r="K99" t="s" s="2">
-        <v>105</v>
+        <v>89</v>
       </c>
       <c r="L99" t="s" s="2">
-        <v>364</v>
+        <v>90</v>
       </c>
       <c r="M99" t="s" s="2">
-        <v>364</v>
+        <v>91</v>
       </c>
       <c r="N99" s="2"/>
       <c r="O99" s="2"/>
@@ -12036,10 +12027,10 @@
         <v>76</v>
       </c>
       <c r="AF99" t="s" s="2">
-        <v>363</v>
+        <v>92</v>
       </c>
       <c r="AG99" t="s" s="2">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="AH99" t="s" s="2">
         <v>88</v>
@@ -12048,32 +12039,32 @@
         <v>76</v>
       </c>
       <c r="AJ99" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="AK99" t="s" s="2">
-        <v>365</v>
+        <v>76</v>
       </c>
       <c r="AL99" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="s" s="2">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="B100" t="s" s="2">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="C100" s="2"/>
       <c r="D100" t="s" s="2">
-        <v>76</v>
+        <v>94</v>
       </c>
       <c r="E100" s="2"/>
       <c r="F100" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G100" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="H100" t="s" s="2">
         <v>76</v>
@@ -12085,15 +12076,17 @@
         <v>76</v>
       </c>
       <c r="K100" t="s" s="2">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="L100" t="s" s="2">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="M100" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="N100" s="2"/>
+        <v>97</v>
+      </c>
+      <c r="N100" t="s" s="2">
+        <v>98</v>
+      </c>
       <c r="O100" s="2"/>
       <c r="P100" t="s" s="2">
         <v>76</v>
@@ -12130,31 +12123,31 @@
         <v>76</v>
       </c>
       <c r="AB100" t="s" s="2">
-        <v>76</v>
+        <v>99</v>
       </c>
       <c r="AC100" t="s" s="2">
-        <v>76</v>
+        <v>100</v>
       </c>
       <c r="AD100" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AE100" t="s" s="2">
-        <v>76</v>
+        <v>101</v>
       </c>
       <c r="AF100" t="s" s="2">
-        <v>92</v>
+        <v>102</v>
       </c>
       <c r="AG100" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH100" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="AI100" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ100" t="s" s="2">
-        <v>76</v>
+        <v>103</v>
       </c>
       <c r="AK100" t="s" s="2">
         <v>76</v>
@@ -12165,21 +12158,21 @@
     </row>
     <row r="101">
       <c r="A101" t="s" s="2">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="B101" t="s" s="2">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="C101" s="2"/>
       <c r="D101" t="s" s="2">
-        <v>94</v>
+        <v>76</v>
       </c>
       <c r="E101" s="2"/>
       <c r="F101" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="G101" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="H101" t="s" s="2">
         <v>76</v>
@@ -12191,17 +12184,15 @@
         <v>76</v>
       </c>
       <c r="K101" t="s" s="2">
-        <v>95</v>
+        <v>119</v>
       </c>
       <c r="L101" t="s" s="2">
-        <v>96</v>
+        <v>323</v>
       </c>
       <c r="M101" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="N101" t="s" s="2">
-        <v>98</v>
-      </c>
+        <v>323</v>
+      </c>
+      <c r="N101" s="2"/>
       <c r="O101" s="2"/>
       <c r="P101" t="s" s="2">
         <v>76</v>
@@ -12238,45 +12229,45 @@
         <v>76</v>
       </c>
       <c r="AB101" t="s" s="2">
-        <v>99</v>
+        <v>76</v>
       </c>
       <c r="AC101" t="s" s="2">
-        <v>100</v>
+        <v>76</v>
       </c>
       <c r="AD101" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AE101" t="s" s="2">
-        <v>101</v>
+        <v>76</v>
       </c>
       <c r="AF101" t="s" s="2">
-        <v>102</v>
+        <v>365</v>
       </c>
       <c r="AG101" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="AH101" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="AI101" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ101" t="s" s="2">
-        <v>103</v>
+        <v>76</v>
       </c>
       <c r="AK101" t="s" s="2">
-        <v>76</v>
+        <v>366</v>
       </c>
       <c r="AL101" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="s" s="2">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B102" t="s" s="2">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="C102" s="2"/>
       <c r="D102" t="s" s="2">
@@ -12299,13 +12290,13 @@
         <v>76</v>
       </c>
       <c r="K102" t="s" s="2">
-        <v>119</v>
+        <v>239</v>
       </c>
       <c r="L102" t="s" s="2">
-        <v>323</v>
+        <v>368</v>
       </c>
       <c r="M102" t="s" s="2">
-        <v>323</v>
+        <v>368</v>
       </c>
       <c r="N102" s="2"/>
       <c r="O102" s="2"/>
@@ -12356,7 +12347,7 @@
         <v>76</v>
       </c>
       <c r="AF102" t="s" s="2">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="AG102" t="s" s="2">
         <v>88</v>
@@ -12374,112 +12365,6 @@
         <v>369</v>
       </c>
       <c r="AL102" t="s" s="2">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="103">
-      <c r="A103" t="s" s="2">
-        <v>370</v>
-      </c>
-      <c r="B103" t="s" s="2">
-        <v>370</v>
-      </c>
-      <c r="C103" s="2"/>
-      <c r="D103" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="E103" s="2"/>
-      <c r="F103" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="G103" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="H103" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="I103" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="J103" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="K103" t="s" s="2">
-        <v>239</v>
-      </c>
-      <c r="L103" t="s" s="2">
-        <v>371</v>
-      </c>
-      <c r="M103" t="s" s="2">
-        <v>371</v>
-      </c>
-      <c r="N103" s="2"/>
-      <c r="O103" s="2"/>
-      <c r="P103" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Q103" s="2"/>
-      <c r="R103" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="S103" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="T103" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="U103" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="V103" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="W103" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="X103" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Y103" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="Z103" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AA103" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AB103" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AC103" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AD103" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AE103" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AF103" t="s" s="2">
-        <v>370</v>
-      </c>
-      <c r="AG103" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AH103" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AI103" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AJ103" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AK103" t="s" s="2">
-        <v>372</v>
-      </c>
-      <c r="AL103" t="s" s="2">
         <v>76</v>
       </c>
     </row>

--- a/ig/ch-elm/StructureDefinition-LaboratoryReport.xlsx
+++ b/ig/ch-elm/StructureDefinition-LaboratoryReport.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.8.0</t>
+    <t>1.9.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-04T09:19:33+00:00</t>
+    <t>2025-03-18T17:14:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/ch-elm/StructureDefinition-LaboratoryReport.xlsx
+++ b/ig/ch-elm/StructureDefinition-LaboratoryReport.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.9.0</t>
+    <t>1.9.1</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-03-18T17:14:46+00:00</t>
+    <t>2025-03-26T08:01:17+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/ch-elm/StructureDefinition-LaboratoryReport.xlsx
+++ b/ig/ch-elm/StructureDefinition-LaboratoryReport.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.9.1</t>
+    <t>1.10.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-03-26T08:01:17+00:00</t>
+    <t>2025-06-23T21:17:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1459,43 +1459,43 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="55.6484375" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="55.6484375" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="12.66015625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="12.64453125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="6.77734375" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.9453125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="5.4296875" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="16.27734375" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="13.26171875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="47.7109375" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="47.7109375" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="10.8515625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="10.83984375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="5.80859375" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.23828125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="4.65625" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="13.953125" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="11.3671875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="23.58203125" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="20.21875" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="167.43359375" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="143.54296875" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="38.2265625" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="17.171875" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="17.65625" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="19.03515625" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="18.859375" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="98.375" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="43.6484375" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="6.34765625" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="22.71875" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="42.03515625" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="17.21484375" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="14.4140625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="55.6484375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="11.0390625" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="32.7734375" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="14.72265625" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="15.13671875" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="16.3203125" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="16.16796875" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="84.33984375" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="37.421875" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="5.44140625" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="19.4765625" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="36.0390625" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="14.7578125" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="12.359375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="47.7109375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="9.046875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="9.46484375" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="199.296875" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="102.6171875" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="170.86328125" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="87.9765625" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">

--- a/ig/ch-elm/StructureDefinition-LaboratoryReport.xlsx
+++ b/ig/ch-elm/StructureDefinition-LaboratoryReport.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.10.0</t>
+    <t>1.11.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-06-23T21:17:45+00:00</t>
+    <t>2025-08-13T07:34:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -81,7 +81,7 @@
     <t>Description</t>
   </si>
   <si>
-    <t>The logical model represents the CH ELM laboratory report as an abstract data model. This data elements are defined by the ordinance of the Federal Office of Public Health (FOPH) and are then mapped to the FHIR document structure. 
+    <t>The logical model represents the CH ELM laboratory report as an abstract data model. These data elements are defined by the ordinance of the Federal Office of Public Health (FOPH) and are then mapped to the FHIR document structure. 
 Cardinalities:
 - The cardinalities in the logical model show the so-called 'best case'. This means that if these data are available, they must be submitted to the FOPH.
 - Since in reality the data is not always available, the CH ELM profiles define which elements are required or optional.
@@ -655,7 +655,7 @@
     <t>LaboratoryReport.Patient</t>
   </si>
   <si>
-    <t>Patient -&gt; Anhang 3 (Angaben zur betrofenen Person)</t>
+    <t>Patient -&gt; Anhang 3 (Angaben zur betroffenen Person)</t>
   </si>
   <si>
     <t>Bundle.entry[0].resource.subject.resolve()</t>

--- a/ig/ch-elm/StructureDefinition-LaboratoryReport.xlsx
+++ b/ig/ch-elm/StructureDefinition-LaboratoryReport.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.11.0</t>
+    <t>1.12.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-13T07:34:00+00:00</t>
+    <t>2025-10-21T11:52:21+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -740,7 +740,7 @@
     <t>A coded type for an identifier that can be used to determine which identifier to use for a specific purpose.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/identifier-type</t>
+    <t>http://hl7.org/fhir/ValueSet/identifier-type|4.0.1</t>
   </si>
   <si>
     <t>Identifier.type</t>
@@ -817,7 +817,7 @@
     <t>LaboratoryReport.Patient.Identifier.assigner</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Organization)
+    <t xml:space="preserve">Reference(Organization|4.0.1)
 </t>
   </si>
   <si>
@@ -1469,7 +1469,7 @@
     <col min="8" max="8" width="13.953125" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="11.3671875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="20.21875" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="24.74609375" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -1484,7 +1484,7 @@
     <col min="23" max="23" width="16.3203125" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="16.16796875" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="84.33984375" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="37.421875" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="38.1484375" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="5.44140625" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="19.4765625" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="36.0390625" customWidth="true" bestFit="true"/>

--- a/ig/ch-elm/StructureDefinition-LaboratoryReport.xlsx
+++ b/ig/ch-elm/StructureDefinition-LaboratoryReport.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3433" uniqueCount="370">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3665" uniqueCount="378">
   <si>
     <t>Property</t>
   </si>
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.12.0</t>
+    <t>1.13.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-21T11:52:21+00:00</t>
+    <t>2025-11-25T09:58:53+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -601,10 +601,46 @@
     <t>Bundle.entry.resource.as(DiagnosticReport).basedOn.resolve().requester.resolve().practitioner.resolve().telecom.where(system='email').value</t>
   </si>
   <si>
+    <t>LaboratoryReport.Orderer.PhysicianAddress</t>
+  </si>
+  <si>
+    <t>Address of the ordering physician (optional, if different from organization address)</t>
+  </si>
+  <si>
+    <t>LaboratoryReport.Orderer.PhysicianAddress.id</t>
+  </si>
+  <si>
+    <t>LaboratoryReport.Orderer.PhysicianAddress.extension</t>
+  </si>
+  <si>
+    <t>LaboratoryReport.Orderer.PhysicianAddress.StreetLine</t>
+  </si>
+  <si>
+    <t>Street name, house number</t>
+  </si>
+  <si>
+    <t>LaboratoryReport.Orderer.PhysicianAddress.PostBox</t>
+  </si>
+  <si>
+    <t>P.O. Box number</t>
+  </si>
+  <si>
+    <t>LaboratoryReport.Orderer.PhysicianAddress.ZipCode</t>
+  </si>
+  <si>
+    <t>Zip code</t>
+  </si>
+  <si>
+    <t>LaboratoryReport.Orderer.PhysicianAddress.City</t>
+  </si>
+  <si>
+    <t>City</t>
+  </si>
+  <si>
     <t>LaboratoryReport.Orderer.OrganizationAddress</t>
   </si>
   <si>
-    <t>Address of the ordering organization</t>
+    <t>Address of the ordering organization (default address)</t>
   </si>
   <si>
     <t>Bundle.entry.resource.as(DiagnosticReport).basedOn.resolve().requester.resolve().organization.resolve().address</t>
@@ -619,34 +655,22 @@
     <t>LaboratoryReport.Orderer.OrganizationAddress.StreetLine</t>
   </si>
   <si>
-    <t>Street name, house number</t>
-  </si>
-  <si>
     <t>Bundle.entry.resource.as(DiagnosticReport).basedOn.resolve().requester.resolve().organization.resolve().address.line.extension.where(url='http://hl7.org/fhir/StructureDefinition/iso21090-ADXP-houseNumber').value</t>
   </si>
   <si>
     <t>LaboratoryReport.Orderer.OrganizationAddress.PostBox</t>
   </si>
   <si>
-    <t>P.O. Box number</t>
-  </si>
-  <si>
     <t>Bundle.entry.resource.as(DiagnosticReport).basedOn.resolve().requester.resolve().organization.resolve().address.line.extension.where(url='http://hl7.org/fhir/StructureDefinition/iso21090-ADXP-postBox').value</t>
   </si>
   <si>
     <t>LaboratoryReport.Orderer.OrganizationAddress.ZipCode</t>
   </si>
   <si>
-    <t>Zip code</t>
-  </si>
-  <si>
     <t>Bundle.entry.resource.as(DiagnosticReport).basedOn.resolve().requester.resolve().organization.resolve().address.postalCode</t>
   </si>
   <si>
     <t>LaboratoryReport.Orderer.OrganizationAddress.City</t>
-  </si>
-  <si>
-    <t>City</t>
   </si>
   <si>
     <t>Bundle.entry.resource.as(DiagnosticReport).basedOn.resolve().requester.resolve().organization.resolve().address.city</t>
@@ -1450,7 +1474,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AL102"/>
+  <dimension ref="A1:AL109"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -5561,7 +5585,7 @@
       </c>
       <c r="E39" s="2"/>
       <c r="F39" t="s" s="2">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="G39" t="s" s="2">
         <v>88</v>
@@ -5636,7 +5660,7 @@
         <v>190</v>
       </c>
       <c r="AG39" t="s" s="2">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="AH39" t="s" s="2">
         <v>88</v>
@@ -5648,7 +5672,7 @@
         <v>84</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>192</v>
+        <v>76</v>
       </c>
       <c r="AL39" t="s" s="2">
         <v>76</v>
@@ -5656,10 +5680,10 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -5762,10 +5786,10 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -5870,10 +5894,10 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -5899,10 +5923,10 @@
         <v>89</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="N42" s="2"/>
       <c r="O42" s="2"/>
@@ -5953,7 +5977,7 @@
         <v>76</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>88</v>
@@ -5968,7 +5992,7 @@
         <v>76</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>197</v>
+        <v>76</v>
       </c>
       <c r="AL42" t="s" s="2">
         <v>76</v>
@@ -5976,10 +6000,10 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -6005,10 +6029,10 @@
         <v>89</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="N43" s="2"/>
       <c r="O43" s="2"/>
@@ -6059,7 +6083,7 @@
         <v>76</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>88</v>
@@ -6074,7 +6098,7 @@
         <v>76</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>200</v>
+        <v>76</v>
       </c>
       <c r="AL43" t="s" s="2">
         <v>76</v>
@@ -6082,10 +6106,10 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -6111,10 +6135,10 @@
         <v>89</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="N44" s="2"/>
       <c r="O44" s="2"/>
@@ -6165,7 +6189,7 @@
         <v>76</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>88</v>
@@ -6180,7 +6204,7 @@
         <v>76</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>203</v>
+        <v>76</v>
       </c>
       <c r="AL44" t="s" s="2">
         <v>76</v>
@@ -6188,10 +6212,10 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -6217,10 +6241,10 @@
         <v>89</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="N45" s="2"/>
       <c r="O45" s="2"/>
@@ -6271,7 +6295,7 @@
         <v>76</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>88</v>
@@ -6286,7 +6310,7 @@
         <v>76</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>206</v>
+        <v>76</v>
       </c>
       <c r="AL45" t="s" s="2">
         <v>76</v>
@@ -6294,10 +6318,10 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -6323,10 +6347,10 @@
         <v>105</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="N46" s="2"/>
       <c r="O46" s="2"/>
@@ -6377,7 +6401,7 @@
         <v>76</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>88</v>
@@ -6392,7 +6416,7 @@
         <v>84</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="AL46" t="s" s="2">
         <v>76</v>
@@ -6400,10 +6424,10 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -6506,10 +6530,10 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -6614,10 +6638,10 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -6640,13 +6664,13 @@
         <v>76</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>111</v>
+        <v>89</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>213</v>
+        <v>195</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>213</v>
+        <v>195</v>
       </c>
       <c r="N49" s="2"/>
       <c r="O49" s="2"/>
@@ -6697,7 +6721,7 @@
         <v>76</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>88</v>
@@ -6709,10 +6733,10 @@
         <v>76</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="AL49" t="s" s="2">
         <v>76</v>
@@ -6720,10 +6744,10 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -6731,7 +6755,7 @@
       </c>
       <c r="E50" s="2"/>
       <c r="F50" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="G50" t="s" s="2">
         <v>88</v>
@@ -6749,10 +6773,10 @@
         <v>89</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>90</v>
+        <v>197</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>91</v>
+        <v>197</v>
       </c>
       <c r="N50" s="2"/>
       <c r="O50" s="2"/>
@@ -6803,10 +6827,10 @@
         <v>76</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>92</v>
+        <v>209</v>
       </c>
       <c r="AG50" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="AH50" t="s" s="2">
         <v>88</v>
@@ -6818,29 +6842,29 @@
         <v>76</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>76</v>
+        <v>210</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
-        <v>94</v>
+        <v>76</v>
       </c>
       <c r="E51" s="2"/>
       <c r="F51" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="G51" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="H51" t="s" s="2">
         <v>76</v>
@@ -6852,17 +6876,15 @@
         <v>76</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>96</v>
+        <v>199</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="N51" t="s" s="2">
-        <v>98</v>
-      </c>
+        <v>199</v>
+      </c>
+      <c r="N51" s="2"/>
       <c r="O51" s="2"/>
       <c r="P51" t="s" s="2">
         <v>76</v>
@@ -6899,45 +6921,45 @@
         <v>76</v>
       </c>
       <c r="AB51" t="s" s="2">
-        <v>99</v>
+        <v>76</v>
       </c>
       <c r="AC51" t="s" s="2">
-        <v>100</v>
+        <v>76</v>
       </c>
       <c r="AD51" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>101</v>
+        <v>76</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>102</v>
+        <v>211</v>
       </c>
       <c r="AG51" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="AH51" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="AI51" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>103</v>
+        <v>76</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>76</v>
+        <v>212</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -6945,7 +6967,7 @@
       </c>
       <c r="E52" s="2"/>
       <c r="F52" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="G52" t="s" s="2">
         <v>88</v>
@@ -6954,26 +6976,22 @@
         <v>76</v>
       </c>
       <c r="I52" t="s" s="2">
-        <v>218</v>
+        <v>76</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>218</v>
+        <v>76</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>119</v>
+        <v>89</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>219</v>
+        <v>201</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>220</v>
-      </c>
-      <c r="N52" t="s" s="2">
-        <v>221</v>
-      </c>
-      <c r="O52" t="s" s="2">
-        <v>222</v>
-      </c>
+        <v>201</v>
+      </c>
+      <c r="N52" s="2"/>
+      <c r="O52" s="2"/>
       <c r="P52" t="s" s="2">
         <v>76</v>
       </c>
@@ -6997,13 +7015,13 @@
         <v>76</v>
       </c>
       <c r="X52" t="s" s="2">
-        <v>223</v>
+        <v>76</v>
       </c>
       <c r="Y52" t="s" s="2">
-        <v>224</v>
+        <v>76</v>
       </c>
       <c r="Z52" t="s" s="2">
-        <v>225</v>
+        <v>76</v>
       </c>
       <c r="AA52" t="s" s="2">
         <v>76</v>
@@ -7021,10 +7039,10 @@
         <v>76</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>226</v>
+        <v>213</v>
       </c>
       <c r="AG52" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="AH52" t="s" s="2">
         <v>88</v>
@@ -7033,21 +7051,21 @@
         <v>76</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>76</v>
+        <v>214</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>227</v>
+        <v>76</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>228</v>
+        <v>215</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>228</v>
+        <v>215</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -7055,7 +7073,7 @@
       </c>
       <c r="E53" s="2"/>
       <c r="F53" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="G53" t="s" s="2">
         <v>88</v>
@@ -7067,23 +7085,19 @@
         <v>76</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>218</v>
+        <v>76</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>229</v>
+        <v>105</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>230</v>
+        <v>216</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>231</v>
-      </c>
-      <c r="N53" t="s" s="2">
-        <v>232</v>
-      </c>
-      <c r="O53" t="s" s="2">
-        <v>233</v>
-      </c>
+        <v>216</v>
+      </c>
+      <c r="N53" s="2"/>
+      <c r="O53" s="2"/>
       <c r="P53" t="s" s="2">
         <v>76</v>
       </c>
@@ -7107,13 +7121,13 @@
         <v>76</v>
       </c>
       <c r="X53" t="s" s="2">
-        <v>234</v>
+        <v>76</v>
       </c>
       <c r="Y53" t="s" s="2">
-        <v>235</v>
+        <v>76</v>
       </c>
       <c r="Z53" t="s" s="2">
-        <v>236</v>
+        <v>76</v>
       </c>
       <c r="AA53" t="s" s="2">
         <v>76</v>
@@ -7131,10 +7145,10 @@
         <v>76</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>237</v>
+        <v>215</v>
       </c>
       <c r="AG53" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="AH53" t="s" s="2">
         <v>88</v>
@@ -7146,18 +7160,18 @@
         <v>84</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>76</v>
+        <v>217</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>227</v>
+        <v>76</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>238</v>
+        <v>218</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>238</v>
+        <v>218</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -7177,23 +7191,19 @@
         <v>76</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>218</v>
+        <v>76</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>239</v>
+        <v>89</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>240</v>
+        <v>90</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>241</v>
-      </c>
-      <c r="N54" t="s" s="2">
-        <v>242</v>
-      </c>
-      <c r="O54" t="s" s="2">
-        <v>243</v>
-      </c>
+        <v>91</v>
+      </c>
+      <c r="N54" s="2"/>
+      <c r="O54" s="2"/>
       <c r="P54" t="s" s="2">
         <v>76</v>
       </c>
@@ -7205,7 +7215,7 @@
         <v>76</v>
       </c>
       <c r="T54" t="s" s="2">
-        <v>244</v>
+        <v>76</v>
       </c>
       <c r="U54" t="s" s="2">
         <v>76</v>
@@ -7241,7 +7251,7 @@
         <v>76</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>245</v>
+        <v>92</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>77</v>
@@ -7253,32 +7263,32 @@
         <v>76</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="AK54" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>246</v>
+        <v>86</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>247</v>
+        <v>219</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>247</v>
+        <v>219</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
-        <v>76</v>
+        <v>94</v>
       </c>
       <c r="E55" s="2"/>
       <c r="F55" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G55" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="H55" t="s" s="2">
         <v>76</v>
@@ -7287,19 +7297,19 @@
         <v>76</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>218</v>
+        <v>76</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>248</v>
+        <v>96</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>249</v>
+        <v>97</v>
       </c>
       <c r="N55" t="s" s="2">
-        <v>250</v>
+        <v>98</v>
       </c>
       <c r="O55" s="2"/>
       <c r="P55" t="s" s="2">
@@ -7313,7 +7323,7 @@
         <v>76</v>
       </c>
       <c r="T55" t="s" s="2">
-        <v>251</v>
+        <v>76</v>
       </c>
       <c r="U55" t="s" s="2">
         <v>76</v>
@@ -7337,45 +7347,45 @@
         <v>76</v>
       </c>
       <c r="AB55" t="s" s="2">
-        <v>76</v>
+        <v>99</v>
       </c>
       <c r="AC55" t="s" s="2">
-        <v>76</v>
+        <v>100</v>
       </c>
       <c r="AD55" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>76</v>
+        <v>101</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>252</v>
+        <v>102</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH55" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="AI55" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>84</v>
+        <v>103</v>
       </c>
       <c r="AK55" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>253</v>
+        <v>86</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>254</v>
+        <v>220</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>254</v>
+        <v>220</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -7383,7 +7393,7 @@
       </c>
       <c r="E56" s="2"/>
       <c r="F56" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="G56" t="s" s="2">
         <v>88</v>
@@ -7395,16 +7405,16 @@
         <v>76</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>218</v>
+        <v>76</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>255</v>
+        <v>111</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>256</v>
+        <v>221</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>257</v>
+        <v>221</v>
       </c>
       <c r="N56" s="2"/>
       <c r="O56" s="2"/>
@@ -7455,10 +7465,10 @@
         <v>76</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>258</v>
+        <v>220</v>
       </c>
       <c r="AG56" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="AH56" t="s" s="2">
         <v>88</v>
@@ -7470,18 +7480,18 @@
         <v>84</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>76</v>
+        <v>222</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>259</v>
+        <v>76</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>260</v>
+        <v>223</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>260</v>
+        <v>223</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -7501,20 +7511,18 @@
         <v>76</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>218</v>
+        <v>76</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>261</v>
+        <v>89</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>262</v>
+        <v>90</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>263</v>
-      </c>
-      <c r="N57" t="s" s="2">
-        <v>264</v>
-      </c>
+        <v>91</v>
+      </c>
+      <c r="N57" s="2"/>
       <c r="O57" s="2"/>
       <c r="P57" t="s" s="2">
         <v>76</v>
@@ -7563,7 +7571,7 @@
         <v>76</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>265</v>
+        <v>92</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>77</v>
@@ -7575,32 +7583,32 @@
         <v>76</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="AK57" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>266</v>
+        <v>86</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>267</v>
+        <v>224</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>267</v>
+        <v>224</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
-        <v>76</v>
+        <v>94</v>
       </c>
       <c r="E58" s="2"/>
       <c r="F58" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G58" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="H58" t="s" s="2">
         <v>76</v>
@@ -7612,15 +7620,17 @@
         <v>76</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>111</v>
+        <v>95</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>268</v>
+        <v>96</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>268</v>
-      </c>
-      <c r="N58" s="2"/>
+        <v>97</v>
+      </c>
+      <c r="N58" t="s" s="2">
+        <v>98</v>
+      </c>
       <c r="O58" s="2"/>
       <c r="P58" t="s" s="2">
         <v>76</v>
@@ -7657,45 +7667,45 @@
         <v>76</v>
       </c>
       <c r="AB58" t="s" s="2">
-        <v>76</v>
+        <v>99</v>
       </c>
       <c r="AC58" t="s" s="2">
-        <v>76</v>
+        <v>100</v>
       </c>
       <c r="AD58" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>76</v>
+        <v>101</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>267</v>
+        <v>102</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH58" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="AI58" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>76</v>
+        <v>103</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>269</v>
+        <v>76</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>270</v>
+        <v>225</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>270</v>
+        <v>225</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -7712,22 +7722,26 @@
         <v>76</v>
       </c>
       <c r="I59" t="s" s="2">
-        <v>76</v>
+        <v>226</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>76</v>
+        <v>226</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>111</v>
+        <v>119</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>271</v>
+        <v>227</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>271</v>
-      </c>
-      <c r="N59" s="2"/>
-      <c r="O59" s="2"/>
+        <v>228</v>
+      </c>
+      <c r="N59" t="s" s="2">
+        <v>229</v>
+      </c>
+      <c r="O59" t="s" s="2">
+        <v>230</v>
+      </c>
       <c r="P59" t="s" s="2">
         <v>76</v>
       </c>
@@ -7751,13 +7765,13 @@
         <v>76</v>
       </c>
       <c r="X59" t="s" s="2">
-        <v>76</v>
+        <v>231</v>
       </c>
       <c r="Y59" t="s" s="2">
-        <v>76</v>
+        <v>232</v>
       </c>
       <c r="Z59" t="s" s="2">
-        <v>76</v>
+        <v>233</v>
       </c>
       <c r="AA59" t="s" s="2">
         <v>76</v>
@@ -7775,7 +7789,7 @@
         <v>76</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>270</v>
+        <v>234</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>77</v>
@@ -7787,21 +7801,21 @@
         <v>76</v>
       </c>
       <c r="AJ59" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>272</v>
+        <v>76</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>76</v>
+        <v>235</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>273</v>
+        <v>236</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>273</v>
+        <v>236</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -7809,7 +7823,7 @@
       </c>
       <c r="E60" s="2"/>
       <c r="F60" t="s" s="2">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="G60" t="s" s="2">
         <v>88</v>
@@ -7821,19 +7835,23 @@
         <v>76</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>76</v>
+        <v>226</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>89</v>
+        <v>237</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>274</v>
+        <v>238</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>274</v>
-      </c>
-      <c r="N60" s="2"/>
-      <c r="O60" s="2"/>
+        <v>239</v>
+      </c>
+      <c r="N60" t="s" s="2">
+        <v>240</v>
+      </c>
+      <c r="O60" t="s" s="2">
+        <v>241</v>
+      </c>
       <c r="P60" t="s" s="2">
         <v>76</v>
       </c>
@@ -7857,13 +7875,13 @@
         <v>76</v>
       </c>
       <c r="X60" t="s" s="2">
-        <v>76</v>
+        <v>242</v>
       </c>
       <c r="Y60" t="s" s="2">
-        <v>76</v>
+        <v>243</v>
       </c>
       <c r="Z60" t="s" s="2">
-        <v>76</v>
+        <v>244</v>
       </c>
       <c r="AA60" t="s" s="2">
         <v>76</v>
@@ -7881,10 +7899,10 @@
         <v>76</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>273</v>
+        <v>245</v>
       </c>
       <c r="AG60" t="s" s="2">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="AH60" t="s" s="2">
         <v>88</v>
@@ -7893,21 +7911,21 @@
         <v>76</v>
       </c>
       <c r="AJ60" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="AK60" t="s" s="2">
-        <v>275</v>
+        <v>76</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>76</v>
+        <v>235</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>276</v>
+        <v>246</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>276</v>
+        <v>246</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -7915,7 +7933,7 @@
       </c>
       <c r="E61" s="2"/>
       <c r="F61" t="s" s="2">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="G61" t="s" s="2">
         <v>88</v>
@@ -7927,19 +7945,23 @@
         <v>76</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>76</v>
+        <v>226</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>89</v>
+        <v>247</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>277</v>
+        <v>248</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>277</v>
-      </c>
-      <c r="N61" s="2"/>
-      <c r="O61" s="2"/>
+        <v>249</v>
+      </c>
+      <c r="N61" t="s" s="2">
+        <v>250</v>
+      </c>
+      <c r="O61" t="s" s="2">
+        <v>251</v>
+      </c>
       <c r="P61" t="s" s="2">
         <v>76</v>
       </c>
@@ -7951,7 +7973,7 @@
         <v>76</v>
       </c>
       <c r="T61" t="s" s="2">
-        <v>76</v>
+        <v>252</v>
       </c>
       <c r="U61" t="s" s="2">
         <v>76</v>
@@ -7987,10 +8009,10 @@
         <v>76</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>276</v>
+        <v>253</v>
       </c>
       <c r="AG61" t="s" s="2">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="AH61" t="s" s="2">
         <v>88</v>
@@ -7999,21 +8021,21 @@
         <v>76</v>
       </c>
       <c r="AJ61" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="AK61" t="s" s="2">
-        <v>278</v>
+        <v>76</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>76</v>
+        <v>254</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>279</v>
+        <v>255</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>279</v>
+        <v>255</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -8021,7 +8043,7 @@
       </c>
       <c r="E62" s="2"/>
       <c r="F62" t="s" s="2">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="G62" t="s" s="2">
         <v>88</v>
@@ -8033,18 +8055,20 @@
         <v>76</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>76</v>
+        <v>226</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>119</v>
+        <v>89</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>280</v>
+        <v>256</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>280</v>
-      </c>
-      <c r="N62" s="2"/>
+        <v>257</v>
+      </c>
+      <c r="N62" t="s" s="2">
+        <v>258</v>
+      </c>
       <c r="O62" s="2"/>
       <c r="P62" t="s" s="2">
         <v>76</v>
@@ -8057,7 +8081,7 @@
         <v>76</v>
       </c>
       <c r="T62" t="s" s="2">
-        <v>76</v>
+        <v>259</v>
       </c>
       <c r="U62" t="s" s="2">
         <v>76</v>
@@ -8093,10 +8117,10 @@
         <v>76</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>279</v>
+        <v>260</v>
       </c>
       <c r="AG62" t="s" s="2">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="AH62" t="s" s="2">
         <v>88</v>
@@ -8105,21 +8129,21 @@
         <v>76</v>
       </c>
       <c r="AJ62" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="AK62" t="s" s="2">
-        <v>281</v>
+        <v>76</v>
       </c>
       <c r="AL62" t="s" s="2">
-        <v>76</v>
+        <v>261</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>282</v>
+        <v>262</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>282</v>
+        <v>262</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
@@ -8127,7 +8151,7 @@
       </c>
       <c r="E63" s="2"/>
       <c r="F63" t="s" s="2">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="G63" t="s" s="2">
         <v>88</v>
@@ -8139,16 +8163,16 @@
         <v>76</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>76</v>
+        <v>226</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>283</v>
+        <v>263</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>284</v>
+        <v>264</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>284</v>
+        <v>265</v>
       </c>
       <c r="N63" s="2"/>
       <c r="O63" s="2"/>
@@ -8199,10 +8223,10 @@
         <v>76</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>282</v>
+        <v>266</v>
       </c>
       <c r="AG63" t="s" s="2">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="AH63" t="s" s="2">
         <v>88</v>
@@ -8211,21 +8235,21 @@
         <v>76</v>
       </c>
       <c r="AJ63" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="AK63" t="s" s="2">
-        <v>285</v>
+        <v>76</v>
       </c>
       <c r="AL63" t="s" s="2">
-        <v>76</v>
+        <v>267</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>286</v>
+        <v>268</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>286</v>
+        <v>268</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
@@ -8233,7 +8257,7 @@
       </c>
       <c r="E64" s="2"/>
       <c r="F64" t="s" s="2">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="G64" t="s" s="2">
         <v>88</v>
@@ -8245,18 +8269,20 @@
         <v>76</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>76</v>
+        <v>226</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>89</v>
+        <v>269</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>287</v>
+        <v>270</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>287</v>
-      </c>
-      <c r="N64" s="2"/>
+        <v>271</v>
+      </c>
+      <c r="N64" t="s" s="2">
+        <v>272</v>
+      </c>
       <c r="O64" s="2"/>
       <c r="P64" t="s" s="2">
         <v>76</v>
@@ -8305,10 +8331,10 @@
         <v>76</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>286</v>
+        <v>273</v>
       </c>
       <c r="AG64" t="s" s="2">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="AH64" t="s" s="2">
         <v>88</v>
@@ -8317,21 +8343,21 @@
         <v>76</v>
       </c>
       <c r="AJ64" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="AK64" t="s" s="2">
-        <v>288</v>
+        <v>76</v>
       </c>
       <c r="AL64" t="s" s="2">
-        <v>76</v>
+        <v>274</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>289</v>
+        <v>275</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>289</v>
+        <v>275</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
@@ -8339,7 +8365,7 @@
       </c>
       <c r="E65" s="2"/>
       <c r="F65" t="s" s="2">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="G65" t="s" s="2">
         <v>88</v>
@@ -8354,13 +8380,13 @@
         <v>76</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>290</v>
+        <v>276</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>290</v>
+        <v>276</v>
       </c>
       <c r="N65" s="2"/>
       <c r="O65" s="2"/>
@@ -8411,10 +8437,10 @@
         <v>76</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>289</v>
+        <v>275</v>
       </c>
       <c r="AG65" t="s" s="2">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="AH65" t="s" s="2">
         <v>88</v>
@@ -8423,10 +8449,10 @@
         <v>76</v>
       </c>
       <c r="AJ65" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="AK65" t="s" s="2">
-        <v>291</v>
+        <v>277</v>
       </c>
       <c r="AL65" t="s" s="2">
         <v>76</v>
@@ -8434,10 +8460,10 @@
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>292</v>
+        <v>278</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>292</v>
+        <v>278</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
@@ -8460,13 +8486,13 @@
         <v>76</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>89</v>
+        <v>111</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>90</v>
+        <v>279</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>91</v>
+        <v>279</v>
       </c>
       <c r="N66" s="2"/>
       <c r="O66" s="2"/>
@@ -8517,7 +8543,7 @@
         <v>76</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>92</v>
+        <v>278</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>77</v>
@@ -8532,29 +8558,29 @@
         <v>76</v>
       </c>
       <c r="AK66" t="s" s="2">
-        <v>76</v>
+        <v>280</v>
       </c>
       <c r="AL66" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>293</v>
+        <v>281</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>293</v>
+        <v>281</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
-        <v>94</v>
+        <v>76</v>
       </c>
       <c r="E67" s="2"/>
       <c r="F67" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="G67" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="H67" t="s" s="2">
         <v>76</v>
@@ -8566,17 +8592,15 @@
         <v>76</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>96</v>
+        <v>282</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="N67" t="s" s="2">
-        <v>98</v>
-      </c>
+        <v>282</v>
+      </c>
+      <c r="N67" s="2"/>
       <c r="O67" s="2"/>
       <c r="P67" t="s" s="2">
         <v>76</v>
@@ -8613,45 +8637,45 @@
         <v>76</v>
       </c>
       <c r="AB67" t="s" s="2">
-        <v>99</v>
+        <v>76</v>
       </c>
       <c r="AC67" t="s" s="2">
-        <v>100</v>
+        <v>76</v>
       </c>
       <c r="AD67" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AE67" t="s" s="2">
-        <v>101</v>
+        <v>76</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>102</v>
+        <v>281</v>
       </c>
       <c r="AG67" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="AH67" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="AI67" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ67" t="s" s="2">
-        <v>103</v>
+        <v>76</v>
       </c>
       <c r="AK67" t="s" s="2">
-        <v>76</v>
+        <v>283</v>
       </c>
       <c r="AL67" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>294</v>
+        <v>284</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>294</v>
+        <v>284</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
@@ -8677,10 +8701,10 @@
         <v>89</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>196</v>
+        <v>285</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>196</v>
+        <v>285</v>
       </c>
       <c r="N68" s="2"/>
       <c r="O68" s="2"/>
@@ -8731,7 +8755,7 @@
         <v>76</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>294</v>
+        <v>284</v>
       </c>
       <c r="AG68" t="s" s="2">
         <v>88</v>
@@ -8746,7 +8770,7 @@
         <v>76</v>
       </c>
       <c r="AK68" t="s" s="2">
-        <v>295</v>
+        <v>286</v>
       </c>
       <c r="AL68" t="s" s="2">
         <v>76</v>
@@ -8754,10 +8778,10 @@
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>296</v>
+        <v>287</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>296</v>
+        <v>287</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
@@ -8780,13 +8804,13 @@
         <v>76</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>89</v>
+        <v>119</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>202</v>
+        <v>288</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>202</v>
+        <v>288</v>
       </c>
       <c r="N69" s="2"/>
       <c r="O69" s="2"/>
@@ -8837,7 +8861,7 @@
         <v>76</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>296</v>
+        <v>287</v>
       </c>
       <c r="AG69" t="s" s="2">
         <v>88</v>
@@ -8852,7 +8876,7 @@
         <v>76</v>
       </c>
       <c r="AK69" t="s" s="2">
-        <v>297</v>
+        <v>289</v>
       </c>
       <c r="AL69" t="s" s="2">
         <v>76</v>
@@ -8860,10 +8884,10 @@
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>298</v>
+        <v>290</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>298</v>
+        <v>290</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
@@ -8886,13 +8910,13 @@
         <v>76</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>89</v>
+        <v>291</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>205</v>
+        <v>292</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>205</v>
+        <v>292</v>
       </c>
       <c r="N70" s="2"/>
       <c r="O70" s="2"/>
@@ -8943,7 +8967,7 @@
         <v>76</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>298</v>
+        <v>290</v>
       </c>
       <c r="AG70" t="s" s="2">
         <v>88</v>
@@ -8958,7 +8982,7 @@
         <v>76</v>
       </c>
       <c r="AK70" t="s" s="2">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="AL70" t="s" s="2">
         <v>76</v>
@@ -8966,10 +8990,10 @@
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
@@ -8992,13 +9016,13 @@
         <v>76</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>119</v>
+        <v>89</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>301</v>
+        <v>295</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>301</v>
+        <v>295</v>
       </c>
       <c r="N71" s="2"/>
       <c r="O71" s="2"/>
@@ -9049,7 +9073,7 @@
         <v>76</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="AG71" t="s" s="2">
         <v>88</v>
@@ -9064,7 +9088,7 @@
         <v>76</v>
       </c>
       <c r="AK71" t="s" s="2">
-        <v>302</v>
+        <v>296</v>
       </c>
       <c r="AL71" t="s" s="2">
         <v>76</v>
@@ -9072,10 +9096,10 @@
     </row>
     <row r="72">
       <c r="A72" t="s" s="2">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
@@ -9098,13 +9122,13 @@
         <v>76</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>119</v>
+        <v>105</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>304</v>
+        <v>298</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>304</v>
+        <v>298</v>
       </c>
       <c r="N72" s="2"/>
       <c r="O72" s="2"/>
@@ -9155,7 +9179,7 @@
         <v>76</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="AG72" t="s" s="2">
         <v>88</v>
@@ -9167,10 +9191,10 @@
         <v>76</v>
       </c>
       <c r="AJ72" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="AK72" t="s" s="2">
-        <v>305</v>
+        <v>299</v>
       </c>
       <c r="AL72" t="s" s="2">
         <v>76</v>
@@ -9178,10 +9202,10 @@
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
-        <v>306</v>
+        <v>300</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>306</v>
+        <v>300</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
@@ -9189,7 +9213,7 @@
       </c>
       <c r="E73" s="2"/>
       <c r="F73" t="s" s="2">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="G73" t="s" s="2">
         <v>88</v>
@@ -9204,13 +9228,13 @@
         <v>76</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>105</v>
+        <v>89</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>307</v>
+        <v>90</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>307</v>
+        <v>91</v>
       </c>
       <c r="N73" s="2"/>
       <c r="O73" s="2"/>
@@ -9261,10 +9285,10 @@
         <v>76</v>
       </c>
       <c r="AF73" t="s" s="2">
-        <v>306</v>
+        <v>92</v>
       </c>
       <c r="AG73" t="s" s="2">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="AH73" t="s" s="2">
         <v>88</v>
@@ -9273,32 +9297,32 @@
         <v>76</v>
       </c>
       <c r="AJ73" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="AK73" t="s" s="2">
-        <v>308</v>
+        <v>76</v>
       </c>
       <c r="AL73" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s" s="2">
-        <v>309</v>
+        <v>301</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>309</v>
+        <v>301</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
-        <v>76</v>
+        <v>94</v>
       </c>
       <c r="E74" s="2"/>
       <c r="F74" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G74" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="H74" t="s" s="2">
         <v>76</v>
@@ -9310,15 +9334,17 @@
         <v>76</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="N74" s="2"/>
+        <v>97</v>
+      </c>
+      <c r="N74" t="s" s="2">
+        <v>98</v>
+      </c>
       <c r="O74" s="2"/>
       <c r="P74" t="s" s="2">
         <v>76</v>
@@ -9355,31 +9381,31 @@
         <v>76</v>
       </c>
       <c r="AB74" t="s" s="2">
-        <v>76</v>
+        <v>99</v>
       </c>
       <c r="AC74" t="s" s="2">
-        <v>76</v>
+        <v>100</v>
       </c>
       <c r="AD74" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AE74" t="s" s="2">
-        <v>76</v>
+        <v>101</v>
       </c>
       <c r="AF74" t="s" s="2">
-        <v>92</v>
+        <v>102</v>
       </c>
       <c r="AG74" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH74" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="AI74" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ74" t="s" s="2">
-        <v>76</v>
+        <v>103</v>
       </c>
       <c r="AK74" t="s" s="2">
         <v>76</v>
@@ -9390,21 +9416,21 @@
     </row>
     <row r="75">
       <c r="A75" t="s" s="2">
-        <v>310</v>
+        <v>302</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>310</v>
+        <v>302</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" t="s" s="2">
-        <v>94</v>
+        <v>76</v>
       </c>
       <c r="E75" s="2"/>
       <c r="F75" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="G75" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="H75" t="s" s="2">
         <v>76</v>
@@ -9416,17 +9442,15 @@
         <v>76</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>96</v>
+        <v>195</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="N75" t="s" s="2">
-        <v>98</v>
-      </c>
+        <v>195</v>
+      </c>
+      <c r="N75" s="2"/>
       <c r="O75" s="2"/>
       <c r="P75" t="s" s="2">
         <v>76</v>
@@ -9463,45 +9487,45 @@
         <v>76</v>
       </c>
       <c r="AB75" t="s" s="2">
-        <v>99</v>
+        <v>76</v>
       </c>
       <c r="AC75" t="s" s="2">
-        <v>100</v>
+        <v>76</v>
       </c>
       <c r="AD75" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AE75" t="s" s="2">
-        <v>101</v>
+        <v>76</v>
       </c>
       <c r="AF75" t="s" s="2">
-        <v>102</v>
+        <v>302</v>
       </c>
       <c r="AG75" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="AH75" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="AI75" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ75" t="s" s="2">
-        <v>103</v>
+        <v>76</v>
       </c>
       <c r="AK75" t="s" s="2">
-        <v>76</v>
+        <v>303</v>
       </c>
       <c r="AL75" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s" s="2">
-        <v>311</v>
+        <v>304</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>311</v>
+        <v>304</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" t="s" s="2">
@@ -9524,13 +9548,13 @@
         <v>76</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>119</v>
+        <v>89</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>312</v>
+        <v>199</v>
       </c>
       <c r="M76" t="s" s="2">
-        <v>312</v>
+        <v>199</v>
       </c>
       <c r="N76" s="2"/>
       <c r="O76" s="2"/>
@@ -9581,7 +9605,7 @@
         <v>76</v>
       </c>
       <c r="AF76" t="s" s="2">
-        <v>311</v>
+        <v>304</v>
       </c>
       <c r="AG76" t="s" s="2">
         <v>88</v>
@@ -9596,7 +9620,7 @@
         <v>76</v>
       </c>
       <c r="AK76" t="s" s="2">
-        <v>313</v>
+        <v>305</v>
       </c>
       <c r="AL76" t="s" s="2">
         <v>76</v>
@@ -9604,10 +9628,10 @@
     </row>
     <row r="77">
       <c r="A77" t="s" s="2">
-        <v>314</v>
+        <v>306</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>314</v>
+        <v>306</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" t="s" s="2">
@@ -9630,13 +9654,13 @@
         <v>76</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>115</v>
+        <v>89</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>315</v>
+        <v>201</v>
       </c>
       <c r="M77" t="s" s="2">
-        <v>315</v>
+        <v>201</v>
       </c>
       <c r="N77" s="2"/>
       <c r="O77" s="2"/>
@@ -9687,7 +9711,7 @@
         <v>76</v>
       </c>
       <c r="AF77" t="s" s="2">
-        <v>314</v>
+        <v>306</v>
       </c>
       <c r="AG77" t="s" s="2">
         <v>88</v>
@@ -9702,7 +9726,7 @@
         <v>76</v>
       </c>
       <c r="AK77" t="s" s="2">
-        <v>316</v>
+        <v>307</v>
       </c>
       <c r="AL77" t="s" s="2">
         <v>76</v>
@@ -9710,10 +9734,10 @@
     </row>
     <row r="78">
       <c r="A78" t="s" s="2">
-        <v>317</v>
+        <v>308</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>317</v>
+        <v>308</v>
       </c>
       <c r="C78" s="2"/>
       <c r="D78" t="s" s="2">
@@ -9736,13 +9760,13 @@
         <v>76</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>105</v>
+        <v>119</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>318</v>
+        <v>309</v>
       </c>
       <c r="M78" t="s" s="2">
-        <v>318</v>
+        <v>309</v>
       </c>
       <c r="N78" s="2"/>
       <c r="O78" s="2"/>
@@ -9793,7 +9817,7 @@
         <v>76</v>
       </c>
       <c r="AF78" t="s" s="2">
-        <v>317</v>
+        <v>308</v>
       </c>
       <c r="AG78" t="s" s="2">
         <v>88</v>
@@ -9805,10 +9829,10 @@
         <v>76</v>
       </c>
       <c r="AJ78" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="AK78" t="s" s="2">
-        <v>319</v>
+        <v>310</v>
       </c>
       <c r="AL78" t="s" s="2">
         <v>76</v>
@@ -9816,10 +9840,10 @@
     </row>
     <row r="79">
       <c r="A79" t="s" s="2">
-        <v>320</v>
+        <v>311</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>320</v>
+        <v>311</v>
       </c>
       <c r="C79" s="2"/>
       <c r="D79" t="s" s="2">
@@ -9827,7 +9851,7 @@
       </c>
       <c r="E79" s="2"/>
       <c r="F79" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="G79" t="s" s="2">
         <v>88</v>
@@ -9842,13 +9866,13 @@
         <v>76</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>89</v>
+        <v>119</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>90</v>
+        <v>312</v>
       </c>
       <c r="M79" t="s" s="2">
-        <v>91</v>
+        <v>312</v>
       </c>
       <c r="N79" s="2"/>
       <c r="O79" s="2"/>
@@ -9899,10 +9923,10 @@
         <v>76</v>
       </c>
       <c r="AF79" t="s" s="2">
-        <v>92</v>
+        <v>311</v>
       </c>
       <c r="AG79" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="AH79" t="s" s="2">
         <v>88</v>
@@ -9914,29 +9938,29 @@
         <v>76</v>
       </c>
       <c r="AK79" t="s" s="2">
-        <v>76</v>
+        <v>313</v>
       </c>
       <c r="AL79" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="s" s="2">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="C80" s="2"/>
       <c r="D80" t="s" s="2">
-        <v>94</v>
+        <v>76</v>
       </c>
       <c r="E80" s="2"/>
       <c r="F80" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="G80" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="H80" t="s" s="2">
         <v>76</v>
@@ -9948,17 +9972,15 @@
         <v>76</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>95</v>
+        <v>105</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>96</v>
+        <v>315</v>
       </c>
       <c r="M80" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="N80" t="s" s="2">
-        <v>98</v>
-      </c>
+        <v>315</v>
+      </c>
+      <c r="N80" s="2"/>
       <c r="O80" s="2"/>
       <c r="P80" t="s" s="2">
         <v>76</v>
@@ -9995,45 +10017,45 @@
         <v>76</v>
       </c>
       <c r="AB80" t="s" s="2">
-        <v>99</v>
+        <v>76</v>
       </c>
       <c r="AC80" t="s" s="2">
-        <v>100</v>
+        <v>76</v>
       </c>
       <c r="AD80" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AE80" t="s" s="2">
-        <v>101</v>
+        <v>76</v>
       </c>
       <c r="AF80" t="s" s="2">
-        <v>102</v>
+        <v>314</v>
       </c>
       <c r="AG80" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="AH80" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="AI80" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ80" t="s" s="2">
-        <v>103</v>
+        <v>84</v>
       </c>
       <c r="AK80" t="s" s="2">
-        <v>76</v>
+        <v>316</v>
       </c>
       <c r="AL80" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="s" s="2">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="C81" s="2"/>
       <c r="D81" t="s" s="2">
@@ -10041,7 +10063,7 @@
       </c>
       <c r="E81" s="2"/>
       <c r="F81" t="s" s="2">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="G81" t="s" s="2">
         <v>88</v>
@@ -10056,13 +10078,13 @@
         <v>76</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>119</v>
+        <v>89</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>323</v>
+        <v>90</v>
       </c>
       <c r="M81" t="s" s="2">
-        <v>323</v>
+        <v>91</v>
       </c>
       <c r="N81" s="2"/>
       <c r="O81" s="2"/>
@@ -10113,10 +10135,10 @@
         <v>76</v>
       </c>
       <c r="AF81" t="s" s="2">
-        <v>322</v>
+        <v>92</v>
       </c>
       <c r="AG81" t="s" s="2">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="AH81" t="s" s="2">
         <v>88</v>
@@ -10128,29 +10150,29 @@
         <v>76</v>
       </c>
       <c r="AK81" t="s" s="2">
-        <v>324</v>
+        <v>76</v>
       </c>
       <c r="AL81" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="s" s="2">
-        <v>325</v>
+        <v>318</v>
       </c>
       <c r="B82" t="s" s="2">
-        <v>325</v>
+        <v>318</v>
       </c>
       <c r="C82" s="2"/>
       <c r="D82" t="s" s="2">
-        <v>76</v>
+        <v>94</v>
       </c>
       <c r="E82" s="2"/>
       <c r="F82" t="s" s="2">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="G82" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="H82" t="s" s="2">
         <v>76</v>
@@ -10162,15 +10184,17 @@
         <v>76</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>239</v>
+        <v>95</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>326</v>
+        <v>96</v>
       </c>
       <c r="M82" t="s" s="2">
-        <v>326</v>
-      </c>
-      <c r="N82" s="2"/>
+        <v>97</v>
+      </c>
+      <c r="N82" t="s" s="2">
+        <v>98</v>
+      </c>
       <c r="O82" s="2"/>
       <c r="P82" t="s" s="2">
         <v>76</v>
@@ -10207,45 +10231,45 @@
         <v>76</v>
       </c>
       <c r="AB82" t="s" s="2">
-        <v>76</v>
+        <v>99</v>
       </c>
       <c r="AC82" t="s" s="2">
-        <v>76</v>
+        <v>100</v>
       </c>
       <c r="AD82" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AE82" t="s" s="2">
-        <v>76</v>
+        <v>101</v>
       </c>
       <c r="AF82" t="s" s="2">
-        <v>325</v>
+        <v>102</v>
       </c>
       <c r="AG82" t="s" s="2">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="AH82" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="AI82" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ82" t="s" s="2">
-        <v>76</v>
+        <v>103</v>
       </c>
       <c r="AK82" t="s" s="2">
-        <v>327</v>
+        <v>76</v>
       </c>
       <c r="AL82" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="s" s="2">
-        <v>328</v>
+        <v>319</v>
       </c>
       <c r="B83" t="s" s="2">
-        <v>328</v>
+        <v>319</v>
       </c>
       <c r="C83" s="2"/>
       <c r="D83" t="s" s="2">
@@ -10268,13 +10292,13 @@
         <v>76</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>105</v>
+        <v>119</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>329</v>
+        <v>320</v>
       </c>
       <c r="M83" t="s" s="2">
-        <v>329</v>
+        <v>320</v>
       </c>
       <c r="N83" s="2"/>
       <c r="O83" s="2"/>
@@ -10325,7 +10349,7 @@
         <v>76</v>
       </c>
       <c r="AF83" t="s" s="2">
-        <v>328</v>
+        <v>319</v>
       </c>
       <c r="AG83" t="s" s="2">
         <v>88</v>
@@ -10337,10 +10361,10 @@
         <v>76</v>
       </c>
       <c r="AJ83" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="AK83" t="s" s="2">
-        <v>330</v>
+        <v>321</v>
       </c>
       <c r="AL83" t="s" s="2">
         <v>76</v>
@@ -10348,10 +10372,10 @@
     </row>
     <row r="84">
       <c r="A84" t="s" s="2">
-        <v>331</v>
+        <v>322</v>
       </c>
       <c r="B84" t="s" s="2">
-        <v>331</v>
+        <v>322</v>
       </c>
       <c r="C84" s="2"/>
       <c r="D84" t="s" s="2">
@@ -10359,7 +10383,7 @@
       </c>
       <c r="E84" s="2"/>
       <c r="F84" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="G84" t="s" s="2">
         <v>88</v>
@@ -10374,13 +10398,13 @@
         <v>76</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>89</v>
+        <v>115</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>90</v>
+        <v>323</v>
       </c>
       <c r="M84" t="s" s="2">
-        <v>91</v>
+        <v>323</v>
       </c>
       <c r="N84" s="2"/>
       <c r="O84" s="2"/>
@@ -10431,10 +10455,10 @@
         <v>76</v>
       </c>
       <c r="AF84" t="s" s="2">
-        <v>92</v>
+        <v>322</v>
       </c>
       <c r="AG84" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="AH84" t="s" s="2">
         <v>88</v>
@@ -10446,29 +10470,29 @@
         <v>76</v>
       </c>
       <c r="AK84" t="s" s="2">
-        <v>76</v>
+        <v>324</v>
       </c>
       <c r="AL84" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="s" s="2">
-        <v>332</v>
+        <v>325</v>
       </c>
       <c r="B85" t="s" s="2">
-        <v>332</v>
+        <v>325</v>
       </c>
       <c r="C85" s="2"/>
       <c r="D85" t="s" s="2">
-        <v>94</v>
+        <v>76</v>
       </c>
       <c r="E85" s="2"/>
       <c r="F85" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="G85" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="H85" t="s" s="2">
         <v>76</v>
@@ -10480,17 +10504,15 @@
         <v>76</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>95</v>
+        <v>105</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>96</v>
+        <v>326</v>
       </c>
       <c r="M85" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="N85" t="s" s="2">
-        <v>98</v>
-      </c>
+        <v>326</v>
+      </c>
+      <c r="N85" s="2"/>
       <c r="O85" s="2"/>
       <c r="P85" t="s" s="2">
         <v>76</v>
@@ -10527,45 +10549,45 @@
         <v>76</v>
       </c>
       <c r="AB85" t="s" s="2">
-        <v>99</v>
+        <v>76</v>
       </c>
       <c r="AC85" t="s" s="2">
-        <v>100</v>
+        <v>76</v>
       </c>
       <c r="AD85" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AE85" t="s" s="2">
-        <v>101</v>
+        <v>76</v>
       </c>
       <c r="AF85" t="s" s="2">
-        <v>102</v>
+        <v>325</v>
       </c>
       <c r="AG85" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="AH85" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="AI85" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ85" t="s" s="2">
-        <v>103</v>
+        <v>84</v>
       </c>
       <c r="AK85" t="s" s="2">
-        <v>76</v>
+        <v>327</v>
       </c>
       <c r="AL85" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="s" s="2">
-        <v>333</v>
+        <v>328</v>
       </c>
       <c r="B86" t="s" s="2">
-        <v>333</v>
+        <v>328</v>
       </c>
       <c r="C86" s="2"/>
       <c r="D86" t="s" s="2">
@@ -10573,7 +10595,7 @@
       </c>
       <c r="E86" s="2"/>
       <c r="F86" t="s" s="2">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="G86" t="s" s="2">
         <v>88</v>
@@ -10588,13 +10610,13 @@
         <v>76</v>
       </c>
       <c r="K86" t="s" s="2">
-        <v>115</v>
+        <v>89</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>334</v>
+        <v>90</v>
       </c>
       <c r="M86" t="s" s="2">
-        <v>334</v>
+        <v>91</v>
       </c>
       <c r="N86" s="2"/>
       <c r="O86" s="2"/>
@@ -10645,10 +10667,10 @@
         <v>76</v>
       </c>
       <c r="AF86" t="s" s="2">
-        <v>333</v>
+        <v>92</v>
       </c>
       <c r="AG86" t="s" s="2">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="AH86" t="s" s="2">
         <v>88</v>
@@ -10660,29 +10682,29 @@
         <v>76</v>
       </c>
       <c r="AK86" t="s" s="2">
-        <v>335</v>
+        <v>76</v>
       </c>
       <c r="AL86" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="s" s="2">
-        <v>336</v>
+        <v>329</v>
       </c>
       <c r="B87" t="s" s="2">
-        <v>336</v>
+        <v>329</v>
       </c>
       <c r="C87" s="2"/>
       <c r="D87" t="s" s="2">
-        <v>76</v>
+        <v>94</v>
       </c>
       <c r="E87" s="2"/>
       <c r="F87" t="s" s="2">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="G87" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="H87" t="s" s="2">
         <v>76</v>
@@ -10694,15 +10716,17 @@
         <v>76</v>
       </c>
       <c r="K87" t="s" s="2">
-        <v>119</v>
+        <v>95</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>337</v>
+        <v>96</v>
       </c>
       <c r="M87" t="s" s="2">
-        <v>337</v>
-      </c>
-      <c r="N87" s="2"/>
+        <v>97</v>
+      </c>
+      <c r="N87" t="s" s="2">
+        <v>98</v>
+      </c>
       <c r="O87" s="2"/>
       <c r="P87" t="s" s="2">
         <v>76</v>
@@ -10739,45 +10763,45 @@
         <v>76</v>
       </c>
       <c r="AB87" t="s" s="2">
-        <v>76</v>
+        <v>99</v>
       </c>
       <c r="AC87" t="s" s="2">
-        <v>76</v>
+        <v>100</v>
       </c>
       <c r="AD87" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AE87" t="s" s="2">
-        <v>76</v>
+        <v>101</v>
       </c>
       <c r="AF87" t="s" s="2">
-        <v>336</v>
+        <v>102</v>
       </c>
       <c r="AG87" t="s" s="2">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="AH87" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="AI87" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ87" t="s" s="2">
-        <v>84</v>
+        <v>103</v>
       </c>
       <c r="AK87" t="s" s="2">
-        <v>338</v>
+        <v>76</v>
       </c>
       <c r="AL87" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="s" s="2">
-        <v>339</v>
+        <v>330</v>
       </c>
       <c r="B88" t="s" s="2">
-        <v>339</v>
+        <v>330</v>
       </c>
       <c r="C88" s="2"/>
       <c r="D88" t="s" s="2">
@@ -10785,7 +10809,7 @@
       </c>
       <c r="E88" s="2"/>
       <c r="F88" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="G88" t="s" s="2">
         <v>88</v>
@@ -10800,13 +10824,13 @@
         <v>76</v>
       </c>
       <c r="K88" t="s" s="2">
-        <v>89</v>
+        <v>119</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>340</v>
+        <v>331</v>
       </c>
       <c r="M88" t="s" s="2">
-        <v>341</v>
+        <v>331</v>
       </c>
       <c r="N88" s="2"/>
       <c r="O88" s="2"/>
@@ -10857,10 +10881,10 @@
         <v>76</v>
       </c>
       <c r="AF88" t="s" s="2">
-        <v>92</v>
+        <v>330</v>
       </c>
       <c r="AG88" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="AH88" t="s" s="2">
         <v>88</v>
@@ -10872,7 +10896,7 @@
         <v>76</v>
       </c>
       <c r="AK88" t="s" s="2">
-        <v>76</v>
+        <v>332</v>
       </c>
       <c r="AL88" t="s" s="2">
         <v>76</v>
@@ -10880,21 +10904,21 @@
     </row>
     <row r="89">
       <c r="A89" t="s" s="2">
-        <v>342</v>
+        <v>333</v>
       </c>
       <c r="B89" t="s" s="2">
-        <v>342</v>
+        <v>333</v>
       </c>
       <c r="C89" s="2"/>
       <c r="D89" t="s" s="2">
-        <v>94</v>
+        <v>76</v>
       </c>
       <c r="E89" s="2"/>
       <c r="F89" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="G89" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="H89" t="s" s="2">
         <v>76</v>
@@ -10906,17 +10930,15 @@
         <v>76</v>
       </c>
       <c r="K89" t="s" s="2">
-        <v>95</v>
+        <v>247</v>
       </c>
       <c r="L89" t="s" s="2">
-        <v>96</v>
+        <v>334</v>
       </c>
       <c r="M89" t="s" s="2">
-        <v>343</v>
-      </c>
-      <c r="N89" t="s" s="2">
-        <v>98</v>
-      </c>
+        <v>334</v>
+      </c>
+      <c r="N89" s="2"/>
       <c r="O89" s="2"/>
       <c r="P89" t="s" s="2">
         <v>76</v>
@@ -10965,22 +10987,22 @@
         <v>76</v>
       </c>
       <c r="AF89" t="s" s="2">
-        <v>102</v>
+        <v>333</v>
       </c>
       <c r="AG89" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="AH89" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="AI89" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ89" t="s" s="2">
-        <v>103</v>
+        <v>76</v>
       </c>
       <c r="AK89" t="s" s="2">
-        <v>76</v>
+        <v>335</v>
       </c>
       <c r="AL89" t="s" s="2">
         <v>76</v>
@@ -10988,10 +11010,10 @@
     </row>
     <row r="90">
       <c r="A90" t="s" s="2">
-        <v>344</v>
+        <v>336</v>
       </c>
       <c r="B90" t="s" s="2">
-        <v>344</v>
+        <v>336</v>
       </c>
       <c r="C90" s="2"/>
       <c r="D90" t="s" s="2">
@@ -10999,7 +11021,7 @@
       </c>
       <c r="E90" s="2"/>
       <c r="F90" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="G90" t="s" s="2">
         <v>88</v>
@@ -11014,13 +11036,13 @@
         <v>76</v>
       </c>
       <c r="K90" t="s" s="2">
-        <v>89</v>
+        <v>105</v>
       </c>
       <c r="L90" t="s" s="2">
-        <v>345</v>
+        <v>337</v>
       </c>
       <c r="M90" t="s" s="2">
-        <v>345</v>
+        <v>337</v>
       </c>
       <c r="N90" s="2"/>
       <c r="O90" s="2"/>
@@ -11071,10 +11093,10 @@
         <v>76</v>
       </c>
       <c r="AF90" t="s" s="2">
-        <v>346</v>
+        <v>336</v>
       </c>
       <c r="AG90" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="AH90" t="s" s="2">
         <v>88</v>
@@ -11083,10 +11105,10 @@
         <v>76</v>
       </c>
       <c r="AJ90" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="AK90" t="s" s="2">
-        <v>76</v>
+        <v>338</v>
       </c>
       <c r="AL90" t="s" s="2">
         <v>76</v>
@@ -11094,10 +11116,10 @@
     </row>
     <row r="91">
       <c r="A91" t="s" s="2">
-        <v>347</v>
+        <v>339</v>
       </c>
       <c r="B91" t="s" s="2">
-        <v>347</v>
+        <v>339</v>
       </c>
       <c r="C91" s="2"/>
       <c r="D91" t="s" s="2">
@@ -11120,13 +11142,13 @@
         <v>76</v>
       </c>
       <c r="K91" t="s" s="2">
-        <v>119</v>
+        <v>89</v>
       </c>
       <c r="L91" t="s" s="2">
-        <v>323</v>
+        <v>90</v>
       </c>
       <c r="M91" t="s" s="2">
-        <v>323</v>
+        <v>91</v>
       </c>
       <c r="N91" s="2"/>
       <c r="O91" s="2"/>
@@ -11177,7 +11199,7 @@
         <v>76</v>
       </c>
       <c r="AF91" t="s" s="2">
-        <v>347</v>
+        <v>92</v>
       </c>
       <c r="AG91" t="s" s="2">
         <v>77</v>
@@ -11192,29 +11214,29 @@
         <v>76</v>
       </c>
       <c r="AK91" t="s" s="2">
-        <v>348</v>
+        <v>76</v>
       </c>
       <c r="AL91" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="s" s="2">
-        <v>349</v>
+        <v>340</v>
       </c>
       <c r="B92" t="s" s="2">
-        <v>349</v>
+        <v>340</v>
       </c>
       <c r="C92" s="2"/>
       <c r="D92" t="s" s="2">
-        <v>76</v>
+        <v>94</v>
       </c>
       <c r="E92" s="2"/>
       <c r="F92" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G92" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="H92" t="s" s="2">
         <v>76</v>
@@ -11226,15 +11248,17 @@
         <v>76</v>
       </c>
       <c r="K92" t="s" s="2">
-        <v>239</v>
+        <v>95</v>
       </c>
       <c r="L92" t="s" s="2">
-        <v>326</v>
+        <v>96</v>
       </c>
       <c r="M92" t="s" s="2">
-        <v>326</v>
-      </c>
-      <c r="N92" s="2"/>
+        <v>97</v>
+      </c>
+      <c r="N92" t="s" s="2">
+        <v>98</v>
+      </c>
       <c r="O92" s="2"/>
       <c r="P92" t="s" s="2">
         <v>76</v>
@@ -11271,45 +11295,45 @@
         <v>76</v>
       </c>
       <c r="AB92" t="s" s="2">
-        <v>76</v>
+        <v>99</v>
       </c>
       <c r="AC92" t="s" s="2">
-        <v>76</v>
+        <v>100</v>
       </c>
       <c r="AD92" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AE92" t="s" s="2">
-        <v>76</v>
+        <v>101</v>
       </c>
       <c r="AF92" t="s" s="2">
-        <v>349</v>
+        <v>102</v>
       </c>
       <c r="AG92" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH92" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="AI92" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ92" t="s" s="2">
-        <v>76</v>
+        <v>103</v>
       </c>
       <c r="AK92" t="s" s="2">
-        <v>350</v>
+        <v>76</v>
       </c>
       <c r="AL92" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="s" s="2">
-        <v>351</v>
+        <v>341</v>
       </c>
       <c r="B93" t="s" s="2">
-        <v>351</v>
+        <v>341</v>
       </c>
       <c r="C93" s="2"/>
       <c r="D93" t="s" s="2">
@@ -11332,13 +11356,13 @@
         <v>76</v>
       </c>
       <c r="K93" t="s" s="2">
-        <v>105</v>
+        <v>115</v>
       </c>
       <c r="L93" t="s" s="2">
-        <v>352</v>
+        <v>342</v>
       </c>
       <c r="M93" t="s" s="2">
-        <v>352</v>
+        <v>342</v>
       </c>
       <c r="N93" s="2"/>
       <c r="O93" s="2"/>
@@ -11389,7 +11413,7 @@
         <v>76</v>
       </c>
       <c r="AF93" t="s" s="2">
-        <v>351</v>
+        <v>341</v>
       </c>
       <c r="AG93" t="s" s="2">
         <v>88</v>
@@ -11401,10 +11425,10 @@
         <v>76</v>
       </c>
       <c r="AJ93" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="AK93" t="s" s="2">
-        <v>353</v>
+        <v>343</v>
       </c>
       <c r="AL93" t="s" s="2">
         <v>76</v>
@@ -11412,10 +11436,10 @@
     </row>
     <row r="94">
       <c r="A94" t="s" s="2">
-        <v>354</v>
+        <v>344</v>
       </c>
       <c r="B94" t="s" s="2">
-        <v>354</v>
+        <v>344</v>
       </c>
       <c r="C94" s="2"/>
       <c r="D94" t="s" s="2">
@@ -11423,7 +11447,7 @@
       </c>
       <c r="E94" s="2"/>
       <c r="F94" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="G94" t="s" s="2">
         <v>88</v>
@@ -11438,13 +11462,13 @@
         <v>76</v>
       </c>
       <c r="K94" t="s" s="2">
-        <v>89</v>
+        <v>119</v>
       </c>
       <c r="L94" t="s" s="2">
-        <v>90</v>
+        <v>345</v>
       </c>
       <c r="M94" t="s" s="2">
-        <v>91</v>
+        <v>345</v>
       </c>
       <c r="N94" s="2"/>
       <c r="O94" s="2"/>
@@ -11495,10 +11519,10 @@
         <v>76</v>
       </c>
       <c r="AF94" t="s" s="2">
-        <v>92</v>
+        <v>344</v>
       </c>
       <c r="AG94" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="AH94" t="s" s="2">
         <v>88</v>
@@ -11507,32 +11531,32 @@
         <v>76</v>
       </c>
       <c r="AJ94" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="AK94" t="s" s="2">
-        <v>76</v>
+        <v>346</v>
       </c>
       <c r="AL94" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="s" s="2">
-        <v>355</v>
+        <v>347</v>
       </c>
       <c r="B95" t="s" s="2">
-        <v>355</v>
+        <v>347</v>
       </c>
       <c r="C95" s="2"/>
       <c r="D95" t="s" s="2">
-        <v>94</v>
+        <v>76</v>
       </c>
       <c r="E95" s="2"/>
       <c r="F95" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G95" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="H95" t="s" s="2">
         <v>76</v>
@@ -11544,17 +11568,15 @@
         <v>76</v>
       </c>
       <c r="K95" t="s" s="2">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="L95" t="s" s="2">
-        <v>96</v>
+        <v>348</v>
       </c>
       <c r="M95" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="N95" t="s" s="2">
-        <v>98</v>
-      </c>
+        <v>349</v>
+      </c>
+      <c r="N95" s="2"/>
       <c r="O95" s="2"/>
       <c r="P95" t="s" s="2">
         <v>76</v>
@@ -11591,56 +11613,56 @@
         <v>76</v>
       </c>
       <c r="AB95" t="s" s="2">
-        <v>99</v>
+        <v>76</v>
       </c>
       <c r="AC95" t="s" s="2">
-        <v>100</v>
+        <v>76</v>
       </c>
       <c r="AD95" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AE95" t="s" s="2">
-        <v>101</v>
+        <v>76</v>
       </c>
       <c r="AF95" t="s" s="2">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="AG95" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH95" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="AI95" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ95" t="s" s="2">
-        <v>103</v>
+        <v>76</v>
       </c>
       <c r="AK95" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AL95" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="s" s="2">
-        <v>356</v>
+        <v>350</v>
       </c>
       <c r="B96" t="s" s="2">
-        <v>356</v>
+        <v>350</v>
       </c>
       <c r="C96" s="2"/>
       <c r="D96" t="s" s="2">
-        <v>76</v>
+        <v>94</v>
       </c>
       <c r="E96" s="2"/>
       <c r="F96" t="s" s="2">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="G96" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="H96" t="s" s="2">
         <v>76</v>
@@ -11652,15 +11674,17 @@
         <v>76</v>
       </c>
       <c r="K96" t="s" s="2">
-        <v>119</v>
+        <v>95</v>
       </c>
       <c r="L96" t="s" s="2">
-        <v>323</v>
+        <v>96</v>
       </c>
       <c r="M96" t="s" s="2">
-        <v>323</v>
-      </c>
-      <c r="N96" s="2"/>
+        <v>351</v>
+      </c>
+      <c r="N96" t="s" s="2">
+        <v>98</v>
+      </c>
       <c r="O96" s="2"/>
       <c r="P96" t="s" s="2">
         <v>76</v>
@@ -11709,22 +11733,22 @@
         <v>76</v>
       </c>
       <c r="AF96" t="s" s="2">
-        <v>356</v>
+        <v>102</v>
       </c>
       <c r="AG96" t="s" s="2">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="AH96" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="AI96" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ96" t="s" s="2">
-        <v>76</v>
+        <v>103</v>
       </c>
       <c r="AK96" t="s" s="2">
-        <v>357</v>
+        <v>76</v>
       </c>
       <c r="AL96" t="s" s="2">
         <v>76</v>
@@ -11732,10 +11756,10 @@
     </row>
     <row r="97">
       <c r="A97" t="s" s="2">
-        <v>358</v>
+        <v>352</v>
       </c>
       <c r="B97" t="s" s="2">
-        <v>358</v>
+        <v>352</v>
       </c>
       <c r="C97" s="2"/>
       <c r="D97" t="s" s="2">
@@ -11743,7 +11767,7 @@
       </c>
       <c r="E97" s="2"/>
       <c r="F97" t="s" s="2">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="G97" t="s" s="2">
         <v>88</v>
@@ -11758,13 +11782,13 @@
         <v>76</v>
       </c>
       <c r="K97" t="s" s="2">
-        <v>239</v>
+        <v>89</v>
       </c>
       <c r="L97" t="s" s="2">
-        <v>326</v>
+        <v>353</v>
       </c>
       <c r="M97" t="s" s="2">
-        <v>326</v>
+        <v>353</v>
       </c>
       <c r="N97" s="2"/>
       <c r="O97" s="2"/>
@@ -11815,10 +11839,10 @@
         <v>76</v>
       </c>
       <c r="AF97" t="s" s="2">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="AG97" t="s" s="2">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="AH97" t="s" s="2">
         <v>88</v>
@@ -11830,7 +11854,7 @@
         <v>76</v>
       </c>
       <c r="AK97" t="s" s="2">
-        <v>359</v>
+        <v>76</v>
       </c>
       <c r="AL97" t="s" s="2">
         <v>76</v>
@@ -11838,10 +11862,10 @@
     </row>
     <row r="98">
       <c r="A98" t="s" s="2">
-        <v>360</v>
+        <v>355</v>
       </c>
       <c r="B98" t="s" s="2">
-        <v>360</v>
+        <v>355</v>
       </c>
       <c r="C98" s="2"/>
       <c r="D98" t="s" s="2">
@@ -11849,7 +11873,7 @@
       </c>
       <c r="E98" s="2"/>
       <c r="F98" t="s" s="2">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="G98" t="s" s="2">
         <v>88</v>
@@ -11864,13 +11888,13 @@
         <v>76</v>
       </c>
       <c r="K98" t="s" s="2">
-        <v>105</v>
+        <v>119</v>
       </c>
       <c r="L98" t="s" s="2">
-        <v>361</v>
+        <v>331</v>
       </c>
       <c r="M98" t="s" s="2">
-        <v>361</v>
+        <v>331</v>
       </c>
       <c r="N98" s="2"/>
       <c r="O98" s="2"/>
@@ -11921,10 +11945,10 @@
         <v>76</v>
       </c>
       <c r="AF98" t="s" s="2">
-        <v>360</v>
+        <v>355</v>
       </c>
       <c r="AG98" t="s" s="2">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="AH98" t="s" s="2">
         <v>88</v>
@@ -11933,10 +11957,10 @@
         <v>76</v>
       </c>
       <c r="AJ98" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="AK98" t="s" s="2">
-        <v>362</v>
+        <v>356</v>
       </c>
       <c r="AL98" t="s" s="2">
         <v>76</v>
@@ -11944,10 +11968,10 @@
     </row>
     <row r="99">
       <c r="A99" t="s" s="2">
-        <v>363</v>
+        <v>357</v>
       </c>
       <c r="B99" t="s" s="2">
-        <v>363</v>
+        <v>357</v>
       </c>
       <c r="C99" s="2"/>
       <c r="D99" t="s" s="2">
@@ -11970,13 +11994,13 @@
         <v>76</v>
       </c>
       <c r="K99" t="s" s="2">
-        <v>89</v>
+        <v>247</v>
       </c>
       <c r="L99" t="s" s="2">
-        <v>90</v>
+        <v>334</v>
       </c>
       <c r="M99" t="s" s="2">
-        <v>91</v>
+        <v>334</v>
       </c>
       <c r="N99" s="2"/>
       <c r="O99" s="2"/>
@@ -12027,7 +12051,7 @@
         <v>76</v>
       </c>
       <c r="AF99" t="s" s="2">
-        <v>92</v>
+        <v>357</v>
       </c>
       <c r="AG99" t="s" s="2">
         <v>77</v>
@@ -12042,29 +12066,29 @@
         <v>76</v>
       </c>
       <c r="AK99" t="s" s="2">
-        <v>76</v>
+        <v>358</v>
       </c>
       <c r="AL99" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="s" s="2">
-        <v>364</v>
+        <v>359</v>
       </c>
       <c r="B100" t="s" s="2">
-        <v>364</v>
+        <v>359</v>
       </c>
       <c r="C100" s="2"/>
       <c r="D100" t="s" s="2">
-        <v>94</v>
+        <v>76</v>
       </c>
       <c r="E100" s="2"/>
       <c r="F100" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="G100" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="H100" t="s" s="2">
         <v>76</v>
@@ -12076,17 +12100,15 @@
         <v>76</v>
       </c>
       <c r="K100" t="s" s="2">
-        <v>95</v>
+        <v>105</v>
       </c>
       <c r="L100" t="s" s="2">
-        <v>96</v>
+        <v>360</v>
       </c>
       <c r="M100" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="N100" t="s" s="2">
-        <v>98</v>
-      </c>
+        <v>360</v>
+      </c>
+      <c r="N100" s="2"/>
       <c r="O100" s="2"/>
       <c r="P100" t="s" s="2">
         <v>76</v>
@@ -12123,45 +12145,45 @@
         <v>76</v>
       </c>
       <c r="AB100" t="s" s="2">
-        <v>99</v>
+        <v>76</v>
       </c>
       <c r="AC100" t="s" s="2">
-        <v>100</v>
+        <v>76</v>
       </c>
       <c r="AD100" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AE100" t="s" s="2">
-        <v>101</v>
+        <v>76</v>
       </c>
       <c r="AF100" t="s" s="2">
-        <v>102</v>
+        <v>359</v>
       </c>
       <c r="AG100" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="AH100" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="AI100" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AJ100" t="s" s="2">
-        <v>103</v>
+        <v>84</v>
       </c>
       <c r="AK100" t="s" s="2">
-        <v>76</v>
+        <v>361</v>
       </c>
       <c r="AL100" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="s" s="2">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="B101" t="s" s="2">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="C101" s="2"/>
       <c r="D101" t="s" s="2">
@@ -12169,7 +12191,7 @@
       </c>
       <c r="E101" s="2"/>
       <c r="F101" t="s" s="2">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="G101" t="s" s="2">
         <v>88</v>
@@ -12184,13 +12206,13 @@
         <v>76</v>
       </c>
       <c r="K101" t="s" s="2">
-        <v>119</v>
+        <v>89</v>
       </c>
       <c r="L101" t="s" s="2">
-        <v>323</v>
+        <v>90</v>
       </c>
       <c r="M101" t="s" s="2">
-        <v>323</v>
+        <v>91</v>
       </c>
       <c r="N101" s="2"/>
       <c r="O101" s="2"/>
@@ -12241,10 +12263,10 @@
         <v>76</v>
       </c>
       <c r="AF101" t="s" s="2">
-        <v>365</v>
+        <v>92</v>
       </c>
       <c r="AG101" t="s" s="2">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="AH101" t="s" s="2">
         <v>88</v>
@@ -12256,29 +12278,29 @@
         <v>76</v>
       </c>
       <c r="AK101" t="s" s="2">
-        <v>366</v>
+        <v>76</v>
       </c>
       <c r="AL101" t="s" s="2">
-        <v>76</v>
+        <v>86</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="s" s="2">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="B102" t="s" s="2">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="C102" s="2"/>
       <c r="D102" t="s" s="2">
-        <v>76</v>
+        <v>94</v>
       </c>
       <c r="E102" s="2"/>
       <c r="F102" t="s" s="2">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="G102" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="H102" t="s" s="2">
         <v>76</v>
@@ -12290,15 +12312,17 @@
         <v>76</v>
       </c>
       <c r="K102" t="s" s="2">
-        <v>239</v>
+        <v>95</v>
       </c>
       <c r="L102" t="s" s="2">
-        <v>368</v>
+        <v>96</v>
       </c>
       <c r="M102" t="s" s="2">
-        <v>368</v>
-      </c>
-      <c r="N102" s="2"/>
+        <v>97</v>
+      </c>
+      <c r="N102" t="s" s="2">
+        <v>98</v>
+      </c>
       <c r="O102" s="2"/>
       <c r="P102" t="s" s="2">
         <v>76</v>
@@ -12335,36 +12359,780 @@
         <v>76</v>
       </c>
       <c r="AB102" t="s" s="2">
-        <v>76</v>
+        <v>99</v>
       </c>
       <c r="AC102" t="s" s="2">
-        <v>76</v>
+        <v>100</v>
       </c>
       <c r="AD102" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AE102" t="s" s="2">
-        <v>76</v>
+        <v>101</v>
       </c>
       <c r="AF102" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="AG102" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH102" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI102" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ102" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="AK102" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AL102" t="s" s="2">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="s" s="2">
+        <v>364</v>
+      </c>
+      <c r="B103" t="s" s="2">
+        <v>364</v>
+      </c>
+      <c r="C103" s="2"/>
+      <c r="D103" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="E103" s="2"/>
+      <c r="F103" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G103" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="H103" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I103" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J103" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="K103" t="s" s="2">
+        <v>119</v>
+      </c>
+      <c r="L103" t="s" s="2">
+        <v>331</v>
+      </c>
+      <c r="M103" t="s" s="2">
+        <v>331</v>
+      </c>
+      <c r="N103" s="2"/>
+      <c r="O103" s="2"/>
+      <c r="P103" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Q103" s="2"/>
+      <c r="R103" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="S103" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T103" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U103" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V103" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W103" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X103" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y103" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z103" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA103" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB103" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC103" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD103" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE103" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF103" t="s" s="2">
+        <v>364</v>
+      </c>
+      <c r="AG103" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AH103" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AI103" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ103" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AK103" t="s" s="2">
+        <v>365</v>
+      </c>
+      <c r="AL103" t="s" s="2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="s" s="2">
+        <v>366</v>
+      </c>
+      <c r="B104" t="s" s="2">
+        <v>366</v>
+      </c>
+      <c r="C104" s="2"/>
+      <c r="D104" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="E104" s="2"/>
+      <c r="F104" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G104" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="H104" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I104" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J104" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="K104" t="s" s="2">
+        <v>247</v>
+      </c>
+      <c r="L104" t="s" s="2">
+        <v>334</v>
+      </c>
+      <c r="M104" t="s" s="2">
+        <v>334</v>
+      </c>
+      <c r="N104" s="2"/>
+      <c r="O104" s="2"/>
+      <c r="P104" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Q104" s="2"/>
+      <c r="R104" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="S104" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T104" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U104" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V104" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W104" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X104" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y104" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z104" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA104" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB104" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC104" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD104" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE104" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF104" t="s" s="2">
+        <v>366</v>
+      </c>
+      <c r="AG104" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AH104" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AI104" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ104" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AK104" t="s" s="2">
         <v>367</v>
       </c>
-      <c r="AG102" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AH102" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AI102" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AJ102" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AK102" t="s" s="2">
+      <c r="AL104" t="s" s="2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="s" s="2">
+        <v>368</v>
+      </c>
+      <c r="B105" t="s" s="2">
+        <v>368</v>
+      </c>
+      <c r="C105" s="2"/>
+      <c r="D105" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="E105" s="2"/>
+      <c r="F105" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G105" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="H105" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I105" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J105" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="K105" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="L105" t="s" s="2">
         <v>369</v>
       </c>
-      <c r="AL102" t="s" s="2">
+      <c r="M105" t="s" s="2">
+        <v>369</v>
+      </c>
+      <c r="N105" s="2"/>
+      <c r="O105" s="2"/>
+      <c r="P105" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Q105" s="2"/>
+      <c r="R105" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="S105" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T105" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U105" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V105" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W105" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X105" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y105" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z105" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA105" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB105" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC105" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD105" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE105" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF105" t="s" s="2">
+        <v>368</v>
+      </c>
+      <c r="AG105" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AH105" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AI105" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ105" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AK105" t="s" s="2">
+        <v>370</v>
+      </c>
+      <c r="AL105" t="s" s="2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="s" s="2">
+        <v>371</v>
+      </c>
+      <c r="B106" t="s" s="2">
+        <v>371</v>
+      </c>
+      <c r="C106" s="2"/>
+      <c r="D106" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="E106" s="2"/>
+      <c r="F106" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G106" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="H106" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I106" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J106" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="K106" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="L106" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="M106" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="N106" s="2"/>
+      <c r="O106" s="2"/>
+      <c r="P106" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Q106" s="2"/>
+      <c r="R106" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="S106" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T106" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U106" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V106" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W106" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X106" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y106" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z106" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA106" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB106" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC106" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD106" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE106" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF106" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="AG106" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH106" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AI106" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ106" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AK106" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AL106" t="s" s="2">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="s" s="2">
+        <v>372</v>
+      </c>
+      <c r="B107" t="s" s="2">
+        <v>372</v>
+      </c>
+      <c r="C107" s="2"/>
+      <c r="D107" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="E107" s="2"/>
+      <c r="F107" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G107" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H107" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I107" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J107" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="K107" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="L107" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="M107" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="N107" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="O107" s="2"/>
+      <c r="P107" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Q107" s="2"/>
+      <c r="R107" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="S107" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T107" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U107" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V107" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W107" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X107" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y107" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z107" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA107" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB107" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AC107" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AD107" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE107" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="AF107" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="AG107" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH107" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI107" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ107" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="AK107" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AL107" t="s" s="2">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="s" s="2">
+        <v>373</v>
+      </c>
+      <c r="B108" t="s" s="2">
+        <v>373</v>
+      </c>
+      <c r="C108" s="2"/>
+      <c r="D108" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="E108" s="2"/>
+      <c r="F108" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G108" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="H108" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I108" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J108" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="K108" t="s" s="2">
+        <v>119</v>
+      </c>
+      <c r="L108" t="s" s="2">
+        <v>331</v>
+      </c>
+      <c r="M108" t="s" s="2">
+        <v>331</v>
+      </c>
+      <c r="N108" s="2"/>
+      <c r="O108" s="2"/>
+      <c r="P108" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Q108" s="2"/>
+      <c r="R108" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="S108" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T108" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U108" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V108" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W108" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X108" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y108" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z108" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA108" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB108" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC108" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD108" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE108" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF108" t="s" s="2">
+        <v>373</v>
+      </c>
+      <c r="AG108" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AH108" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AI108" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ108" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AK108" t="s" s="2">
+        <v>374</v>
+      </c>
+      <c r="AL108" t="s" s="2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="s" s="2">
+        <v>375</v>
+      </c>
+      <c r="B109" t="s" s="2">
+        <v>375</v>
+      </c>
+      <c r="C109" s="2"/>
+      <c r="D109" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="E109" s="2"/>
+      <c r="F109" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G109" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="H109" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="I109" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="J109" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="K109" t="s" s="2">
+        <v>247</v>
+      </c>
+      <c r="L109" t="s" s="2">
+        <v>376</v>
+      </c>
+      <c r="M109" t="s" s="2">
+        <v>376</v>
+      </c>
+      <c r="N109" s="2"/>
+      <c r="O109" s="2"/>
+      <c r="P109" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Q109" s="2"/>
+      <c r="R109" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="S109" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="T109" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="U109" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="V109" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="W109" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="X109" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Y109" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="Z109" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AA109" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AB109" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AC109" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AD109" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AE109" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AF109" t="s" s="2">
+        <v>375</v>
+      </c>
+      <c r="AG109" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AH109" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AI109" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ109" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AK109" t="s" s="2">
+        <v>377</v>
+      </c>
+      <c r="AL109" t="s" s="2">
         <v>76</v>
       </c>
     </row>

--- a/ig/ch-elm/StructureDefinition-LaboratoryReport.xlsx
+++ b/ig/ch-elm/StructureDefinition-LaboratoryReport.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.13.0</t>
+    <t>1.13.1</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-25T09:58:53+00:00</t>
+    <t>2026-01-21T11:21:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
